--- a/script-excel-para-json/input/prescricoes.xlsx
+++ b/script-excel-para-json/input/prescricoes.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1ac289667d0e8ccd/Documentos/Saúde/Prescrições/Prescrição_python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1AC289667D0E8CCD/Documentos/Saúde/Prescrições/Prescrição_python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="816" documentId="13_ncr:1_{243FE48A-7C6A-41E4-8FFF-32D7F4E6C3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67584756-4D2B-440A-975C-F0779EA77809}"/>
+  <xr:revisionPtr revIDLastSave="1248" documentId="13_ncr:1_{243FE48A-7C6A-41E4-8FFF-32D7F4E6C3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C8318A9-A850-4E3E-A5E7-486C4B84D6DE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="2" xr2:uid="{4C639DE4-733A-4E7F-8720-AC3921A2C161}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="4" xr2:uid="{4C639DE4-733A-4E7F-8720-AC3921A2C161}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicamentos" sheetId="1" r:id="rId1"/>
     <sheet name="ExameFisicos" sheetId="2" r:id="rId2"/>
-    <sheet name="Procedimentos" sheetId="3" r:id="rId3"/>
-    <sheet name="Orientacoes" sheetId="4" r:id="rId4"/>
-    <sheet name="Outros" sheetId="5" r:id="rId5"/>
+    <sheet name="Evolucoes" sheetId="6" r:id="rId3"/>
+    <sheet name="Kit_medicamentos" sheetId="7" r:id="rId4"/>
+    <sheet name="Procedimentos" sheetId="3" r:id="rId5"/>
+    <sheet name="Orientacoes" sheetId="4" r:id="rId6"/>
+    <sheet name="Outros" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="Renovação_receita" localSheetId="4">Outros!$D$4</definedName>
+    <definedName name="Renovação_receita" localSheetId="6">Outros!$D$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="460">
   <si>
     <t>NomeBusca</t>
   </si>
@@ -54,10 +56,6 @@
     <t>Omeprazol</t>
   </si>
   <si>
-    <t>1. Omeprazol 20 mg - 1 caixa
-Tomar 1 cápsula pela manhã em jejum, 30 minutos antes da refeição</t>
-  </si>
-  <si>
     <t>PrescricaoCompleta</t>
   </si>
   <si>
@@ -70,20 +68,12 @@
     <t>Antiulceroso</t>
   </si>
   <si>
-    <t>1 – Dipirona 500 mg _______________________ 1 caixa
-Tomar 1 comprimido de 6 em 6 horas se dor ou febre</t>
-  </si>
-  <si>
     <t>Paracetamol</t>
   </si>
   <si>
     <t>Diclofenaco</t>
   </si>
   <si>
-    <t>1 – Diclofenaco 50 mg _____________________ 1 caixa
-Tomar 1 comprimido de 8 em 8 horas por até 5 dias</t>
-  </si>
-  <si>
     <t>Analgésico</t>
   </si>
   <si>
@@ -99,10 +89,6 @@
     <t>Analgésico opioide</t>
   </si>
   <si>
-    <t>1 – Naproxeno 250 mg ______________________1 caixa
-Tomar 1 comprimido de 12 em 12 horas por até 5 dias</t>
-  </si>
-  <si>
     <t>Escopolamina</t>
   </si>
   <si>
@@ -130,44 +116,24 @@
     <t>Ibuprofeno</t>
   </si>
   <si>
-    <t>1 - Ibuprofeno 600 mg _________________________ 1 caixa
-Tomar 1 comprimido de 8 em 8 horas por 5 dias</t>
-  </si>
-  <si>
     <t>Soro fisiológico</t>
   </si>
   <si>
     <t>Budesonida</t>
   </si>
   <si>
-    <t>1 - Budesonida spray nasal 32 mcg _______________ 1 frasco
-Aplicar 1 jato em cada narina de 12 em 12 horas por no máximo 7 dias</t>
-  </si>
-  <si>
-    <t>1 - Budesonida spray nasal 50 mcg _______________ 1 frasco
-Aplicar 1 jato em cada narina de 12 em 12 horas por no máximo 7 dias</t>
-  </si>
-  <si>
     <t>Nafazolina</t>
   </si>
   <si>
     <t>Salbutamol</t>
   </si>
   <si>
-    <t>1 – Salbutamol 100 mcg aerossol ______________ 1 frasco
-Inalar 4 jatos de 4 em 4 horas por 2 dias, e após, usar de chiado no peito ou falta de ar</t>
-  </si>
-  <si>
     <t>Agonista beta-2-adrenérgico</t>
   </si>
   <si>
     <t>Prednisona</t>
   </si>
   <si>
-    <t>1 – Prednisona 20 mg ________________ 10 cp
-Tomar 2 cp por dia por 5 dias</t>
-  </si>
-  <si>
     <t>Corticoide</t>
   </si>
   <si>
@@ -180,21 +146,9 @@
     <t>Guaco</t>
   </si>
   <si>
-    <t>1 – Chá de guaco 30 g __________________________________ 1 envelope
-Infundir 1 colher de sopa (3 g) para cada 150ml de água. Tomar 3 vezes ao dia</t>
-  </si>
-  <si>
-    <t>1 – Guaco xarope ______________________ 1 frasco
-Tomar 10 ml de 8 em 8 horas por 5 dias</t>
-  </si>
-  <si>
     <t>tosse</t>
   </si>
   <si>
-    <t>1 – Sulfato de neomicina 0,5 % + sulfato de polimixina B + hidrocortisona 1 % _______ 1 frasco
-Aplicar 4 gotas no(s) ouvido(s) acometidos de 6/6 horas por 10 dias</t>
-  </si>
-  <si>
     <t>Antibiótico, corticoide</t>
   </si>
   <si>
@@ -207,17 +161,9 @@
     <t>Ciprofloxacino, dexametasona</t>
   </si>
   <si>
-    <t>1 – Ciprofloxacino + dexametasona solução tópica ______ 1 frasco
-Aplicar 4 gotas no ouvido acometido de 12/12h por 7 dias</t>
-  </si>
-  <si>
     <t>Loratadina</t>
   </si>
   <si>
-    <t>1 – Loratadina 10 mg _____________ 1 caixa
-Tomar 1 comprimido por dia</t>
-  </si>
-  <si>
     <t>Anti-histamínico</t>
   </si>
   <si>
@@ -227,41 +173,21 @@
     <t>Tenoxicam</t>
   </si>
   <si>
-    <t>1 – Tenoxicam 20 mg _________________________ 1 caixa
-Tomar 1 comprimido por dia por até 5 dias</t>
-  </si>
-  <si>
     <t>Ciclobenzaprina</t>
   </si>
   <si>
-    <t>1 – Ciclobenzaprina 10 mg __________________ 1 caixa
-Tomar 1 comprimido por dia à noite por 7 dias</t>
-  </si>
-  <si>
     <t>Relaxante muscular</t>
   </si>
   <si>
     <t>dor muscular</t>
   </si>
   <si>
-    <t>1 – Codeina 3 mg/ml _____________ 1 frasco
-Tomar 10 ml de 6 em 6 horas se dor</t>
-  </si>
-  <si>
     <t>dor, tosse</t>
   </si>
   <si>
     <t>Tramadol</t>
   </si>
   <si>
-    <t>1 – Tramadol 50 mg ______________ 1 caixa
-Tomar 1 comprimido de 6 em 6 horas se dor</t>
-  </si>
-  <si>
-    <t>1 – Tramadol 100 mg _____________ 1 caixa
-Tomar 1 comprimido de 6 em 6 horas se dor</t>
-  </si>
-  <si>
     <t>Antiemético</t>
   </si>
   <si>
@@ -271,72 +197,36 @@
     <t>Dimenidrinato</t>
   </si>
   <si>
-    <t>1 – Dimenidrinato 50 mg ________________ 10 cp
-Tomar 1 comprimido de 6 em 6 horas se náuseas ou vômitos</t>
-  </si>
-  <si>
     <t>Dimenidrinato, piridoxina</t>
   </si>
   <si>
-    <t>1 – Dimenidrinato + piridoxina 50/10 mg ___ 10 cp
-Tomar 1 comprimido de 6 em 6 horas se náuseas ou vômitos</t>
-  </si>
-  <si>
     <t>Ivermectina</t>
   </si>
   <si>
-    <t>1 – Ivermectina 6 mg _______________ __ comprimido(s)
-Tomar __ comprimido(s). Após 1 semana tomar __ comprimido(s)</t>
-  </si>
-  <si>
     <t>Antiparasitário</t>
   </si>
   <si>
     <t>escabiose</t>
   </si>
   <si>
-    <t>1. Amoxicilina+clavulanato 500/125 mg ______ ___ comprimidos
-Tomar 1 comprimido de 8 em 8 horas por ___ dias</t>
-  </si>
-  <si>
     <t>Amoxicilina</t>
   </si>
   <si>
-    <t>1 – Amoxicilina 500 mg ______________________ __ comprimidos
-Tomar 1 comprimido de 8 em 8 horas por __ dias</t>
-  </si>
-  <si>
     <t>Cefalexina</t>
   </si>
   <si>
-    <t>1 – Cefalexina 500 mg ______________________ __ comprimidos
-Tomar 1 comprimido de 6 em 6 horas por __ dias</t>
-  </si>
-  <si>
     <t>Metronidazol</t>
   </si>
   <si>
-    <t>1 – Metronidazol 400 mg ____________________ 20 comprimidos
-Tomar 1 comprimido de 8 em 8 horas por 5 dias</t>
-  </si>
-  <si>
     <t>Ciprofloxacino</t>
   </si>
   <si>
-    <t>1 – Ciprofloxacino 250 mg _____________________ ___ comprimidos
-Tomar 1 comprimido de 12 em 12 horas por ___ dias</t>
-  </si>
-  <si>
     <t>Ceftriaxona</t>
   </si>
   <si>
     <t>Fosfomicina</t>
   </si>
   <si>
-    <t>1 – Fosfomicina 3 g ________________ 1 sache
-Tomar 1 sache diluido em água. Dose única</t>
-  </si>
-  <si>
     <t>infecção, ITU</t>
   </si>
   <si>
@@ -344,10 +234,6 @@
   </si>
   <si>
     <t>Sacarato de hidróxido férrico</t>
-  </si>
-  <si>
-    <t>1 – Sacarato de hidróxido férrico (ex..: noripurum) __________ __ amp(s)
-Diluir ___ ampolas em ___ de S.F.0,9%. Correr lentamente. Repetir a cada uma semana (__ semanas de duração)</t>
   </si>
   <si>
     <t>Ferro</t>
@@ -422,22 +308,6 @@
   </si>
   <si>
     <t>RCP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Circunstâncias do Evento:
-• Hora e local do início da parada cardíaca.
-• Condição do paciente no momento da parada (ex.: apneia, ausência de pulso, inconsciência).
-Intervenções Realizadas:
-• Compressões Torácicas: Frequência, profundidade e qualidade das compressões (ex.: "compressões realizadas a uma frequência de 100-120/min e profundidade de 5-6 cm").
-• Ventilação: Método utilizado (ex.: ventilação boca-a-máscara, bolsa-válvula-máscara, intubação endotraqueal) e frequência das ventilações.
-• Desfibrilação: Número de choques administrados, energia utilizada (ex.: "choque de 200J administrado") e resposta do paciente.
-• Medicações: Tipo, dose e via de administração de medicamentos (ex.: "1 mg de epinefrina IV a cada 3-5 minutos").
-Resultados da RCP:
-Retorno da Circulação Espontânea (RCE): Hora do RCE e condição do paciente após o RCE (ex.: "RCE obtido às 14:35, paciente com pulso palpável e pressão arterial de 90/60 mmHg").
-Interrupção da RCP: Hora e motivo da interrupção (ex.: "RCP interrompida às 14:50 devido a ordem de não ressuscitar").
-Cuidados Pós-Parada:
-• Medidas de suporte hemodinâmico e ventilatório.
-• Gerenciamento da temperatura alvo e outras intervenções crítica </t>
   </si>
   <si>
     <t>Ressuscitação cardiopulmonar</t>
@@ -549,19 +419,6 @@
     <t>Sutura</t>
   </si>
   <si>
-    <t>Uso oral 
-1 – Dipirona 500 mg _______________________ 1 caixa
-Tomar 1 comprimido de 6 em 6 horas se dor ou febre
-2 – Ibuprofeno 600 mg _____________________ 1 caixa 
-Tomar 1 comprimido de 8 em 8 horas por até 5 dias
-Uso tópico
-1 – Clorexidina 1% solução ___________________ 1 frasco
-Aplicar 2 vezes ao dia em lesão
-Obs.: Como curativo utilizar gazes ou outros curativos específicos. Usar esparadrapo para fixar. 
-Obs2.: Deixa a ferida com o curativo inicial por 24h. Realizar a troca de curativo 2 vezes ao dia. Na troca de curativo realizar limpeza com água e antisséptico (sabão neutro ou solução antisséptica); Sempre deixar a ferida coberta. Em caso de surgimento de edema, vermelhidão ou pus, ou seja, sinais de infecção procurar assistência médica. 
-Obs3.: Retirar os pontos com _ dias</t>
-  </si>
-  <si>
     <t>Renovação Uso Contínuo</t>
   </si>
   <si>
@@ -627,27 +484,15 @@
     <t>Expectorante</t>
   </si>
   <si>
-    <t>1 – Levofloxacino 750 mg _______________ ___ comprimidos
-Tomar 1 comprimido por dia por ___ dias</t>
-  </si>
-  <si>
     <t>Levofloxacino</t>
   </si>
   <si>
     <t>Sulfametoxazol, trimetoprima</t>
   </si>
   <si>
-    <t>1 - Sulfametoxazol+trimetoprima 400/80mg ________ __ comprimidos
-Tomar ___ comprimidos de _____ horas por ___ dias</t>
-  </si>
-  <si>
     <t>Miconazol</t>
   </si>
   <si>
-    <t>1 – Miconazol 2% creme ________ 1 tubo
-Usar 1 aplicador a noite por 7 dias</t>
-  </si>
-  <si>
     <t>Antifúngico</t>
   </si>
   <si>
@@ -657,17 +502,9 @@
     <t>Fluconazol</t>
   </si>
   <si>
-    <t>1 – Fluconazol 150 mg __________ 1 cp
-Tomar 1 comprimido. Dose única</t>
-  </si>
-  <si>
     <t>Carmelose</t>
   </si>
   <si>
-    <t>1 – Carmelose colírio _________ 1 frasco
-Aplicar de 4 a 8 vezes ao dia se ardência ou secura nos olhos</t>
-  </si>
-  <si>
     <t>Lubrificante</t>
   </si>
   <si>
@@ -677,44 +514,24 @@
     <t>Clorexidina</t>
   </si>
   <si>
-    <t>1 – Clorexidina 1% solução ___________________ 1 frasco
-Aplicar 2 vezes ao dia em lesão</t>
-  </si>
-  <si>
     <t>Antisséptico</t>
   </si>
   <si>
     <t>Nimesulida</t>
   </si>
   <si>
-    <t>1 – Nimesulida 100 mg_________________________ 1 caixa
-Tomar 1 comprimido de 12 em 12 horas por até 5 dias</t>
-  </si>
-  <si>
     <t>Simeticona</t>
   </si>
   <si>
-    <t>1 - Simeticona 40 mg __________________ 1 caixa
-Tomar 1 comprimido de 8 em 8h por 3 dias</t>
-  </si>
-  <si>
     <t>Antifisético</t>
   </si>
   <si>
     <t>Bromoprida</t>
   </si>
   <si>
-    <t>1 - Bromoprida 10 mg _________________ 1 caixa
-Tomar 1 comprimido de 8 em 8h se náusea</t>
-  </si>
-  <si>
     <t>Hidróxido de alumínio, hidróxido de magnésio</t>
   </si>
   <si>
-    <t>1 - Hidróxido de alumínio + hidróxido de magnésio _________ 1 frasco
-Tomar 1 colher 30 min antes das refeições principais</t>
-  </si>
-  <si>
     <t>Antiácido</t>
   </si>
   <si>
@@ -724,20 +541,12 @@
     <t>Sais de reidratação oral</t>
   </si>
   <si>
-    <t>1 - Soro de reidratação oral ________________ _ envelopes
-Diluir 1 envelope em 1 litro de água fervida ou filtrada. Tomar 1 copo para cada evacuação ou vômitos</t>
-  </si>
-  <si>
     <t>diarreia</t>
   </si>
   <si>
     <t>Lactulose</t>
   </si>
   <si>
-    <t>1 – Lactulose 667 mg/ml ________________________ 1 frasco
-Tomar 15 ml de 12 em 12 horas até melhora das fezes</t>
-  </si>
-  <si>
     <t>Laxante</t>
   </si>
   <si>
@@ -750,28 +559,16 @@
     <t>Metoclopramida</t>
   </si>
   <si>
-    <t>1 – Metoclopramida 10 mg _____________ 20 cp
-Tomar 1 comprimido de 8 em 8 horas se náuseas ou vômitos</t>
-  </si>
-  <si>
     <t>Ondansetrona</t>
   </si>
   <si>
     <t>Dexametasona</t>
   </si>
   <si>
-    <t>1 - Dexametasona creme ___________________________ 1 tubo
-Aplicar 2 vezes ao dia por ___</t>
-  </si>
-  <si>
     <t>dermatite</t>
   </si>
   <si>
     <t>Hidrocortisona</t>
-  </si>
-  <si>
-    <t>1 - Hidrocortisona creme ____________________________ 1 tubo
-Aplicar 2 vezes ao dia por ___ dias. Realizar leve fricção</t>
   </si>
   <si>
     <t>Dengue</t>
@@ -804,54 +601,18 @@
 Beba bastante líquidos!!!</t>
   </si>
   <si>
-    <t>1 – Salbutamol 100 mcg aerossol ______________ 1 frasco
-Inalar 4 jatos se desconforto respiratório pela asma</t>
-  </si>
-  <si>
-    <t>1 - Budesonida 50 mcg aerossol ______________ 1 frasco
-Inalar 4 puffs por dia</t>
-  </si>
-  <si>
-    <t>1 - Budesonida 200 mcg aerossol ______________ 1 frasco
-Inalar 1 puffs por dia</t>
-  </si>
-  <si>
     <t>Beclometasona</t>
   </si>
   <si>
-    <t>1 – Beclometasona 250 mcg aerossol ___________ 1 frasco
-Inalar 1 jato de 12 em 12 horas por dia</t>
-  </si>
-  <si>
     <t>Formoterol</t>
   </si>
   <si>
-    <t>1 – Formoterol 6 mcg aerossol _________________ 1 frasco
-Inalar 1 jato por dia. Máximo de 8 doses por dia</t>
-  </si>
-  <si>
-    <t>1 – Formoterol 12 mcg aerossol _________________ 1 frasco
-Inalar 1 jato por dia. Máximo de 4 doses por dia</t>
-  </si>
-  <si>
-    <t>1 - Fumarato de formoterol + budesonida 6/200 mcg capsula para inalação ____ 1 frasco
-Inalar 1 jato por dia</t>
-  </si>
-  <si>
     <t>Formoterol, budesonida</t>
   </si>
   <si>
-    <t>1 - Fumarato de formoterol + budesonida 12/400 mcg capsula para inalação ____ 1 frasco
-Inalar 1 jato por dia</t>
-  </si>
-  <si>
     <t>Formoterol, beclometasona</t>
   </si>
   <si>
-    <t>1 - Dipropionato de beclometasona + fumarato de formoterol 100/6 mcg aerossol ___ 1 frasco
-Inalar 1 jato de 12 em 12 horas por dia</t>
-  </si>
-  <si>
     <t>Agonista beta-2-adrenérgico, corticoide</t>
   </si>
   <si>
@@ -861,31 +622,10 @@
     <t>rolha de cerumem</t>
   </si>
   <si>
-    <t>Macrogol 3500</t>
-  </si>
-  <si>
-    <t>1 – Macrogol 3500 ____________________________ 1 caixa/envolopes
-Dissolver 1 (um) envelope em um copo com água e tomar 1 vez ao dia. Após o preparo, consumir imediatamente por via oral.</t>
-  </si>
-  <si>
     <t>Psyllium</t>
   </si>
   <si>
-    <t>1 – Psyllium __________________________________ 1 caixa
-Tomar 7 g ou 1 colhe de chá em 240 ml de água ou bebida favorita, 2 vezes ao dia. Misture bem e beba imediatamente. Para melhor efeito tome um copo adicional de água.</t>
-  </si>
-  <si>
-    <t>1 – Óleo mineral ______________________________ 1 frasco
-Tomar 1 colher de sopa (15 ml) ao deitar a noite
-Obs.: Se não melhora, pode aumentar para 2 (duas) colheres de sopa à noite e 1 (uma) pela manhã</t>
-  </si>
-  <si>
     <t>Macrogol 3350, bicarbonato de sódio, cloreto de sódio, cloreto de potássio</t>
-  </si>
-  <si>
-    <t>1 - Muvinlax (Macrogol 3350 + bicarbanato de sódio + cloreto de sódio + cloreto de potássio)
-___________________________________ 1 frasco
-Tomar 1 sache por dia até melhora das fezes. Diluir 1 sache em 1 copo com água, chá ou suco</t>
   </si>
   <si>
     <t>Policresuleno, cinchocaína</t>
@@ -904,10 +644,6 @@
     <t>Diosmina, hesperidina</t>
   </si>
   <si>
-    <t>1 – Diosmina + hesperidina 450/50 mg ______ 1 caixa
-Tomar 1 comprimido de 12 em 12 horas até melhora dos sintomas</t>
-  </si>
-  <si>
     <t>antivaricoso</t>
   </si>
   <si>
@@ -917,10 +653,6 @@
     <t>Triancinolona</t>
   </si>
   <si>
-    <t>1 – Triancinolona acetonida 1mg/g ________________ 1 tubo
-Aplicar sobre a lesão até de 8 em 8 horas por 7 dias após as refeições.</t>
-  </si>
-  <si>
     <t>Corticoide tópico</t>
   </si>
   <si>
@@ -933,17 +665,9 @@
     <t>Mupirocina</t>
   </si>
   <si>
-    <t>1 – Mupirocina 2% creme ______ 1 tubo
-Aplicar nas lesões de 8 em 8 horas por 5 dias</t>
-  </si>
-  <si>
     <t>Água boricada</t>
   </si>
   <si>
-    <t>1 – Água boricada 3% _______________________ 1 frasco
-Aplicar 2 vezes ao dia em lesão</t>
-  </si>
-  <si>
     <t>ferida</t>
   </si>
   <si>
@@ -956,52 +680,24 @@
     <t>Permetrina</t>
   </si>
   <si>
-    <t>1 – Permetrina 5% loção _________________ 1 frasco
-Aplicar sobre o corpo (Não aplicar em região de cabeça) à noite. Enxaguar pela manhã. Repetir por 3 dias. Após 1 semana, repetir por mais 3 dias.</t>
-  </si>
-  <si>
     <t>Dexclorfeniramina</t>
   </si>
   <si>
-    <t>1 – Dexclorfeniramina 2 mg ________ 1 caixa
-Tomar 1 comprimido de 8 em 8 horas</t>
-  </si>
-  <si>
     <t>alergia</t>
   </si>
   <si>
     <t>Hidroxizina</t>
   </si>
   <si>
-    <t>1 – Hidroxizina 25 mg _______________________________ 1 caixa
-Tomar 1 comprimido de 8 em 8 horas</t>
-  </si>
-  <si>
     <t>Prometazina</t>
   </si>
   <si>
-    <t>1 – Prometazina 25 mg ______________________________ 1 caixa
-Tomar 1 comprimido de 12 em 12 horas</t>
-  </si>
-  <si>
     <t>Desloratadina</t>
   </si>
   <si>
-    <t>1 – Desloratadina 5 mg ______________________________ 1 caixa
-Tomar 1 comprimido por dia</t>
-  </si>
-  <si>
     <t>Betametasona</t>
   </si>
   <si>
-    <t>1 - Betametasona 0,1mg/ml ________________________ 1 frasco
-Tomar 10 ml de 8 em 8 horas por 4 dias</t>
-  </si>
-  <si>
-    <t>1 – Prednisona 5 mg _______________________________ __ CPs
-Tomar ___ comprimido (s) por dia por ___ dias</t>
-  </si>
-  <si>
     <t>Sumatriptina</t>
   </si>
   <si>
@@ -1014,32 +710,12 @@
     <t>Cinarizina</t>
   </si>
   <si>
-    <t>1 – Cinarizina 25 mg ____________ 1 caixa
-Tomar 1 comprimido de 8 em 8 horas por 7 dias</t>
-  </si>
-  <si>
-    <t>1 – Flunarizina 10 mg ____________ 1 caixa
-Tomar 1 comprimido por dia por 7 dias</t>
-  </si>
-  <si>
-    <t>1 – Sumatriptana 50 mg __________ 1 caixa
-Tomar 1 comprimido se dor de cabeça intensa</t>
-  </si>
-  <si>
-    <t>1 – Permetrina 1% xampu ________________ 1 frasco
-Após lavar cabelo, deve-se aplicar este produto nos cabelos úmidos, cobrindo todo o couro cabeludo, e esfregar abundantemente em toda a extensão; O produto deve agir por 10 minutos. Passar o pente fino para a remoção dos piolhos e das lêndeas; Enxaguar o cabelo com água morna e enxugar com a toalha; Repetir após 7 dias, se houver necessidade; A quantidade necessária do produto depende do volume e tamanho dos cabelos, pode ser necessário usar o frasco inteiro e em alguns casos, de cabelo mais longos, pode ser necessário mais de um frasco;</t>
-  </si>
-  <si>
     <t>vertigem</t>
   </si>
   <si>
     <t>Prednisolona</t>
   </si>
   <si>
-    <t>1 - Prednisolona 0,1% colírio ______________ 1 frasco
-Aplicar __ gotas de ___ horas por 5 dias</t>
-  </si>
-  <si>
     <t>Cetoconazol</t>
   </si>
   <si>
@@ -1049,10 +725,6 @@
     <t>Hidroclorotiazida</t>
   </si>
   <si>
-    <t>1 – Hidroclorotiazida 25 mg _____________ 30 cp/mês
-Tomar 1 comprimido por dia pela manhã</t>
-  </si>
-  <si>
     <t>Anti-hipertensivo</t>
   </si>
   <si>
@@ -1062,34 +734,18 @@
     <t>Indapamida</t>
   </si>
   <si>
-    <t>1 – Indapamida 1,5 mg _________________ 30 cp/mês
-Tomar 1 comprimido por dia pela manhã</t>
-  </si>
-  <si>
-    <t>1 – Indapamida 2,5 mg _________________ 30 cp/mês
-Tomar 1 comprimido por dia pela manhã</t>
-  </si>
-  <si>
     <t>Clortalidona</t>
   </si>
   <si>
     <t>Espironolactona</t>
   </si>
   <si>
-    <t>1 – Espironolactona 25 mg ______________ 30 cp/mês
-Tomar 1 comprimido por dia pela manhã</t>
-  </si>
-  <si>
     <t>Anti-hipertensivo, diurético tiazídico</t>
   </si>
   <si>
     <t>Losartana</t>
   </si>
   <si>
-    <t>1 – Losartana 50 mg __________________ 30 cp/mês
-Tomar 1 comprimido por dia</t>
-  </si>
-  <si>
     <t>Anti-hipertensivo, BRA</t>
   </si>
   <si>
@@ -1102,34 +758,18 @@
     <t>Enalapril</t>
   </si>
   <si>
-    <t>1 – Enalapril 10 mg ___________________ 30 cp/mês
-Tomar 1 comprimido por dia</t>
-  </si>
-  <si>
     <t>Metoprolol</t>
   </si>
   <si>
-    <t>1 – Succinato de metoprolol 50 mg _______ 30 cp/mês
-Tomar 1 comprimido de 12 em 12 horas</t>
-  </si>
-  <si>
     <t>Anti-hipertensivo, BB</t>
   </si>
   <si>
     <t>Anlodipino</t>
   </si>
   <si>
-    <t>1 – Anlodipino 5 mg _____________ 30 cp/mês
-Tomar 1 (um) comprimido por dia</t>
-  </si>
-  <si>
     <t>Anti-hipertensivo, BCC</t>
   </si>
   <si>
-    <t>1 – Anlodipino 5 mg _____________ 60 cp/mês
-Tomar 1 (um) comprimido de 12 em 12 horas</t>
-  </si>
-  <si>
     <t>emoliente otológico</t>
   </si>
   <si>
@@ -1148,26 +788,6 @@
     <t>Carvedilol</t>
   </si>
   <si>
-    <t>1 – Carvedilol 12,5 mg ____ 60 cp/mês
-Tomar 1 comprimido de 12 em 12 horas</t>
-  </si>
-  <si>
-    <t>1 – Carvedilol 6,25 mg ____ 60 cp/mês
-Tomar 1 comprimido de 12 em 12 horas</t>
-  </si>
-  <si>
-    <t>1 – Carvedilol 3,125 mg ____ 60 cp/mês
-Tomar 1 comprimido de 12 em 12 horas</t>
-  </si>
-  <si>
-    <t>1 – Albendazol 400 mg ______ 3 cp
-Tomar 1 comprimido por dia por 3 dias</t>
-  </si>
-  <si>
-    <t>1 – Nitazoxanida 500 mg _____ 1 cp
-Tomar 1 comprimido de 12 em 12 horas por 3 dias</t>
-  </si>
-  <si>
     <t>Anti-helmíntico</t>
   </si>
   <si>
@@ -1201,107 +821,34 @@
     <t>Ácido mefenâmico</t>
   </si>
   <si>
-    <t>1 – Ácido mefenâmico 500 mg __________________ 1 caixa
-Tomar 1 comprimido de 8 em 8 horas</t>
-  </si>
-  <si>
     <t>dor, dismenorreia, menorragia</t>
   </si>
   <si>
-    <t>1 – Insulina NPH 100 UI/ml ________________ 1 frasco-ampola
-Aplicar 10 UI à noite antes de deitar-se</t>
-  </si>
-  <si>
     <t>Análogo de insulina</t>
   </si>
   <si>
     <t>dm</t>
   </si>
   <si>
-    <t>1 – Insulina NPH 100 UI/ml ________________ 1 frasco-ampola
-Aplicar 10 UI pela manhã e 10 UI à noite antes de deitar-se</t>
-  </si>
-  <si>
-    <t>1 – Insulina NPH 100 UI/ml ________________ ___ frasco-ampola
-Aplicar ___ UI pela manhã (em torno de 8h00)
-Aplicar ___ UI à tarde (em torno de 14h00)
-Aplicar ___ UI à noite (em torno de 20h00)</t>
-  </si>
-  <si>
-    <t>1 – Insulina NPH 100 UI/ml ________________ 1 carpule/mês
-Aplicar 10 UI à noite antes de deitar-se</t>
-  </si>
-  <si>
     <t>dm, carpule</t>
   </si>
   <si>
-    <t>1 – Insulina NPH 100 UI/ml ________________ 1 carpule/mês
-Aplicar 10 UI pela manhã (às 8h) e aplicar 10 UI à noite antes de deitar-se</t>
-  </si>
-  <si>
-    <t>1 – Insulina NPH 100 UI/ml ________________ ___ carpule
-Aplicar ___ UI pela manhã (em torno de 8h00)
-Aplicar ___ UI à tarde (em torno de 14h00)
-Aplicar ___ UI à noite (em torno de 20h00)</t>
-  </si>
-  <si>
     <t>Insulina humana regular</t>
   </si>
   <si>
     <t>Insulina humana NPH</t>
   </si>
   <si>
-    <t>1 – Insulina humana regular 100 UI/ml ________ ___ frasco(s)
-Aplicar ___ antes do café da manhã
-Aplicar ___ antes do almoço
-Aplicar ___ antes da janta</t>
-  </si>
-  <si>
-    <t>1 – Insulina humana regular 100 UI/ml ________ ___ carpule(s)
-Aplicar ___ antes do café da manhã
-Aplicar ___ antes do almoço
-Aplicar ___ antes da janta</t>
-  </si>
-  <si>
     <t>Biguanida</t>
   </si>
   <si>
     <t>Gliclazida</t>
   </si>
   <si>
-    <t>1 – Gliclazida 30 mg _________________ 30 cp/mês
-Tomar 1 comprimido no café da manhã</t>
-  </si>
-  <si>
     <t>Secretagogos</t>
   </si>
   <si>
-    <t>1 – Gliclazida 60 mg _________________ 30 cp/mês
-Tomar 1 comprimido no café da manhã</t>
-  </si>
-  <si>
     <t>Síndrome gripal</t>
-  </si>
-  <si>
-    <t>Doença</t>
-  </si>
-  <si>
-    <t>Uso oral
-1 – Dipirona 500 mg _______________________ 1 caixa
-Tomar 1 comprimido de 6 em 6 horas se dor ou febre
-Obs.: Pode tomar até 2 comprimidos de 6 em 6 horas
-Obs. 2: Se não melhora somente com a dipirona, continue tomando-a junto com o anti-inflamatório abaixo
-1 - Ibuprofeno 600 mg _________________________ 1 caixa
-Tomar 1 comprimido de 8 em 8 horas por 5 dias
-1 – Loratadina 10 mg _____________ 1 caixa
-Tomar 1 comprimido por dia
-1 – Guaco xarope ______________________ 1 frasco
-Tomar 10 ml de 8 em 8 horas por 5 dias
-Uso tópico
-1 - Soro fisiológico 
-Realizar lavagem nasal com soro. Usar seringa
-1 - Budesonida spray nasal 50 mcg _______________ 1 frasco
-Aplicar 1 jato em cada narina de 12 em 12 horas por no máximo 7 dias</t>
   </si>
   <si>
     <t>Admissão ou observação</t>
@@ -1366,9 +913,6 @@
     <t>Evolução, amarela</t>
   </si>
   <si>
-    <t>Paciente em leito de sala amarela, tranquilo, contactuante e acompanhado de. Está estável hemodinamicamente e eupneico em a.a. Há boa dieta via oral. Eliminações de fezes adequadas. Diurese em de bom aspecto e adequada. Apresenta bons sinais vitais e sem disglicemias. Nega dor.</t>
-  </si>
-  <si>
     <t>Albendazol</t>
   </si>
   <si>
@@ -1381,215 +925,978 @@
     <t>Metformina</t>
   </si>
   <si>
-    <t>1 – Naproxeno 500 mg ________________________ 1 caixa
-Tomar 1 comprimido de 12 em 12 horas por até 5 dias</t>
-  </si>
-  <si>
-    <t>1 – Dipirona 500 mg _______________________ 1 caixa
+    <t>1 - Soro fisiológico
+Realizar lavagem nasal com soro. Usar seringa</t>
+  </si>
+  <si>
+    <t>Eletrólitos</t>
+  </si>
+  <si>
+    <t>Realizo antissepsia de ferida. Realizo sutura de forma asséptica. Oriento sobre complicações de ferida. Oriento sobre cuidados de ferida. Prescrevo analgesia; Forneço ___ dias de atestado; Retirada de ponto com ___ dias; Oriento sobre checagem de cartão vacinal para verificar nova dose de vacina de tétano</t>
+  </si>
+  <si>
+    <t>Ambroxol</t>
+  </si>
+  <si>
+    <t>Acetilcisteína</t>
+  </si>
+  <si>
+    <t>Mucolítico</t>
+  </si>
+  <si>
+    <t>Ácido tranexâmico</t>
+  </si>
+  <si>
+    <t>Antifibrinolítico</t>
+  </si>
+  <si>
+    <t>menorreia</t>
+  </si>
+  <si>
+    <t>OrdemPrioridade</t>
+  </si>
+  <si>
+    <t>crise asma</t>
+  </si>
+  <si>
+    <t>crise asma, bronquite</t>
+  </si>
+  <si>
+    <t>FormaFarmaceutica</t>
+  </si>
+  <si>
+    <t>creme</t>
+  </si>
+  <si>
+    <t>solução</t>
+  </si>
+  <si>
+    <t>comprimido</t>
+  </si>
+  <si>
+    <t>solução oral</t>
+  </si>
+  <si>
+    <t>chá</t>
+  </si>
+  <si>
+    <t>tintura</t>
+  </si>
+  <si>
+    <t>ID_Item</t>
+  </si>
+  <si>
+    <t>Paciente Hígido, Contactante, Tranquilo, Sem Doenças Neurológicas. Sala amarela</t>
+  </si>
+  <si>
+    <t>Paciente Hígido, Contactante, Tranquilo, Sem Doenças Neurológicas. Sala vermelha</t>
+  </si>
+  <si>
+    <t>Modelo para Paciente em Ventilação Espontânea com TQT (Sala Amarela/Vermelha)</t>
+  </si>
+  <si>
+    <t>Evolução, TQT</t>
+  </si>
+  <si>
+    <t>Evolução, TQT, O2 suplementar</t>
+  </si>
+  <si>
+    <t>Modelo de Evolução (Exemplo para Paciente com Demência de Base e Infecção Aguda)</t>
+  </si>
+  <si>
+    <t>Modelo de Evolução (Sala Vermelha / UTI)</t>
+  </si>
+  <si>
+    <t>Modelo para Paciente com TQT Recebendo O2 Suplementar ou em Processo de Desmame de VM (ainda com TQT)</t>
+  </si>
+  <si>
+    <t>Evolução, vermelha, IOT</t>
+  </si>
+  <si>
+    <t>UPA – São Sebastiao
+Data: 
+Sala vermelha / Sala amarela
+Evolução
+SES/CNS/CPF:
+Procedência: 
+Contato de familiares/responsáveis:
+DI na UPA e horário:
+.
+#HD
+.
+#HMA
+.
+#HPP
+.
+#MUC
+.
+- Medicações conciliadas: 
+.
+#Dispositivos
+- AVP
+- [Tipo de O2 suplementar]
+- [Dispositivo diurese]
+- CVC
+- SNE
+- TOT
+.
+# Medicações específicas: 
+.
+# Evolução:
+.
+#Ex. físico 
+PA | PAM |FC |FR |Temp |SatO2 em  |HGT
+Peso:
+.
+#Ex. complementares
+=&gt; Lab
+.
+=&gt; ECG
+.
+=&gt; Imagem
+.
+=&gt; Outros
+.
+=&gt; Ex. prévios
+.
+#Pendências 
+.
+#Conduta</t>
+  </si>
+  <si>
+    <t>Sistema respiratório</t>
+  </si>
+  <si>
+    <t>Sistema gastrointestinal</t>
+  </si>
+  <si>
+    <t>Asma</t>
+  </si>
+  <si>
+    <t>Ferimento</t>
+  </si>
+  <si>
+    <t>Sistema hematológico</t>
+  </si>
+  <si>
+    <t>Paracetamol e AINE</t>
+  </si>
+  <si>
+    <t>Dipirona e AINE</t>
+  </si>
+  <si>
+    <t>Dispepsia</t>
+  </si>
+  <si>
+    <t>Paciente em leito de, sob intubação orotraqueal e ventilação mecânica. Hemodinamicamente estável, sem uso de droga vasoativa. Dieta enteral por sonda nasoenteral (SNE). Débito urinário [volume, e.g., 800] mL nas últimas horas via sonda vesical de demora (SVD), aspecto [amarelo claro/turvo/hematúrico]. Eliminações evacuatórias adequadas. Sem distermias, normocárdico, normotenso, sem disglicemias.
+.
+Parâmetros da VM: [Modo], FiO2 [X, e.g., 50]%, PEEP [Y, e.g., 10] cmH2O, [Volume Corrente (VC) [Z, e.g., 420] mL ou Pressão Controlada (PC) [A, e.g., 15] cmH2O acima da PEEP], Frequência Respiratória (FR) irpm.</t>
+  </si>
+  <si>
+    <t>Evolução, déficit neurológico</t>
+  </si>
+  <si>
+    <t>Paciente em leito de [sala amarela/vermelha], acompanhado por [familiar/cuidador]. Hemodinamicamente estável sem drogas vasoativas, eupneico em ar ambiente. Apresenta-se sonolento , despertando a estímulos verbais, porém com desorientação temporoespacial e alopsíquica. Glasgow (O V M). Atenção hipovigil e tenacidade diminuída. Comportamento apático, pouco cooperativo aos cuidados. Pupilas isocóricas e fotorreagentes. Ausência de sinais de irritação meníngea. Sem déficits motores focais agudos aparentes. Aceitando parcialmente dieta oral pastosa. Diurese presente, de aspecto concentrado. Sem distermias, normocárdico, normotenso, sem disglicemias. Sem sinais de dor ou outras queixas passíveis de presunção no momento.</t>
+  </si>
+  <si>
+    <t>Paciente em leito de sala amarela, [com/sem] acompanhante. Mantém-se contactuante (Glasgow 15) , calmo, orientado em tempo e espaço. Eupneico em ar ambiente. Hemodinamicamente estável. Aceitando bem a dieta ofertada por via oral. Eliminações intestinais presentes e fisiológicas. Diurese presente e fisiológica. Afebril, normocárdico, normotenso e com boa saturimetria. Glicemias capilares dentro da faixa de normalidade. Nega dor ou outras queixas no momento.</t>
+  </si>
+  <si>
+    <t>Paciente em leito de [sala amarela/vermelha], em ventilação espontânea através de traqueostomia com cânula [plástica sem balão / metálica / plástica com cuff [insuflado/desinsuflado]] número [X]. Estoma traqueal de bom aspecto, fixador limpo e bem posicionado. Realizada limpeza da cânula interna e troca de curativo conforme rotina. Aspiração traqueal com secreção [fluida, hialina], em [pequena] quantidade. Eupneico em ar ambiente [ou em uso de O2 [X] L/min via conector de TQT ou máscara de TQT, SatO2 [Y]%].</t>
+  </si>
+  <si>
+    <t>Paciente em leito de [sala amarela/vermelha], [descrever estado neurológico]. Mantém traqueostomia com cânula [plástica com cuff insuflado] número [X], para proteção de via aérea [ou para ventilação mecânica intermitente]. Estoma traqueal de aspecto satisfatório, fixador adequado. Secreção traqueal [tipo, quantidade, aspecto], aspirada conforme necessidade. Atualmente em [macronebulização com O2 a [Y]% via máscara de TQT / períodos de ventilação espontânea em tubo T / ventilação mecânica em modo [especificar modo e parâmetros básicos se em desmame intermitente]]. SatO2 [Z]%.</t>
+  </si>
+  <si>
+    <t>solução injetável</t>
+  </si>
+  <si>
+    <t>frasco</t>
+  </si>
+  <si>
+    <t>solução tópica</t>
+  </si>
+  <si>
+    <t>aerossol</t>
+  </si>
+  <si>
+    <t>suspensão nasal</t>
+  </si>
+  <si>
+    <t>solução oftálmica</t>
+  </si>
+  <si>
+    <t>pó para solução injetável</t>
+  </si>
+  <si>
+    <t>xampu</t>
+  </si>
+  <si>
+    <t>solução otológica</t>
+  </si>
+  <si>
+    <t>loção</t>
+  </si>
+  <si>
+    <t>pó para inalação</t>
+  </si>
+  <si>
+    <t>grânulo</t>
+  </si>
+  <si>
+    <t>suspensão injetável</t>
+  </si>
+  <si>
+    <t>Pó para preparação extemporânea</t>
+  </si>
+  <si>
+    <t>solução nasal</t>
+  </si>
+  <si>
+    <t>cápsula</t>
+  </si>
+  <si>
+    <t>pó</t>
+  </si>
+  <si>
+    <t>pomada</t>
+  </si>
+  <si>
+    <t>pó para solução oral</t>
+  </si>
+  <si>
+    <t>pasta</t>
+  </si>
+  <si>
+    <t>1 - Acetilcisteína 20 mg/ml _____ 1 frasco
+Tomar 10 ml de 8 em 8 horas</t>
+  </si>
+  <si>
+    <t>1 - Ácido tranexâmico 500 mg _____ 1 caixa
+Tomar 1 comprimido de 8 em 8 horas por 3 dias</t>
+  </si>
+  <si>
+    <t>1 - Ambroxol 6 mg/ml _____ 1 frasco
+Tomar 5 ml de 8 em 8 horas</t>
+  </si>
+  <si>
+    <t>1. Amoxicilina+clavulanato 500/125 mg _____ ___ comprimidos
+Tomar 1 comprimido de 8 em 8 horas por ___ dias</t>
+  </si>
+  <si>
+    <t>1 - Betametasona 0,1mg/ml _____ 1 frasco
+Tomar 10 ml de 8 em 8 horas por 4 dias</t>
+  </si>
+  <si>
+    <t>1 - Bromoprida 10 mg _____ 1 caixa
+Tomar 1 comprimido de 8 em 8h se náusea</t>
+  </si>
+  <si>
+    <t>1 - Budesonida 50 mcg aerossol _____ 1 frasco
+Inalar 4 puffs por dia</t>
+  </si>
+  <si>
+    <t>1 - Budesonida 200 mcg aerossol _____ 1 frasco
+Inalar 1 puffs por dia</t>
+  </si>
+  <si>
+    <t>1 - Budesonida spray nasal 32 mcg _____ 1 frasco
+Aplicar 1 jato em cada narina de 12 em 12 horas por no máximo 7 dias</t>
+  </si>
+  <si>
+    <t>1 - Budesonida spray nasal 50 mcg _____ 1 frasco
+Aplicar 1 jato em cada narina de 12 em 12 horas por no máximo 7 dias</t>
+  </si>
+  <si>
+    <t>1 - Clindamicina 300 mg _____ ___ comprimidos
+Tomar 1 comprimido de 8 em 8 horas por ___ dias</t>
+  </si>
+  <si>
+    <t>1 - Sulfametoxazol+trimetoprima 400/80mg _____ __ comprimidos
+Tomar ___ comprimidos de _____ horas por ___ dias</t>
+  </si>
+  <si>
+    <t>1 - Hidrocortisona creme _____ 1 tubo
+Aplicar 2 vezes ao dia por ___ dias. Realizar leve fricção</t>
+  </si>
+  <si>
+    <t>1 - Ibuprofeno 600 mg _____ 1 caixa
+Tomar 1 comprimido de 8 em 8 horas por 5 dias</t>
+  </si>
+  <si>
+    <t>1 - Simeticona 40 mg _____ 1 caixa
+Tomar 1 comprimido de 8 em 8h por 3 dias</t>
+  </si>
+  <si>
+    <t>1 - Hidróxido de alumínio + hidróxido de magnésio _____ 1 frasco
+Tomar 1 colher 30 min antes das refeições principais</t>
+  </si>
+  <si>
+    <t>1 - Nafazolina 0,5mg/ml solução nasal _____ 1 frasco
+Aplicar 4 gotas “dentro de cada nariz” de 6 em 6 horas por até 5 dias
+Obs.: Não fazer uso prolongado desta medicação.</t>
+  </si>
+  <si>
+    <t>1 - Omeprazol 20 mg _____ 60 comprimidos
+Tomar 1 cápsula pela manhã em jejum, 30 minutos antes da refeição, por 2 meses</t>
+  </si>
+  <si>
+    <t>1 - Dexametasona creme _____ 1 tubo
+Aplicar 2 vezes ao dia por ___</t>
+  </si>
+  <si>
+    <t>1 - Muvinlax (Macrogol 3350 + bicarbanato de sódio + cloreto de sódio + cloreto de potássio)
+_____ 1 frasco
+Tomar 1 sache por dia até melhora das fezes. Diluir 1 sache em 1 copo com água, chá ou suco</t>
+  </si>
+  <si>
+    <t>1 - Prednisolona 0,1% colírio _____ 1 frasco
+Aplicar __ gotas de ___ horas por 5 dias</t>
+  </si>
+  <si>
+    <t>1 - Sais de reidratação oral _____ _ envelopes
+Para preparar o soro de reidratação oral: diluir 1 envelope em 1 litro de água fervida ou filtrada. Tomar ___ L por dia de soro de reidratação oral. Tomar também líquido caseiros (água, suco, soro caseiro, chá e outros): ___ L. Total de litros por dia ___ L.) Tomar essa quantidade depois de dois dias de estar sem febre.</t>
+  </si>
+  <si>
+    <t>1 - Sais de reidratação oral _____ _ envelopes
+Diluir 1 envelope em 1 litro de água fervida ou filtrada. Tomar 1 copo para cada evacuação ou vômitos</t>
+  </si>
+  <si>
+    <t>1 - Dipropionato de beclometasona + fumarato de formoterol 100/6 mcg aerossol _____ 1 frasco
+Inalar 1 jato de 12 em 12 horas por dia</t>
+  </si>
+  <si>
+    <t>1 - Fumarato de formoterol + budesonida 6/200 mcg capsula para inalação _____ 1 frasco
+Inalar 1 jato por dia</t>
+  </si>
+  <si>
+    <t>1 - Fumarato de formoterol + budesonida 12/400 mcg capsula para inalação _____ 1 frasco
+Inalar 1 jato por dia</t>
+  </si>
+  <si>
+    <t>estomatite aftosa</t>
+  </si>
+  <si>
+    <t>1 - Ácido mefenâmico 500 mg _____ 1 caixa
+Tomar 1 comprimido de 8 em 8 horas</t>
+  </si>
+  <si>
+    <t>1 - Água boricada 3% _____ 1 frasco
+Aplicar 2 vezes ao dia em lesão</t>
+  </si>
+  <si>
+    <t>1 - Albendazol 400 mg _____ 3 cp
+Tomar 1 comprimido por dia por 3 dias</t>
+  </si>
+  <si>
+    <t>1 - Amoxicilina 500 mg _____ __ comprimidos
+Tomar 1 comprimido de 8 em 8 horas por __ dias</t>
+  </si>
+  <si>
+    <t>1 - Anlodipino 5 mg _____ 60 cp/mês
+Tomar 1 (um) comprimido de 12 em 12 horas</t>
+  </si>
+  <si>
+    <t>1 - Anlodipino 5 mg _____ 30 cp/mês
+Tomar 1 (um) comprimido por dia</t>
+  </si>
+  <si>
+    <t>1 - Beclometasona 50 mcg aerossol _____ 1 frasco
+Inalar 4 jatos de 12 em 12 horas por dia</t>
+  </si>
+  <si>
+    <t>1 - Beclometasona 250 mcg aerossol _____ 1 frasco
+Inalar 1 jato de 12 em 12 horas por dia</t>
+  </si>
+  <si>
+    <t>1 - Carmelose colírio _____ 1 frasco
+Aplicar de 4 a 8 vezes ao dia se ardência ou secura nos olhos</t>
+  </si>
+  <si>
+    <t>1 - Carvedilol 12,5 mg _____ 60 cp/mês
+Tomar 1 comprimido de 12 em 12 horas</t>
+  </si>
+  <si>
+    <t>1 - Carvedilol 6,25 mg _____ 60 cp/mês
+Tomar 1 comprimido de 12 em 12 horas</t>
+  </si>
+  <si>
+    <t>1 - Carvedilol 3,125 mg _____ 60 cp/mês
+Tomar 1 comprimido de 12 em 12 horas</t>
+  </si>
+  <si>
+    <t>1 - Cefalexina 500 mg _____ __ comprimidos
+Tomar 1 comprimido de 6 em 6 horas por __ dias</t>
+  </si>
+  <si>
+    <t>1 - Ceftriaxona 1 g, 2 g (2 amp) em 100 ml de S.F. 0,9%, EV, correr em 30 minutos, 24/24h, por ___ dias
+Indicação:</t>
+  </si>
+  <si>
+    <t>1 - Cetoconazol 2% xampu _____ 1 frasco
+Lavar o couro cabeludo e demais lesões 3 a 4 vezes por semana na crise
+Lavar o couro cabeludo e demais lesões 1 a 2 vezes por semana fora da crise
+Deixar agir por 3 a 5 minutos antes de enxaguar</t>
+  </si>
+  <si>
+    <t>1 - Ciclobenzaprina 10 mg _____ 1 caixa
+Tomar 1 comprimido por dia à noite por 7 dias</t>
+  </si>
+  <si>
+    <t>1 - Cinarizina 25 mg _____ 1 caixa
+Tomar 1 comprimido de 8 em 8 horas por 7 dias</t>
+  </si>
+  <si>
+    <t>1 - Ciprofloxacino 250 mg _____ ___ comprimidos
+Tomar 1 comprimido de 12 em 12 horas por ___ dias</t>
+  </si>
+  <si>
+    <t>1 - Ciprofloxacino 500 mg _____ ___ comprimidos
+Tomar 1 comprimido de 12 em 12 horas por ___ dias</t>
+  </si>
+  <si>
+    <t>1 - Ciprofloxacino + dexametasona solução tópica _____ 1 frasco
+Aplicar 4 gotas no ouvido acometido de 12/12h por 7 dias</t>
+  </si>
+  <si>
+    <t>1 - Clorexidina 1% solução _____ 1 frasco
+Aplicar 2 vezes ao dia em lesão</t>
+  </si>
+  <si>
+    <t>1 - Clortalidona 25 mg _____ 30 cp/mês
+Tomar 1 comprimido por dia pela manhã</t>
+  </si>
+  <si>
+    <t>1 - Codeina 30 mg _____ 1 caixa
+Tomar 1 comprimido de 6 em 6 horas se dor</t>
+  </si>
+  <si>
+    <t>1 - Codeina 3 mg/ml _____ 1 frasco
+Tomar 10 ml de 6 em 6 horas se dor</t>
+  </si>
+  <si>
+    <t>1 - Desloratadina 5 mg _____ 1 caixa
+Tomar 1 comprimido por dia</t>
+  </si>
+  <si>
+    <t>1 - Dexametasona elixir 0,5 mg/5ml _____ 1 frasco
+Realizar bocejo com 5 ml de solução por 5 min de 8 em 8 horas por 7 dias</t>
+  </si>
+  <si>
+    <t>1 - Dexclorfeniramina 2 mg _____ 1 caixa
+Tomar 1 comprimido de 8 em 8 horas</t>
+  </si>
+  <si>
+    <t>1 - Diclofenaco 50 mg _____ 1 caixa
+Tomar 1 comprimido de 8 em 8 horas por até 5 dias</t>
+  </si>
+  <si>
+    <t>1 - Dimenidrinato 50 mg _____ 10 cp
+Tomar 1 comprimido de 6 em 6 horas se náuseas ou vômitos</t>
+  </si>
+  <si>
+    <t>1 - Dimenidrinato + piridoxina 50/10 mg ___ 10 cp
+Tomar 1 comprimido de 6 em 6 horas se náuseas ou vômitos</t>
+  </si>
+  <si>
+    <t>1 - Diosmina + hesperidina 450/50 mg _____ 1 caixa
+Tomar 1 comprimido de 12 em 12 horas até melhora dos sintomas</t>
+  </si>
+  <si>
+    <t>1 - Dipirona 500 mg _____ 1 caixa
+Tomar 1 comprimido de 6 em 6 horas se dor ou febre</t>
+  </si>
+  <si>
+    <t>1 - Dipirona 500 mg _____ 1 caixa
+Tomar 1 comprimido de 6 em 6 horas se dor ou febre
+Obs.: Pode tomar até 2 comprimidos de 6 em 6 horas</t>
+  </si>
+  <si>
+    <t>1 - Dipirona 500 mg/ml _____ 1 caixa
+Tomar 20 gotas de 6 em 6 horas se dor ou febre
+Obs.: Pode tomar até 40 gotas de 6 em 6 horas</t>
+  </si>
+  <si>
+    <t>1 - Dipirona 500 mg _____ 1 caixa
 Tomar 1 comprimido de 6 em 6 horas se dor ou febre
 Obs.: Pode tomar até 2 comprimidos de 6 em 6 horas
 Obs. 2: Se não melhora somente com a dipirona, continue tomando-a junto com o anti-inflamatório abaixo</t>
   </si>
   <si>
-    <t>1 – Dipirona 500 mg/ml _____________________ 1 caixa
+    <t>1 - Dipirona 500 mg/ml _____ 1 caixa
 Tomar 20 gotas de 6 em 6 horas se dor ou febre
 Obs.: Pode tomar até 40 gotas de 6 em 6 horas
 Obs. 2: Se não melhora somente com a dipirona, continue tomando-a junto com o anti-inflamatório abaixo</t>
   </si>
   <si>
-    <t>1 – Paracetamol 500 mg ___________________ 1 caixa
+    <t>1 - Domperidona 10 mg _____ 1 caixa
+Tomar 1 comprimido de 8 em 8 horas. Tomar 15-30 minutos antes das refeições</t>
+  </si>
+  <si>
+    <t>1 - Enalapril 10 mg _____ 30 cp/mês
+Tomar 1 comprimido por dia</t>
+  </si>
+  <si>
+    <t>1 - Enalapril 10 mg _____ 60 cp/mês
+Tomar 1 comprimido de 12 em 12 horas</t>
+  </si>
+  <si>
+    <t>1 - Escopolamina 10 mg _____ 1 caixa
+Tomar 1 comprimido de 6 em 6 horas se dor</t>
+  </si>
+  <si>
+    <t>1 - Espironolactona 25 mg _____ 30 cp/mês
+Tomar 1 comprimido por dia pela manhã</t>
+  </si>
+  <si>
+    <t>1 - Fluconazol 150 mg _____ 1 cp
+Tomar 1 comprimido. Dose única</t>
+  </si>
+  <si>
+    <t>1 - Flunarizina 10 mg _____ 1 caixa
+Tomar 1 comprimido por dia por 7 dias</t>
+  </si>
+  <si>
+    <t>1 - Formoterol 6 mcg aerossol _____ 1 frasco
+Inalar 1 jato por dia. Máximo de 8 doses por dia</t>
+  </si>
+  <si>
+    <t>1 - Formoterol 12 mcg aerossol _____ 1 frasco
+Inalar 1 jato por dia. Máximo de 4 doses por dia</t>
+  </si>
+  <si>
+    <t>1 - Fosfomicina 3 g _____ 1 sache
+Tomar 1 sache diluido em água. Dose única</t>
+  </si>
+  <si>
+    <t>1 - Gliclazida 30 mg _____ 30 cp/mês
+Tomar 1 comprimido no café da manhã</t>
+  </si>
+  <si>
+    <t>1 - Gliclazida 60 mg _____ 30 cp/mês
+Tomar 1 comprimido no café da manhã</t>
+  </si>
+  <si>
+    <t>1 - Chá de guaco 30 g _____ 1 envelope
+Infundir 1 colher de sopa (3 g) para cada 150ml de água. Tomar 3 vezes ao dia</t>
+  </si>
+  <si>
+    <t>1 - Guaco tintura _____ 1 frasco
+Aplicar 40 gotas em um pouco de água e tomar de 8 em 8 horas</t>
+  </si>
+  <si>
+    <t>1 - Guaco solução oral _____ 1 frasco
+Tomar 10 ml de 8 em 8 horas por 5 dias</t>
+  </si>
+  <si>
+    <t>1 - Hidroclorotiazida 25 mg _____ 30 cp/mês
+Tomar 1 comprimido por dia pela manhã</t>
+  </si>
+  <si>
+    <t>1 - Hidroxiquinolina + trolamina otológico (0,4 + 140 mg) _____ 1 frasco
+Aplicar 3 gotas no ouvido afetado de 8 em 8 horas por 5 dias</t>
+  </si>
+  <si>
+    <t>1 - Hidroxizina 25 mg _____ 1 caixa
+Tomar 1 comprimido de 8 em 8 horas</t>
+  </si>
+  <si>
+    <t>1 - Indapamida 1,5 mg _____ 30 cp/mês
+Tomar 1 comprimido por dia pela manhã</t>
+  </si>
+  <si>
+    <t>1 - Indapamida 2,5 mg _____ 30 cp/mês
+Tomar 1 comprimido por dia pela manhã</t>
+  </si>
+  <si>
+    <t>1 - Insulina NPH 100 UI/ml _____ 1 frasco-ampola
+Aplicar 10 UI à noite antes de deitar-se</t>
+  </si>
+  <si>
+    <t>1 - Insulina NPH 100 UI/ml _____ 1 frasco-ampola
+Aplicar 10 UI pela manhã e 10 UI à noite antes de deitar-se</t>
+  </si>
+  <si>
+    <t>1 - Insulina NPH 100 UI/ml _____ ___ frasco-ampola
+Aplicar ___ UI pela manhã (em torno de 8h00)
+Aplicar ___ UI à tarde (em torno de 14h00)
+Aplicar ___ UI à noite (em torno de 20h00)</t>
+  </si>
+  <si>
+    <t>1 - Insulina NPH 100 UI/ml _____ 1 carpule/mês
+Aplicar 10 UI à noite antes de deitar-se</t>
+  </si>
+  <si>
+    <t>1 - Insulina NPH 100 UI/ml _____ 1 carpule/mês
+Aplicar 10 UI pela manhã (às 8h) e aplicar 10 UI à noite antes de deitar-se</t>
+  </si>
+  <si>
+    <t>1 - Insulina NPH 100 UI/ml _____ ___ carpule
+Aplicar ___ UI pela manhã (em torno de 8h00)
+Aplicar ___ UI à tarde (em torno de 14h00)
+Aplicar ___ UI à noite (em torno de 20h00)</t>
+  </si>
+  <si>
+    <t>1 - Insulina humana regular 100 UI/ml _____ ___ frasco(s)
+Aplicar ___ antes do café da manhã
+Aplicar ___ antes do almoço
+Aplicar ___ antes da janta</t>
+  </si>
+  <si>
+    <t>1 - Insulina humana regular 100 UI/ml _____ ___ carpule(s)
+Aplicar ___ antes do café da manhã
+Aplicar ___ antes do almoço
+Aplicar ___ antes da janta</t>
+  </si>
+  <si>
+    <t>1 - Ivermectina 6 mg _____ __ comprimido(s)
+Tomar __ comprimido(s). Após 1 semana tomar __ comprimido(s)</t>
+  </si>
+  <si>
+    <t>1 - Lactulose 667 mg/ml _____ 1 frasco
+Tomar 15 ml de 12 em 12 horas até melhora das fezes</t>
+  </si>
+  <si>
+    <t>1 - Levofloxacino 750 mg _____ ___ comprimidos
+Tomar 1 comprimido por dia por ___ dias</t>
+  </si>
+  <si>
+    <t>1 - Loratadina 10 mg _____ 1 caixa
+Tomar 1 comprimido por dia</t>
+  </si>
+  <si>
+    <t>1 - Losartana 50 mg _____ 30 cp/mês
+Tomar 1 comprimido por dia</t>
+  </si>
+  <si>
+    <t>1 - Losartana 50 mg _____ 60 cp/mês
+Tomar 1 comprimido de 12 em 12 horas</t>
+  </si>
+  <si>
+    <t>1 - Macrogol 3350 _____ 1 caixa/envolopes
+Dissolver 1 (um) envelope em um copo com água e tomar 1 vez ao dia. Após o preparo, consumir imediatamente por via oral.</t>
+  </si>
+  <si>
+    <t>1 - Metformina 850 mg _____ 30 cp/mês
+Tomar 1 comprimido após o almoço</t>
+  </si>
+  <si>
+    <t>1 - Metformina 850 mg _____ 60 cp/mês
+Tomar 1 comprimido no café da manhã e 1 comprimido no jantar</t>
+  </si>
+  <si>
+    <t>1 - Metformina 850 mg _____ 90 cp/mês
+Tomar 1 comprimido no café da manhã
+Tomar 1 comprimido no almoço
+Tomar 1 comprimido no jantar</t>
+  </si>
+  <si>
+    <t>1 - Metoclopramida 10 mg _____ 20 cp
+Tomar 1 comprimido de 8 em 8 horas se náuseas ou vômitos</t>
+  </si>
+  <si>
+    <t>1 - Succinato de metoprolol 50 mg _____ 30 cp/mês
+Tomar 1 comprimido de 12 em 12 horas</t>
+  </si>
+  <si>
+    <t>1 - Metronidazol 400 mg _____ 20 comprimidos
+Tomar 1 comprimido de 8 em 8 horas por 5 dias</t>
+  </si>
+  <si>
+    <t>1 - Metronidazol 10% _____ 1 tubo
+Usar 1 aplicar a noite por 5 dias</t>
+  </si>
+  <si>
+    <t>1 - Miconazol 2% creme _____ 1 tubo
+Usar 1 aplicador a noite por 7 dias</t>
+  </si>
+  <si>
+    <t>1 - Mupirocina 2% creme _____ 1 tubo
+Aplicar nas lesões de 8 em 8 horas por 5 dias</t>
+  </si>
+  <si>
+    <t>1 - Naproxeno 250 mg _____1 caixa
+Tomar 1 comprimido de 12 em 12 horas por até 5 dias</t>
+  </si>
+  <si>
+    <t>1 - Naproxeno 500 mg _____ 1 caixa
+Tomar 1 comprimido de 12 em 12 horas por até 5 dias</t>
+  </si>
+  <si>
+    <t>1 - Sulfato de neomicina 0,5 % + sulfato de polimixina B + hidrocortisona 1 % _____ 1 frasco
+Aplicar 4 gotas no(s) ouvido(s) acometidos de 6/6 horas por 10 dias</t>
+  </si>
+  <si>
+    <t>1 - Nimesulida 100 mg_____ 1 caixa
+Tomar 1 comprimido de 12 em 12 horas por até 5 dias</t>
+  </si>
+  <si>
+    <t>1 - Nitazoxanida 500 mg _____ 1 cp
+Tomar 1 comprimido de 12 em 12 horas por 3 dias</t>
+  </si>
+  <si>
+    <t>1 - Nitrofurantoina 100 mg _____ __ comprimidos
+Tomar 1 comprimido de 6 em 6 horas por __ dias</t>
+  </si>
+  <si>
+    <t>1 - Óleo mineral _____ 1 frasco
+Tomar 1 colher de sopa (15 ml) ao deitar a noite
+Obs.: Se não melhora, pode aumentar para 2 (duas) colheres de sopa à noite e 1 (uma) pela manhã</t>
+  </si>
+  <si>
+    <t>1 - Ondansetrona 4 mg _____ 20 cp
+Tomar 1 comprimido de 8 em 8 horas se náuseas ou vômitos</t>
+  </si>
+  <si>
+    <t>1 - Paracetamol 750 mg _____ 1 caixa
+Tomar 1 comprimido de 6 em 6 horas se dor ou febre</t>
+  </si>
+  <si>
+    <t>1 - Paracetamol 500 mg _____ 1 caixa
+Tomar 1 comprimido de 6 em 6 horas se dor ou febre</t>
+  </si>
+  <si>
+    <t>1 - Paracetamol 750 mg _____ 1 caixa
+Tomar 1 comprimido de 6 em 6 horas se dor ou febre
+Obs. 1: Se não melhora somente com o paracetamol, continue tomando-o junto com o anti-inflamatório abaixo</t>
+  </si>
+  <si>
+    <t>1 - Paracetamol 500 mg _____ 1 caixa
 Tomar 1 comprimido de 6 em 6 horas se dor ou febre
 Obs. 1: Se não melhora somente com o paracetamol, continue tomando-o junto com o
 anti-inflamatório abaixo</t>
   </si>
   <si>
-    <t>1 – Paracetamol 750 mg ___________________ 1 caixa
+    <t>1 - Permanganato de potássio _____ 4 envelopes
+Diluir 1 envelope em 3 litros de água morna. Realizar banho ou compressa, 3x ao dia. Evitar
+contato com região de mucosa (olhos e boca por exemplo)</t>
+  </si>
+  <si>
+    <t>1 - Permetrina 5% loção _____ 1 frasco
+Aplicar sobre o corpo (Não aplicar em região de cabeça) à noite. Enxaguar pela manhã. Repetir por 3 dias. Após 1 semana, repetir por mais 3 dias.</t>
+  </si>
+  <si>
+    <t>1 - Permetrina 1% xampu _____ 1 frasco
+Após lavar cabelo, deve-se aplicar este produto nos cabelos úmidos, cobrindo todo o couro cabeludo, e esfregar abundantemente em toda a extensão; O produto deve agir por 10 minutos. Passar o pente fino para a remoção dos piolhos e das lêndeas; Enxaguar o cabelo com água morna e enxugar com a toalha; Repetir após 7 dias, se houver necessidade; A quantidade necessária do produto depende do volume e tamanho dos cabelos, pode ser necessário usar o frasco inteiro e em alguns casos, de cabelo mais longos, pode ser necessário mais de um frasco;</t>
+  </si>
+  <si>
+    <t>1 - Prednisona 5 mg _____ __ CPs
+Tomar ___ comprimido (s) por dia por ___ dias</t>
+  </si>
+  <si>
+    <t>1 - Prednisona 20 mg _____ 10 cp
+Tomar 2 cp por dia por 5 dias</t>
+  </si>
+  <si>
+    <t>1 - Prednisolona 3 mg/ml _____ 1 caixa
+Tomar 14 ml por dia por 5 dias</t>
+  </si>
+  <si>
+    <t>1 - Prometazina 25 mg _____ 1 caixa
+Tomar 1 comprimido de 12 em 12 horas</t>
+  </si>
+  <si>
+    <t>1 - Psyllium _____ 1 caixa
+Tomar 7 g ou 1 colhe de chá em 240 ml de água ou bebida favorita, 2 vezes ao dia. Misture bem e beba imediatamente. Para melhor efeito tome um copo adicional de água.</t>
+  </si>
+  <si>
+    <t>1 - Sacarato de hidróxido férrico (ex..: noripurum) _____ __ amp(s)
+Diluir ___ ampolas em ___ de S.F.0,9%. Correr lentamente. Repetir a cada uma semana (__ semanas de duração)</t>
+  </si>
+  <si>
+    <t>1 - Salbutamol 100 mcg aerossol _____ 1 frasco
+Inalar 4 jatos se desconforto respiratório pela asma</t>
+  </si>
+  <si>
+    <t>1 - Salbutamol 100 mcg aerossol _____ 1 frasco
+Inalar 4 jatos de 4 em 4 horas por 2 dias, e após, usar de chiado no peito ou falta de ar</t>
+  </si>
+  <si>
+    <t>1 - Sumatriptana 50 mg _____ 1 caixa
+Tomar 1 comprimido se dor de cabeça intensa</t>
+  </si>
+  <si>
+    <t>1 - Tenoxicam 20 mg _____ 1 caixa
+Tomar 1 comprimido por dia por até 5 dias</t>
+  </si>
+  <si>
+    <t>1 - Tramadol 50 mg _____ 1 caixa
+Tomar 1 comprimido de 6 em 6 horas se dor</t>
+  </si>
+  <si>
+    <t>1 - Tramadol 100 mg _____ 1 caixa
+Tomar 1 comprimido de 6 em 6 horas se dor</t>
+  </si>
+  <si>
+    <t>1 - Triancinolona acetonida 1mg/g _____ 1 tubo
+Aplicar sobre a lesão até de 8 em 8 horas por 7 dias após as refeições.</t>
+  </si>
+  <si>
+    <t>Macrogol 3350</t>
+  </si>
+  <si>
+    <t>Uso oral
+1 – Dipirona 500 mg _____ 1 caixa
 Tomar 1 comprimido de 6 em 6 horas se dor ou febre
-Obs. 1: Se não melhora somente com o paracetamol, continue tomando-o junto com o anti-inflamatório abaixo</t>
-  </si>
-  <si>
-    <t>1 – Codeina 30 mg _______________ 1 caixa
-Tomar 1 comprimido de 6 em 6 horas se dor</t>
-  </si>
-  <si>
-    <t>1 – Nitrofurantoina 100 mg __________ __ comprimidos
-Tomar 1 comprimido de 6 em 6 horas por __ dias</t>
-  </si>
-  <si>
-    <t>1 – Ceftriaxona 1 g, 2 g (2 amp) em 100 ml de S.F. 0,9%, EV, correr em 30 minutos, 24/24h, por ___ dias
-Indicação:</t>
-  </si>
-  <si>
-    <t>1 - Clindamicina 300 mg ______ ___ comprimidos
-Tomar 1 comprimido de 8 em 8 horas por ___ dias</t>
-  </si>
-  <si>
-    <t>1 – Ciprofloxacino 500 mg _____________________ ___ comprimidos
-Tomar 1 comprimido de 12 em 12 horas por ___ dias</t>
-  </si>
-  <si>
-    <t>1 – Ondansetrona 4 mg _______________ 20 cp
-Tomar 1 comprimido de 8 em 8 horas se náuseas ou vômitos</t>
-  </si>
-  <si>
-    <t>1 – Escopolamina 10 mg _______________ 1 caixa
-Tomar 1 comprimido de 6 em 6 horas se dor</t>
-  </si>
-  <si>
-    <t>1 – Cetoconazol 2% xampu __________________________ 1 frasco
-Lavar o couro cabeludo e demais lesões 3 a 4 vezes por semana na crise
-Lavar o couro cabeludo e demais lesões 1 a 2 vezes por semana fora da crise
-Deixar agir por 3 a 5 minutos antes de enxaguar</t>
-  </si>
-  <si>
-    <t>1 – Clortalidona 25 mg _________________ 30 cp/mês
-Tomar 1 comprimido por dia pela manhã</t>
-  </si>
-  <si>
-    <t>1 – Losartana 50 mg __________________ 60 cp/mês
-Tomar 1 comprimido de 12 em 12 horas</t>
-  </si>
-  <si>
-    <t>1 – Enalapril 10 mg ___________________ 60 cp/mês
-Tomar 1 comprimido de 12 em 12 horas</t>
-  </si>
-  <si>
-    <t>1 – Metronidazol 10% _________ 1 tubo
-Usar 1 aplicar a noite por 5 dias</t>
-  </si>
-  <si>
-    <t>Diluir 1 envelope em 3 litros de água morna. Realizar banho ou compressa, 3x ao dia. Evitar
-contato com região de mucosa (olhos e boca por exemplo)</t>
-  </si>
-  <si>
-    <t>1 – Beclometasona 50 mcg aerossol _____________ 1 frasco
-Inalar 4 jatos de 12 em 12 horas por dia</t>
-  </si>
-  <si>
-    <t>1 – Prednisolona 3 mg/ml _____________ 1 caixa
-Tomar 14 ml por dia por 5 dias</t>
-  </si>
-  <si>
-    <t>1 - Nafazolina 0,5mg/ml solução nasal _____________ 1 frasco
-Aplicar 4 gotas “dentro de cada nariz” de 6 em 6 horas por até 5 dias
-Obs.: Não fazer uso prolongado desta medicação.</t>
-  </si>
-  <si>
-    <t>1 - Sais de reidratação oral ________________ _ envelopes
-Para preparar o soro de reidratação oral: diluir 1 envelope em 1 litro de água fervida ou filtrada. Tomar ___ L por dia de soro de reidratação oral. Tomar também líquido caseiros (água, suco, soro caseiro, chá e outros): ___ L. Total de litros por dia ___ L.) Tomar essa quantidade depois de dois dias de estar sem febre.</t>
-  </si>
-  <si>
-    <t>1 – Hidroxiquinolina + trolamina otológico (0,4 + 140 mg) __________ 1 frasco
-Aplicar 3 gotas no ouvido afetado de 8 em 8 horas por 5 dias</t>
-  </si>
-  <si>
-    <t>1 – Guaco tintura ______________________ 1 frasco
-Aplicar 40 gotas em um pouco de água e tomar de 8 em 8 horas</t>
-  </si>
-  <si>
-    <t>1 – Domperidona 10 mg ___________________ 1 caixa
-Tomar 1 comprimido de 8 em 8 horas. Tomar 15-30 minutos antes das refeições</t>
-  </si>
-  <si>
-    <t>1 - Soro fisiológico
-Realizar lavagem nasal com soro. Usar seringa</t>
-  </si>
-  <si>
-    <t>1 – Metformina 850 mg ____________________ 30 cp/mês
-Tomar 1 comprimido após o almoço</t>
-  </si>
-  <si>
-    <t>1 – Metformina 850 mg ____________________ 60 cp/mês
-Tomar 1 comprimido no café da manhã e 1 comprimido no jantar</t>
-  </si>
-  <si>
-    <t>1 – Metformina 850 mg ____________________ 90 cp/mês
-Tomar 1 comprimido no café da manhã
-Tomar 1 comprimido no almoço
-Tomar 1 comprimido no jantar</t>
-  </si>
-  <si>
-    <t>Eletrólitos</t>
-  </si>
-  <si>
-    <t>Realizo antissepsia de ferida. Realizo sutura de forma asséptica. Oriento sobre complicações de ferida. Oriento sobre cuidados de ferida. Prescrevo analgesia; Forneço ___ dias de atestado; Retirada de ponto com ___ dias; Oriento sobre checagem de cartão vacinal para verificar nova dose de vacina de tétano</t>
-  </si>
-  <si>
-    <t>Ambroxol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 - Ambroxol 6 mg/ml ____________ 1 frasco
-Tomar 5 ml de 8 em 8 horas </t>
-  </si>
-  <si>
-    <t>Acetilcisteína</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 - Acetilcisteína 20 mg/ml _________ 1 frasco
-Tomar 10 ml de 8 em 8 horas </t>
-  </si>
-  <si>
-    <t>Mucolítico</t>
-  </si>
-  <si>
-    <t>Ácido tranexâmico</t>
-  </si>
-  <si>
-    <t>1 - Ácido tranexâmico 500 mg _________ 1 caixa
-Tomar 1 comprimido de 8 em 8 horas por 3 dias</t>
-  </si>
-  <si>
-    <t>Antifibrinolítico</t>
-  </si>
-  <si>
-    <t>menorreia</t>
-  </si>
-  <si>
-    <t>OrdemPrioridade</t>
-  </si>
-  <si>
-    <t>crise asma</t>
-  </si>
-  <si>
-    <t>crise asma, bronquite</t>
-  </si>
-  <si>
-    <t>1 – Dexametasona elixir 0,5 mg/5ml ____________________ 1 frasco
-Realizar bocejo com 5 ml de solução por 5 min de 8 em 8 horas por 7 dias</t>
-  </si>
-  <si>
-    <t>FormaFarmaceutica</t>
-  </si>
-  <si>
-    <t>creme</t>
-  </si>
-  <si>
-    <t>solução</t>
-  </si>
-  <si>
-    <t>comprimido</t>
-  </si>
-  <si>
-    <t>solução oral</t>
-  </si>
-  <si>
-    <t>xarope</t>
-  </si>
-  <si>
-    <t>chá</t>
-  </si>
-  <si>
-    <t>tintura</t>
-  </si>
-  <si>
-    <t>ID_Item</t>
+Obs.: Pode tomar até 2 comprimidos de 6 em 6 horas
+Obs. 2: Se não melhora somente com a dipirona, continue tomando-a junto com o anti-inflamatório abaixo
+1 - Ibuprofeno 600 mg _____ 1 caixa
+Tomar 1 comprimido de 8 em 8 horas por 5 dias
+1 – Loratadina 10 mg _____ 1 caixa
+Tomar 1 comprimido por dia
+1 – Guaco xarope _____ 1 frasco
+Tomar 10 ml de 8 em 8 horas por 5 dias
+Uso tópico
+1 - Soro fisiológico 
+Realizar lavagem nasal com soro. Usar seringa
+1 - Budesonida spray nasal 50 mcg _____ 1 frasco
+Aplicar 1 jato em cada narina de 12 em 12 horas por no máximo 7 dias</t>
+  </si>
+  <si>
+    <t>Uso oral
+1 – Dipirona 500 mg _____ 1 caixa
+Tomar 1 comprimido de 6 em 6 horas se dor ou febre
+Obs.: Pode tomar até 2 comprimidos de 6 em 6 horas
+1 – Escopolamina 10 mg _____ 1 caixa
+Tomar 1 comprimido de 6 em 6 horas se dor
+1 – Domperidona 10 mg _____ 1 caixa
+Tomar 1 comprimido de 8 em 8 horas. Tomar 15-30 minutos antes das refeições
+1 – Metoclopramida 10 mg _____ 1 caixa
+Tomar 1 comprimido de 8 em 8 horas se náuseas ou vômitos
+1 - Hidróxido de alumínio + hidróxido de magnésio _____ 1 frasco
+Tomar 1 colher 30 min antes das refeições principais
+1 -  Omeprazol 20 mg _____ 60 comprimidos
+Tomar 1 cápsula pela manhã em jejum, 30 minutos antes da refeição, por 2 meses</t>
+  </si>
+  <si>
+    <t>Uso oral 
+1 – Dipirona 500 mg _____ 1 caixa
+Tomar 1 comprimido de 6 em 6 horas se dor ou febre
+2 – Ibuprofeno 600 mg _____ 1 caixa 
+Tomar 1 comprimido de 8 em 8 horas por até 5 dias
+Uso tópico
+1 – Clorexidina 1% solução _____ 1 frasco
+Aplicar 2 vezes ao dia em lesão
+Obs.: Como curativo utilizar gazes ou outros curativos específicos. Usar esparadrapo para fixar. 
+Obs2.: Deixa a ferida com o curativo inicial por 24h. Realizar a troca de curativo 2 vezes ao dia. Na troca de curativo realizar limpeza com água e antisséptico (sabão neutro ou solução antisséptica); Sempre deixar a ferida coberta. Em caso de surgimento de edema, vermelhidão ou pus, ou seja, sinais de infecção procurar assistência médica. 
+Obs3.: Retirar os pontos com _ dias</t>
+  </si>
+  <si>
+    <t>Uso inalatório
+1 - Fumarato de formoterol + budesonida 6/200 mcg capsula para inalação _____ 1 frasco
+Inalar 1 jato por dia
+2 – Salbutamol 100 mcg aerossol _____ 1 frasco
+Inalar 4 jatos de 4 em 4 horas por 2 dias, e após, usar de chiado no peito ou falta de ar
+Uso oral
+1 – Prednisona 20 mg _____ 10 cp
+Tomar 2 cp por dia por 5 dias</t>
+  </si>
+  <si>
+    <t>Uso oral
+1 - Sais de reidratação oral _____ __ envelopes
+Para preparar o soro de reidratação oral: diluir 1 envelope em 1 litro de água fervida ou filtrada. 
+Tomar soro de reidratação oral: ___ L.
+Tomar também líquido caseiros (água, suco, soro caseiro, chá e outros): ___ L. 
+Total de litros por dia ___ L. 
+Obs.: Tomar essa quantidade depois de dois dias de estar sem febre.
+1 – Dipirona 500 mg _____ 1 caixa
+Tomar 1 comprimido de 6 em 6 horas se dor ou febre
+Obs.: Pode tomar até 2 comprimidos de 6 em 6 horas
+ou
+1 – Paracetamol 750 mg _____ 1 caixa
+Tomar 1 comprimido de 6 em 6 horas se dor ou febre
+1 – Loratadina 10 mg _____ 1 caixa
+Tomar 1 comprimido por dia
+Orientações gerais:
+1 – Procurar urgência e emergência se sinais de alarme: vômitos persistentes (um vômito “atrás do outro”; dor de barriga intensa; sensação de desmaio/desmaio; sangramentos (dentro da boca, na tosse, no vômito ou nas fezes)
+2 – Combater o mosquito transmissor da dengue (Aedes Aegypti)
+3 – Usar medicações com orientação médica
+4 – Não usar antiinflimatórios não esteroidais (Exemplo: ibuprofeno, nimesulida, cetoprofeno, naproxeno, diclofenaco etc etc) e salicilatos (Exemplo: AAS)
+Beba bastante líquidos!!!</t>
+  </si>
+  <si>
+    <t>Paracentese</t>
+  </si>
+  <si>
+    <t>Punção terapêutica</t>
+  </si>
+  <si>
+    <t>- Indicação: [e.g., "Paracentese para alívio sintomático"].
+- Explicado o procedimento, riscos e benefícios para o paciente.
+- Posicionado paciente em decúbito [dorsal ou lateral] com a cabeceira elevada entre 45 e 90 graus.
+- Marcado ponto anatômico na junção do terço lateral com os dois terços mediais de uma linha imaginária traçada entre a espinha ilíaca anterossuperior esquerda e a cicatriz umbilical.
+- Realizada a antissepsia com clorexidina alcóolica no local da punção e colocado campos estéreis.
+- Infiltrado anestésico local com lidocaína à 2% com uma agulha fina
+- Inserido cateter 14G lentamente até o retorno de líquido ascítico com aspecto [e.g., amarela-citrino, límpido]. 
+- Avançado cateter plástico sobre a agulha. Retirado a agulha
+- Conectado cateter a um equipo. Saída do líquido de forma gravitacional e coletado em saco coletor
+- Retirado: [e.g. 2] L de líquido ascítico
+- Reposto albumina na dose de: [e.g. 40] g
+- Retirado o cateter. Aplicado curativo compressivo e oclusivo no local da punção
+- Procedimento sem intercorrências imediatas
+Obs.: Não dispomos de recipiente coletor à vácuo. Não dispomos de laboratório para análise laboratoriais</t>
+  </si>
+  <si>
+    <t>Drenagem torácica</t>
+  </si>
+  <si>
+    <t>Toracocentese</t>
+  </si>
+  <si>
+    <t>- Indicação: [e.g., "Para alívio"]
+- Explicado procedimento para o paciente quanto ao riscos e benefícios
+- Posiciono paciente para que fique sentando e inclinado para frente
+- Determino local da punção pelo método da percussão, da ausculta e do nível intercostal. Utilizo a linha escapular média. Utilizo também a borda superior da costela inferior ao espaço intercostal escolhido
+- Realizo antissepsia com clorexidina com tensoativo e clorexidina alcóolica. Coloco campos cirúrgicos
+- Realizo anestesia no local da punção com lidocaína à 2%
+- Realizo a punção com cateter [e.g., 18] G sobre agulha acoplada a seringa. Ao perder a resistência e aspirar o líquido pleural avanço o cateter, e depois retiro a agulha.
+- Conecto o sistema de drenagem à extremidade do cateter. Sendo coberto a abertura do cateter com o dedo durante a inserção ou troca de equipamento no cateter para evitar pneumotórax. 
+- Retiro: [e.g., 700] ml de líquido pleural
+- Sem intercorrência durante o procedimento. Paciente tolerou bem
+- Realizado curativo oclusivo no local da punção</t>
+  </si>
+  <si>
+    <t>- Indicação: [e.g., pneumotórax, hemotórax etc.]
+- Explico procedimento para o paciente quanto ao riscos e benefícios
+- Determino local anatômico formado pelo "triângulo de segurança". Limites: linha axilar anterior, borda anterior do músculo grande dorsal e ao nível do [e.g., 4° ou 5°] espaço intercostal
+- Posiciono o paciente em decúbito dorsal. Braço ipsilateral da punção abduzido e posicionado com a mão na região da cabeça.
+- Realizo a paramentação
+- Realizo antissepsia com clorexidina com tensoativos e com clorexidina alcóolica e coloco os campos estéreis
+- Anestesia local: infiltração anestésica generosa com lidocaína à 2%
+- Incisão: feito incisão na pele de aproximadamente 2 a 3 cm sobre o espaço intercostal escolhido [e.g., 5° EIC]
+- Dissecção romba: com uma pinça hemostática, disseca-se os tecidos subcutâneos e muscular. Sempre direcionado para borda superior da costela inferior
+- Perfuração da pleura e exploração digital: avançado com a pinça. Perfurado a pleura. Aberto a pinça para alargar o orifício da pleura. Explorado cavidade e orifício com o dedo enluvado
+- Inserção do dreno: pinçado o dreno tamanho [e.g., 28] Fr com a pinça hemostática e, usando o dedo como guia, introduzido o dreno na cavidade pleural. Direcionado o dreno póstero-superiormente. E introduzido 2 a 3 cm para além do último orifício do dreno
+- Conexão ao sistema sela d'água: conectado a extremidade externa ao sistema de drenagem com selo d'água. Colocado [e.g., 500] ml de selo d'água. 
+- Sutura e fixação: realizado ponto em "U" com fio não absorvível. Após isso, realizo o nó de "bailarina"
+- Confirmação: [Drenagem de: ] [Oscilação da coluna líquida] [Borbulhamento do selo d'agua] [Embaçamento por ar do tubo]
+- Procedimento realizado sem intercorrências</t>
+  </si>
+  <si>
+    <t>Drenagem terapêutica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circunstâncias do Evento:
+- Hora do início da parada cardíaca.
+- Condição do paciente no momento da parada (ex.: apneia, ausência de pulso, inconsciência).
+Intervenções Realizadas:
+- Compressões Torácicas: Frequência, profundidade e qualidade das compressões (ex.: "compressões realizadas a uma frequência de 100-120/min e profundidade de 5-6 cm").
+- Ventilação: Método utilizado (ex.: ventilação boca-a-máscara, bolsa-válvula-máscara, intubação endotraqueal) e frequência das ventilações.
+- Desfibrilação: Número de choques administrados, energia utilizada (ex.: "choque de 200J administrado") e resposta do paciente.
+- Medicações: Tipo, dose e via de administração de medicamentos (ex.: "1 mg de epinefrina IV a cada 3-5 minutos").
+Resultados da RCP:
+- Retorno da Circulação Espontânea (RCE): Hora do RCE e condição do paciente após o RCE (ex.: "RCE obtido às 14:35, paciente com pulso palpável e pressão arterial de 90/60 mmHg").
+- Interrupção da RCP: Hora e motivo da interrupção (ex.: "RCP interrompida às 14:50 devido a ordem de não ressuscitar").
+Cuidados Pós-Parada:
+- Medidas de suporte hemodinâmico e ventilatório.
+- Gerenciamento da temperatura alvo e outras intervenções crítica </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1631,13 +1938,27 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1652,7 +1973,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1689,20 +2010,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="44">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1732,6 +2075,9 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
       </font>
@@ -1744,19 +2090,203 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1766,6 +2296,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1801,20 +2334,24 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D533F96B-3659-4560-ACD7-02DCC551E6A1}" name="Tabela1" displayName="Tabela1" ref="A1:G134" totalsRowShown="0">
-  <autoFilter ref="A1:G134" xr:uid="{D533F96B-3659-4560-ACD7-02DCC551E6A1}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F134">
-    <sortCondition ref="B1:B134"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D533F96B-3659-4560-ACD7-02DCC551E6A1}" name="Tabela1" displayName="Tabela1" ref="A1:G138" totalsRowShown="0">
+  <autoFilter ref="A1:G138" xr:uid="{D533F96B-3659-4560-ACD7-02DCC551E6A1}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F138">
+    <sortCondition ref="B1:B138"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="7" xr3:uid="{EEA224EE-B017-42F5-A417-487E2B86AD5D}" name="ID_Item">
       <calculatedColumnFormula>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{FF9AC4B3-0AB1-43C0-813C-9F0FBFCD27C3}" name="NomeBusca" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{A4280A1D-29DF-4DF8-BAEB-74D735392255}" name="PrescricaoCompleta" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{1C09888C-F0B3-445C-96A7-59EF6CBB8977}" name="Categoria" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{E1DAEFD1-96A5-4769-95CA-789E157CF235}" name="Doenca" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{FF9AC4B3-0AB1-43C0-813C-9F0FBFCD27C3}" name="NomeBusca" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{A4280A1D-29DF-4DF8-BAEB-74D735392255}" name="PrescricaoCompleta" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{1C09888C-F0B3-445C-96A7-59EF6CBB8977}" name="Categoria" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{E1DAEFD1-96A5-4769-95CA-789E157CF235}" name="Doenca" dataDxfId="40"/>
     <tableColumn id="5" xr3:uid="{00D107C9-5770-4523-8A77-BC2E8CCDFA3F}" name="OrdemPrioridade"/>
     <tableColumn id="6" xr3:uid="{A2A03C33-701E-4A02-84BD-0D3C40E0270C}" name="FormaFarmaceutica"/>
   </tableColumns>
@@ -1823,65 +2360,100 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7B1BCF4E-F9B8-4BCA-9A1B-734209B09515}" name="Tabela2" displayName="Tabela2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7B1BCF4E-F9B8-4BCA-9A1B-734209B09515}" name="Tabela2" displayName="Tabela2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A1:E6" xr:uid="{7B1BCF4E-F9B8-4BCA-9A1B-734209B09515}"/>
   <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{3B85112C-C948-4532-A5A9-B2DC134B2714}" name="ID_Item" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{3B85112C-C948-4532-A5A9-B2DC134B2714}" name="ID_Item" dataDxfId="37">
       <calculatedColumnFormula>ROW() - ROW(Tabela2[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{294ACE13-D92E-4E83-AE9A-884FBB3BAD21}" name="NomeBusca" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{57C4FF43-CE4E-4A4E-A745-1D12588CAE36}" name="ConteudoTexto" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{1B0E7410-6713-475C-9274-E8D53C220050}" name="Categoria" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{E775B5FA-D905-41A5-AF49-15CA3264FA30}" name="OrdemPrioridade" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{294ACE13-D92E-4E83-AE9A-884FBB3BAD21}" name="NomeBusca" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{57C4FF43-CE4E-4A4E-A745-1D12588CAE36}" name="ConteudoTexto" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{1B0E7410-6713-475C-9274-E8D53C220050}" name="Categoria" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{E775B5FA-D905-41A5-AF49-15CA3264FA30}" name="OrdemPrioridade" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B195B058-C443-4C22-BFDA-1A6D6B3BD53F}" name="Tabela3" displayName="Tabela3" ref="A1:D4" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:D4" xr:uid="{B195B058-C443-4C22-BFDA-1A6D6B3BD53F}"/>
-  <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{30594E46-81AD-44D9-A464-0DDB2405FA5F}" name="ID_Item" dataDxfId="0">
-      <calculatedColumnFormula>ROW() - ROW(Tabela3[[#Headers],[ID_Item]])</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F1B6F081-4196-40D7-9E1B-E18AC00A544A}" name="Tabela57" displayName="Tabela57" ref="A1:E9" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+  <autoFilter ref="A1:E9" xr:uid="{F1B6F081-4196-40D7-9E1B-E18AC00A544A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E9">
+    <sortCondition ref="E1:E9"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="5" xr3:uid="{255D6023-30BF-414A-B3B5-09A8AED4AD40}" name="ID_Item" dataDxfId="30">
+      <calculatedColumnFormula>ROW() - ROW(Tabela57[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{CC635276-E45D-489A-B013-B9CB28D05F73}" name="NomeBusca" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{C4152665-161D-4E06-A92A-C044706FA22B}" name="ConteudoTexto" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{D73DEA13-D731-4A85-9704-AF815ADF8ECA}" name="Categoria" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{8C75D187-576A-41EF-9BC9-337001D161C6}" name="NomeBusca" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{7A836061-FA92-4D6E-A1CB-B0A3080FF4E2}" name="ConteudoTexto" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{9C7516CD-131C-4A90-BC19-727B1919928E}" name="Categoria" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{D9BE6F3B-192E-46DB-ADBD-41AC809A383A}" name="OrdemPrioridade" dataDxfId="26"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BF31387E-C94D-4214-90A7-3EA03A21E459}" name="Tabela4" displayName="Tabela4" ref="A1:D8" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:D8" xr:uid="{BF31387E-C94D-4214-90A7-3EA03A21E459}"/>
-  <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{B03251EF-71D3-4778-9397-49B077E4BE95}" name="ID_Item" dataDxfId="2">
-      <calculatedColumnFormula>ROW() - ROW(Tabela4[[#Headers],[ID_Item]])</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4EB17778-C096-4FB9-8CEA-CBC90E8CC8E2}" name="Tabela8" displayName="Tabela8" ref="A1:E6" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A1:E6" xr:uid="{4EB17778-C096-4FB9-8CEA-CBC90E8CC8E2}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{C07F2220-FEC5-4C0B-AB14-F80860FCB6A0}" name="ID_Item" dataDxfId="23">
+      <calculatedColumnFormula>ROW() - ROW(Tabela5[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{4E29BBAD-C1D6-4B95-B61D-6D2ACC75817D}" name="NomeBusca" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{E987E83A-5D1B-4FBA-B949-173B3B767BC5}" name="ConteudoTexto" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{5CEF5F95-0ACE-4A9D-B37D-26E33FA9BC59}" name="Categoria" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{F6AB2AED-7D50-4A14-A3D8-3D697CD7C3E6}" name="NomeBusca" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{24DCE466-5828-477A-94D8-8B94F125CA52}" name="ConteudoTexto" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{544BC52C-0699-476B-9E91-F8010861B484}" name="Categoria" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{0A44EF13-A692-417E-90F4-EEE1E0C399BB}" name="OrdemPrioridade" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{913B8A45-8E4C-40E3-89AF-FB1299E38DDE}" name="Tabela5" displayName="Tabela5" ref="A1:E13" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:E13" xr:uid="{913B8A45-8E4C-40E3-89AF-FB1299E38DDE}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E13">
-    <sortCondition ref="B1:B13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B195B058-C443-4C22-BFDA-1A6D6B3BD53F}" name="Tabela3" displayName="Tabela3" ref="A1:D7" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D7" xr:uid="{B195B058-C443-4C22-BFDA-1A6D6B3BD53F}"/>
+  <tableColumns count="4">
+    <tableColumn id="4" xr3:uid="{30594E46-81AD-44D9-A464-0DDB2405FA5F}" name="ID_Item" dataDxfId="3">
+      <calculatedColumnFormula>ROW() - ROW(Tabela3[[#Headers],[ID_Item]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="1" xr3:uid="{CC635276-E45D-489A-B013-B9CB28D05F73}" name="NomeBusca" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{C4152665-161D-4E06-A92A-C044706FA22B}" name="ConteudoTexto" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{D73DEA13-D731-4A85-9704-AF815ADF8ECA}" name="Categoria" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BF31387E-C94D-4214-90A7-3EA03A21E459}" name="Tabela4" displayName="Tabela4" ref="A1:D8" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:D8" xr:uid="{BF31387E-C94D-4214-90A7-3EA03A21E459}"/>
+  <tableColumns count="4">
+    <tableColumn id="4" xr3:uid="{B03251EF-71D3-4778-9397-49B077E4BE95}" name="ID_Item" dataDxfId="16">
+      <calculatedColumnFormula>ROW() - ROW(Tabela4[[#Headers],[ID_Item]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="1" xr3:uid="{4E29BBAD-C1D6-4B95-B61D-6D2ACC75817D}" name="NomeBusca" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{E987E83A-5D1B-4FBA-B949-173B3B767BC5}" name="ConteudoTexto" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{5CEF5F95-0ACE-4A9D-B37D-26E33FA9BC59}" name="Categoria" dataDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{913B8A45-8E4C-40E3-89AF-FB1299E38DDE}" name="Tabela5" displayName="Tabela5" ref="A1:E8" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:E8" xr:uid="{913B8A45-8E4C-40E3-89AF-FB1299E38DDE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
+    <sortCondition ref="E1:E8"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{FE4827F2-FADA-4522-96C6-C15115BA8429}" name="ID_Item" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{FE4827F2-FADA-4522-96C6-C15115BA8429}" name="ID_Item" dataDxfId="10">
       <calculatedColumnFormula>ROW() - ROW(Tabela5[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{2E3E19EF-E8C4-4174-A6DD-FE62A883B65B}" name="NomeBusca" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{A403427C-6D7B-4CAC-8A29-52B0496C1B55}" name="ConteudoTexto" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{495ABE71-9083-4D12-B7AF-769A1DE8A329}" name="Categoria" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{B52F07B3-9EB3-4432-9961-0DC5F0D7CABC}" name="OrdemPrioridade" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{2E3E19EF-E8C4-4174-A6DD-FE62A883B65B}" name="NomeBusca" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{A403427C-6D7B-4CAC-8A29-52B0496C1B55}" name="ConteudoTexto" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{495ABE71-9083-4D12-B7AF-769A1DE8A329}" name="Categoria" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{B52F07B3-9EB3-4432-9961-0DC5F0D7CABC}" name="OrdemPrioridade" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2205,9 +2777,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE9DEBA-C453-4102-816C-FDB2AD0D57A3}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:G134"/>
+  <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2215,30 +2789,31 @@
     <col min="3" max="3" width="101.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>402</v>
+        <v>265</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>390</v>
+        <v>255</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>394</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2247,16 +2822,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>383</v>
+        <v>250</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>384</v>
+        <v>310</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>385</v>
+        <v>251</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2265,20 +2843,23 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>314</v>
+        <v>224</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>316</v>
+        <v>225</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
+      <c r="G3" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -2286,16 +2867,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>386</v>
+        <v>252</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>387</v>
+        <v>311</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>388</v>
+        <v>253</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>389</v>
+        <v>254</v>
+      </c>
+      <c r="G4" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2304,16 +2888,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>237</v>
+        <v>338</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>238</v>
+        <v>174</v>
+      </c>
+      <c r="G5" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2322,16 +2909,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>346</v>
+        <v>242</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>304</v>
+        <v>214</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>305</v>
+        <v>215</v>
+      </c>
+      <c r="G6" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2340,16 +2930,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>381</v>
+        <v>249</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>382</v>
+        <v>312</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2358,16 +2951,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>78</v>
+        <v>340</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>308</v>
+        <v>218</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2376,16 +2972,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>308</v>
+        <v>218</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2394,16 +2993,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>289</v>
+        <v>206</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>291</v>
+        <v>207</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>282</v>
+        <v>201</v>
+      </c>
+      <c r="G10" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2412,16 +3014,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>289</v>
+        <v>206</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>290</v>
+        <v>342</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>291</v>
+        <v>207</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>282</v>
+        <v>201</v>
+      </c>
+      <c r="G11" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2430,20 +3035,23 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F12">
         <v>3</v>
       </c>
+      <c r="G12" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -2451,20 +3059,23 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>202</v>
+        <v>344</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F13">
         <v>3</v>
       </c>
+      <c r="G13" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -2472,20 +3083,23 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>202</v>
+        <v>344</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F14">
         <v>3</v>
       </c>
+      <c r="G14" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -2493,16 +3107,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>252</v>
+        <v>183</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>253</v>
+        <v>314</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>190</v>
+        <v>145</v>
+      </c>
+      <c r="G15" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2511,310 +3128,361 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>172</v>
+        <v>315</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="G16" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="E19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G21" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G24" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G27" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G29" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>30</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="B31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="G31" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>31</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>21</v>
-      </c>
-      <c r="B22" s="4" t="s">
+      <c r="B32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" t="s">
         <v>298</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>22</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>23</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>24</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>25</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>26</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>27</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>28</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>29</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>30</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>31</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2823,16 +3491,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>306</v>
+        <v>216</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>358</v>
+        <v>320</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>307</v>
+        <v>217</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
+      </c>
+      <c r="G33" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2841,16 +3512,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>164</v>
+        <v>357</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>240</v>
+        <v>176</v>
+      </c>
+      <c r="G34" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2859,16 +3533,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>275</v>
+        <v>196</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>270</v>
+        <v>193</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>271</v>
+        <v>194</v>
+      </c>
+      <c r="G35" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2877,20 +3554,23 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F36">
         <v>4</v>
       </c>
+      <c r="G36" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -2898,20 +3578,23 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>61</v>
+        <v>360</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="F37">
         <v>4</v>
       </c>
+      <c r="G37" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -2919,20 +3602,23 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>251</v>
+        <v>361</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
+      <c r="G38" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -2940,19 +3626,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>189</v>
+        <v>328</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="G39" t="s">
-        <v>395</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2961,19 +3647,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>393</v>
+        <v>362</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>231</v>
+        <v>169</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>232</v>
+        <v>170</v>
       </c>
       <c r="G40" t="s">
-        <v>396</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2982,20 +3668,23 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>243</v>
+        <v>178</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="F41">
         <v>2</v>
       </c>
+      <c r="G41" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -3003,20 +3692,23 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="E42" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F42">
         <v>3</v>
       </c>
+      <c r="G42" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -3024,16 +3716,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>69</v>
+        <v>365</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
+      </c>
+      <c r="G43" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3042,16 +3737,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>71</v>
+        <v>366</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
+      </c>
+      <c r="G44" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3060,16 +3758,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>226</v>
+        <v>367</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>227</v>
+        <v>166</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>228</v>
+        <v>167</v>
+      </c>
+      <c r="G45" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3081,22 +3782,22 @@
         <v>1</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>8</v>
+        <v>368</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A47">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>46</v>
@@ -3105,22 +3806,22 @@
         <v>1</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A48">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>47</v>
@@ -3129,55 +3830,67 @@
         <v>1</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F48">
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A49">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>21</v>
+        <v>282</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A50">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>285</v>
+        <v>372</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>283</v>
+        <v>9</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>282</v>
+        <v>19</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3186,16 +3899,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>284</v>
+        <v>17</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>283</v>
+        <v>16</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>282</v>
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3204,16 +3920,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>18</v>
+        <v>203</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>19</v>
+        <v>202</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>24</v>
+        <v>201</v>
+      </c>
+      <c r="G52" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3222,16 +3941,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>276</v>
+        <v>203</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>277</v>
+        <v>375</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>270</v>
+        <v>202</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>271</v>
+        <v>201</v>
+      </c>
+      <c r="G53" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3240,16 +3962,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>158</v>
+        <v>376</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>156</v>
+        <v>20</v>
+      </c>
+      <c r="G54" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3258,16 +3983,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>348</v>
+        <v>197</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>260</v>
+        <v>377</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>297</v>
+        <v>193</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>263</v>
+        <v>194</v>
+      </c>
+      <c r="G55" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3276,19 +4004,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>203</v>
+        <v>123</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>204</v>
+        <v>378</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F56">
-        <v>3</v>
+        <v>122</v>
+      </c>
+      <c r="G56" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3297,19 +4025,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>205</v>
+        <v>379</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>35</v>
+        <v>212</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F57">
-        <v>3</v>
+        <v>188</v>
+      </c>
+      <c r="G57" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3318,19 +4046,22 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>211</v>
+        <v>380</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F58">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G58" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3339,19 +4070,22 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>207</v>
+        <v>153</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>206</v>
+        <v>381</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>211</v>
+        <v>27</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G59" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3360,20 +4094,23 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>211</v>
+        <v>333</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>156</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F60">
         <v>2</v>
       </c>
+      <c r="G60" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A61">
@@ -3381,16 +4118,22 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>87</v>
+        <v>334</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>88</v>
+        <v>30</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3399,20 +4142,23 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>331</v>
+        <v>154</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>333</v>
+        <v>156</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>319</v>
+        <v>30</v>
       </c>
       <c r="F62">
         <v>2</v>
       </c>
+      <c r="G62" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A63">
@@ -3420,19 +4166,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>331</v>
+        <v>59</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>334</v>
+        <v>382</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>333</v>
+        <v>5</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="F63">
-        <v>2</v>
+        <v>60</v>
+      </c>
+      <c r="G63" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3441,19 +4187,22 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>42</v>
+        <v>383</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>148</v>
+        <v>233</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>44</v>
+        <v>227</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
       </c>
       <c r="G64" t="s">
-        <v>400</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3462,19 +4211,22 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>148</v>
+        <v>233</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>44</v>
+        <v>227</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
       </c>
       <c r="G65" t="s">
-        <v>401</v>
+        <v>261</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3483,22 +4235,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>43</v>
+        <v>385</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="G66" t="s">
-        <v>399</v>
+        <v>263</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3507,16 +4256,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>268</v>
+        <v>32</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>269</v>
+        <v>386</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>278</v>
+        <v>117</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>271</v>
+        <v>33</v>
+      </c>
+      <c r="G67" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3525,16 +4277,22 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>191</v>
+        <v>32</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>192</v>
+        <v>387</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>190</v>
+        <v>33</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3543,16 +4301,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>174</v>
+        <v>388</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>176</v>
+        <v>194</v>
+      </c>
+      <c r="G69" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3561,16 +4322,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>212</v>
+        <v>146</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>293</v>
+        <v>29</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>213</v>
+        <v>145</v>
+      </c>
+      <c r="G70" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3579,19 +4343,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>246</v>
+        <v>133</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>247</v>
+        <v>325</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F71">
-        <v>2</v>
+        <v>135</v>
+      </c>
+      <c r="G71" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3600,19 +4364,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>26</v>
+        <v>157</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>27</v>
+        <v>389</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>13</v>
+        <v>208</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F72">
-        <v>2</v>
+        <v>158</v>
+      </c>
+      <c r="G72" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3621,16 +4385,22 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>272</v>
+        <v>180</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>273</v>
+        <v>390</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>270</v>
+        <v>39</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>271</v>
+        <v>179</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3639,16 +4409,22 @@
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>274</v>
+        <v>323</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>270</v>
+        <v>10</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>271</v>
+        <v>19</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3657,19 +4433,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>327</v>
+        <v>195</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>317</v>
+        <v>391</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>318</v>
+        <v>193</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="F75">
-        <v>3</v>
+        <v>194</v>
+      </c>
+      <c r="G75" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3678,41 +4454,44 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>327</v>
+        <v>195</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>320</v>
+        <v>392</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>318</v>
+        <v>193</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="F76">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="G76" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A77">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>327</v>
+        <v>230</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>321</v>
+        <v>393</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>318</v>
+        <v>226</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>319</v>
+        <v>227</v>
       </c>
       <c r="F77">
         <v>3</v>
       </c>
+      <c r="G77" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A78">
@@ -3720,796 +4499,925 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>327</v>
+        <v>230</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>318</v>
+        <v>226</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>323</v>
+        <v>227</v>
       </c>
       <c r="F78">
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G78" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A79">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>327</v>
+        <v>230</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>324</v>
+        <v>395</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>318</v>
+        <v>226</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>323</v>
+        <v>227</v>
       </c>
       <c r="F79">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="G79" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A80">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>327</v>
+        <v>230</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>325</v>
+        <v>396</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>318</v>
+        <v>226</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>323</v>
+        <v>227</v>
       </c>
       <c r="F80">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G80" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A81">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>326</v>
+        <v>230</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>328</v>
+        <v>397</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>318</v>
+        <v>226</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>319</v>
+        <v>227</v>
       </c>
       <c r="F81">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G81" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A82">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>326</v>
+        <v>230</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>329</v>
+        <v>398</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>318</v>
+        <v>226</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>323</v>
+        <v>227</v>
       </c>
       <c r="F82">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G82" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A83">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>72</v>
+        <v>229</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>73</v>
+        <v>399</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>74</v>
+        <v>226</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="F83">
+        <v>3</v>
+      </c>
+      <c r="G83" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A84">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>181</v>
+        <v>400</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>182</v>
+        <v>226</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="F84">
+        <v>3</v>
+      </c>
+      <c r="G84" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>84</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G85" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>85</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F86">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>84</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>85</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E86" s="1" t="s">
+      <c r="G86" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>86</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G87" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>87</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>88</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G89" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>89</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G90" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>90</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F91">
+        <v>3</v>
+      </c>
+      <c r="G91" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>91</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F92">
+        <v>4</v>
+      </c>
+      <c r="G92" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>92</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>86</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>87</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>88</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F89">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>89</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F90">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>90</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="F91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>91</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>92</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>349</v>
-      </c>
       <c r="C93" s="3" t="s">
-        <v>378</v>
+        <v>408</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>330</v>
+        <v>231</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>319</v>
+        <v>227</v>
       </c>
       <c r="F93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G93" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A94">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>185</v>
+        <v>245</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>186</v>
+        <v>409</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>66</v>
+        <v>231</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A95">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>287</v>
+        <v>410</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>288</v>
+        <v>231</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A96">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>82</v>
+        <v>411</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="G96" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A97">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>81</v>
+        <v>204</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>366</v>
+        <v>412</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="G97" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A98">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>154</v>
+        <v>413</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>155</v>
+        <v>52</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="G98" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A99">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>234</v>
+        <v>56</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>235</v>
+        <v>414</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="G99" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A100">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="G100" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A101">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>17</v>
+        <v>416</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F101">
+        <v>175</v>
+      </c>
+      <c r="G101" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>101</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G102" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>102</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F103">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>101</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F102">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>102</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G103" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A104">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>167</v>
+        <v>418</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F104">
         <v>3</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G104" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A105">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>303</v>
+        <v>419</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>304</v>
+        <v>34</v>
       </c>
       <c r="E105" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G105" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>105</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F106">
+        <v>3</v>
+      </c>
+      <c r="G106" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>106</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G107" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>107</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G108" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>108</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>109</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G110" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>105</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>106</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F107">
+    <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>110</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G111" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>111</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F112">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>107</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D108" s="4" t="s">
+      <c r="G112" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>112</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>108</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>109</v>
-      </c>
-      <c r="B110" s="4" t="s">
+      <c r="C113" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D113" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C110" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F110">
+      <c r="E113" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F113">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>110</v>
-      </c>
-      <c r="B111" s="4" t="s">
+      <c r="G113" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>113</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="D114" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C111" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F111">
+      <c r="E114" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F114">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>111</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>112</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>113</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G114" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A115">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>221</v>
+        <v>281</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>222</v>
+        <v>428</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>223</v>
+        <v>9</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A116">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>264</v>
+        <v>171</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>265</v>
+        <v>429</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="G116" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A117">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>254</v>
+        <v>430</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>38</v>
+        <v>209</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>296</v>
+        <v>210</v>
       </c>
       <c r="G117" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A118">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>37</v>
+        <v>431</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>38</v>
+        <v>209</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>391</v>
+        <v>210</v>
       </c>
       <c r="G118" t="s">
-        <v>397</v>
+        <v>297</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4518,19 +5426,19 @@
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>369</v>
+        <v>162</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>392</v>
+        <v>164</v>
       </c>
       <c r="G119" t="s">
-        <v>398</v>
+        <v>307</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4539,40 +5447,40 @@
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>248</v>
+        <v>189</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>249</v>
+        <v>330</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F120">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="G120" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A121">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>120</v>
       </c>
-      <c r="B121" s="8" t="s">
-        <v>216</v>
+      <c r="B121" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>217</v>
+        <v>432</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>182</v>
+        <v>29</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F121">
-        <v>5</v>
+        <v>211</v>
+      </c>
+      <c r="G121" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4581,34 +5489,40 @@
         <v>121</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>91</v>
+        <v>433</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="G122" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A123">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>177</v>
+        <v>28</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>371</v>
+        <v>434</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>379</v>
+        <v>29</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>196</v>
+        <v>257</v>
+      </c>
+      <c r="G123" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4617,37 +5531,46 @@
         <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>178</v>
+        <v>435</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>379</v>
+        <v>39</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F124">
+        <v>2</v>
+      </c>
+      <c r="G124" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A125">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>124</v>
       </c>
-      <c r="B125" s="4" t="s">
-        <v>33</v>
+      <c r="B125" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>198</v>
+        <v>436</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="G125" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4656,37 +5579,40 @@
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>34</v>
+        <v>437</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="F126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="G126" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A127">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>169</v>
+        <v>331</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>313</v>
+        <v>150</v>
+      </c>
+      <c r="G127" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4695,133 +5621,244 @@
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>375</v>
+        <v>332</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>28</v>
+        <v>247</v>
       </c>
       <c r="E128" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G128" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>128</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>129</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>130</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G131" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>131</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G132" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>132</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>128</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>129</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>130</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D131" s="4" t="s">
+      <c r="G133" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>133</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G134" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>134</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F135">
+        <v>3</v>
+      </c>
+      <c r="G135" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>135</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="D136" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E131" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F131">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>131</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F132">
+      <c r="E136" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F136">
         <v>4</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>132</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F133">
+      <c r="G136" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>136</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F137">
         <v>4</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>133</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>232</v>
+      <c r="G137" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>137</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G138" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -4837,7 +5874,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69FEE0D-C200-477B-AD66-2EE7A919F54C}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4848,19 +5887,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>402</v>
+        <v>265</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>390</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -4869,13 +5908,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
@@ -4887,13 +5926,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E3" s="5">
         <v>2</v>
@@ -4905,13 +5944,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E4" s="5">
         <v>4</v>
@@ -4923,13 +5962,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="E5" s="5">
         <v>3</v>
@@ -4941,13 +5980,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="E6" s="5">
         <v>5</v>
@@ -4962,77 +6001,181 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63061C67-B363-452A-A39F-8FB51F9B9B82}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6861A0-674B-4CF5-A1F6-4D37C3CABC30}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="58.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>402</v>
+        <v>265</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <f>ROW() - ROW(Tabela57[[#Headers],[ID_Item]])</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <f>ROW() - ROW(Tabela57[[#Headers],[ID_Item]])</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <f>ROW() - ROW(Tabela57[[#Headers],[ID_Item]])</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E4" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <f>ROW() - ROW(Tabela57[[#Headers],[ID_Item]])</f>
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <f>ROW() - ROW(Tabela57[[#Headers],[ID_Item]])</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <f>ROW() - ROW(Tabela3[[#Headers],[ID_Item]])</f>
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="265.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <f>ROW() - ROW(Tabela3[[#Headers],[ID_Item]])</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="405" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <f>ROW() - ROW(Tabela3[[#Headers],[ID_Item]])</f>
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>113</v>
+      <c r="B6" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E6" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <f>ROW() - ROW(Tabela57[[#Headers],[ID_Item]])</f>
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="E7" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <f>ROW() - ROW(Tabela57[[#Headers],[ID_Item]])</f>
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="E8" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <f>ROW() - ROW(Tabela57[[#Headers],[ID_Item]])</f>
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E9" s="5">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -5044,11 +6187,268 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1623D2DD-2AAF-46F4-A228-AB579D2CF3FD}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="104.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="390" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="E2" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="E3" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="E4" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="E5" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E6" s="15">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <ignoredErrors>
+    <ignoredError sqref="A3:A5" calculatedColumn="1"/>
+  </ignoredErrors>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63061C67-B363-452A-A39F-8FB51F9B9B82}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <f>ROW() - ROW(Tabela3[[#Headers],[ID_Item]])</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="265.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <f>ROW() - ROW(Tabela3[[#Headers],[ID_Item]])</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <f>ROW() - ROW(Tabela3[[#Headers],[ID_Item]])</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="360" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <f>ROW() - ROW(Tabela3[[#Headers],[ID_Item]])</f>
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="345" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <f>ROW() - ROW(Tabela3[[#Headers],[ID_Item]])</f>
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>456</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <f>ROW() - ROW(Tabela3[[#Headers],[ID_Item]])</f>
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>458</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F398F0-EEA4-4588-9072-BC0E09F19E1A}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5060,16 +6460,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>402</v>
+        <v>265</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -5078,13 +6478,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -5093,13 +6493,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="165" x14ac:dyDescent="0.25">
@@ -5108,13 +6508,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="135" x14ac:dyDescent="0.25">
@@ -5123,13 +6523,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="180" x14ac:dyDescent="0.25">
@@ -5138,13 +6538,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="405" x14ac:dyDescent="0.25">
@@ -5153,13 +6553,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -5168,13 +6568,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -5185,139 +6585,139 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39D3372-8E60-46D2-8A5A-AF4F9411474D}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>402</v>
+        <v>265</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <f>ROW() - ROW(Tabela5[[#Headers],[ID_Item]])</f>
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>338</v>
+        <v>103</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>339</v>
+        <v>104</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>340</v>
+        <v>105</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f>ROW() - ROW(Tabela5[[#Headers],[ID_Item]])</f>
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>145</v>
+        <v>248</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f>ROW() - ROW(Tabela5[[#Headers],[ID_Item]])</f>
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f>ROW() - ROW(Tabela5[[#Headers],[ID_Item]])</f>
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f>ROW() - ROW(Tabela5[[#Headers],[ID_Item]])</f>
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>344</v>
+        <v>111</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>345</v>
+        <v>112</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="E6" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f>ROW() - ROW(Tabela5[[#Headers],[ID_Item]])</f>
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>343</v>
+        <v>101</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="E7" s="5">
-        <v>2</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -5325,101 +6725,15 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>136</v>
+        <v>107</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <f>ROW() - ROW(Tabela5[[#Headers],[ID_Item]])</f>
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" ht="405" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <f>ROW() - ROW(Tabela5[[#Headers],[ID_Item]])</f>
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="E10" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <f>ROW() - ROW(Tabela5[[#Headers],[ID_Item]])</f>
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" ht="390" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <f>ROW() - ROW(Tabela5[[#Headers],[ID_Item]])</f>
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <f>ROW() - ROW(Tabela5[[#Headers],[ID_Item]])</f>
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="5">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/script-excel-para-json/input/prescricoes.xlsx
+++ b/script-excel-para-json/input/prescricoes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1AC289667D0E8CCD/Documentos/Saúde/Prescrições/Prescrição_python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1248" documentId="13_ncr:1_{243FE48A-7C6A-41E4-8FFF-32D7F4E6C3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C8318A9-A850-4E3E-A5E7-486C4B84D6DE}"/>
+  <xr:revisionPtr revIDLastSave="1431" documentId="13_ncr:1_{243FE48A-7C6A-41E4-8FFF-32D7F4E6C3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B22C18C1-9D30-4C8A-AB7D-EB1AA16B544D}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="4" xr2:uid="{4C639DE4-733A-4E7F-8720-AC3921A2C161}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{4C639DE4-733A-4E7F-8720-AC3921A2C161}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicamentos" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="487">
   <si>
     <t>NomeBusca</t>
   </si>
@@ -302,9 +302,6 @@
   </si>
   <si>
     <t>Explico procedimento para paciente. Posiciono de forma adequada o paciente; Realizo paramentação; Realizado antissepsia de local de punção: ?; Realizado anestesia local; Realizado punção com agulha, introduzido fio-guia e, após, feito dilatação com o dilatador; Introduzido cateter, retirado fio-guia e feito fixação com fio nylon. Procedimento sem intercorrência. Cateter duplo lúmen e tamanho Fr 7</t>
-  </si>
-  <si>
-    <t>Acesso venoso</t>
   </si>
   <si>
     <t>RCP</t>
@@ -470,11 +467,6 @@
     <t>Atestado acompanhante</t>
   </si>
   <si>
-    <t xml:space="preserve">Acompanhante em questão esteve como acompanhante durante internação de (nome do paciente internado), (grau de parentesco) no (Estabelecimento de Saúde), (Cidade e estado), nos períodos: de __ até __.
-CID:
-Data: </t>
-  </si>
-  <si>
     <t>Amoxicilina, clavulanato</t>
   </si>
   <si>
@@ -654,9 +646,6 @@
   </si>
   <si>
     <t>Corticoide tópico</t>
-  </si>
-  <si>
-    <t>Estomatite aftosa</t>
   </si>
   <si>
     <t>Permanganato de potássio</t>
@@ -1212,10 +1201,6 @@
 Tomar 1 comprimido de 8 em 8 horas por ___ dias</t>
   </si>
   <si>
-    <t>1 - Sulfametoxazol+trimetoprima 400/80mg _____ __ comprimidos
-Tomar ___ comprimidos de _____ horas por ___ dias</t>
-  </si>
-  <si>
     <t>1 - Hidrocortisona creme _____ 1 tubo
 Aplicar 2 vezes ao dia por ___ dias. Realizar leve fricção</t>
   </si>
@@ -1254,14 +1239,6 @@
 Aplicar __ gotas de ___ horas por 5 dias</t>
   </si>
   <si>
-    <t>1 - Sais de reidratação oral _____ _ envelopes
-Para preparar o soro de reidratação oral: diluir 1 envelope em 1 litro de água fervida ou filtrada. Tomar ___ L por dia de soro de reidratação oral. Tomar também líquido caseiros (água, suco, soro caseiro, chá e outros): ___ L. Total de litros por dia ___ L.) Tomar essa quantidade depois de dois dias de estar sem febre.</t>
-  </si>
-  <si>
-    <t>1 - Sais de reidratação oral _____ _ envelopes
-Diluir 1 envelope em 1 litro de água fervida ou filtrada. Tomar 1 copo para cada evacuação ou vômitos</t>
-  </si>
-  <si>
     <t>1 - Dipropionato de beclometasona + fumarato de formoterol 100/6 mcg aerossol _____ 1 frasco
 Inalar 1 jato de 12 em 12 horas por dia</t>
   </si>
@@ -1287,10 +1264,6 @@
   <si>
     <t>1 - Albendazol 400 mg _____ 3 cp
 Tomar 1 comprimido por dia por 3 dias</t>
-  </si>
-  <si>
-    <t>1 - Amoxicilina 500 mg _____ __ comprimidos
-Tomar 1 comprimido de 8 em 8 horas por __ dias</t>
   </si>
   <si>
     <t>1 - Anlodipino 5 mg _____ 60 cp/mês
@@ -1680,10 +1653,6 @@
 Após lavar cabelo, deve-se aplicar este produto nos cabelos úmidos, cobrindo todo o couro cabeludo, e esfregar abundantemente em toda a extensão; O produto deve agir por 10 minutos. Passar o pente fino para a remoção dos piolhos e das lêndeas; Enxaguar o cabelo com água morna e enxugar com a toalha; Repetir após 7 dias, se houver necessidade; A quantidade necessária do produto depende do volume e tamanho dos cabelos, pode ser necessário usar o frasco inteiro e em alguns casos, de cabelo mais longos, pode ser necessário mais de um frasco;</t>
   </si>
   <si>
-    <t>1 - Prednisona 5 mg _____ __ CPs
-Tomar ___ comprimido (s) por dia por ___ dias</t>
-  </si>
-  <si>
     <t>1 - Prednisona 20 mg _____ 10 cp
 Tomar 2 cp por dia por 5 dias</t>
   </si>
@@ -1698,10 +1667,6 @@
   <si>
     <t>1 - Psyllium _____ 1 caixa
 Tomar 7 g ou 1 colhe de chá em 240 ml de água ou bebida favorita, 2 vezes ao dia. Misture bem e beba imediatamente. Para melhor efeito tome um copo adicional de água.</t>
-  </si>
-  <si>
-    <t>1 - Sacarato de hidróxido férrico (ex..: noripurum) _____ __ amp(s)
-Diluir ___ ampolas em ___ de S.F.0,9%. Correr lentamente. Repetir a cada uma semana (__ semanas de duração)</t>
   </si>
   <si>
     <t>1 - Salbutamol 100 mcg aerossol _____ 1 frasco
@@ -1769,6 +1734,120 @@
 Tomar 1 cápsula pela manhã em jejum, 30 minutos antes da refeição, por 2 meses</t>
   </si>
   <si>
+    <t>Uso inalatório
+1 - Fumarato de formoterol + budesonida 6/200 mcg capsula para inalação _____ 1 frasco
+Inalar 1 jato por dia
+2 – Salbutamol 100 mcg aerossol _____ 1 frasco
+Inalar 4 jatos de 4 em 4 horas por 2 dias, e após, usar de chiado no peito ou falta de ar
+Uso oral
+1 – Prednisona 20 mg _____ 10 cp
+Tomar 2 cp por dia por 5 dias</t>
+  </si>
+  <si>
+    <t>Paracentese</t>
+  </si>
+  <si>
+    <t>Punção terapêutica</t>
+  </si>
+  <si>
+    <t>- Indicação: [e.g., "Paracentese para alívio sintomático"].
+- Explicado o procedimento, riscos e benefícios para o paciente.
+- Posicionado paciente em decúbito [dorsal ou lateral] com a cabeceira elevada entre 45 e 90 graus.
+- Marcado ponto anatômico na junção do terço lateral com os dois terços mediais de uma linha imaginária traçada entre a espinha ilíaca anterossuperior esquerda e a cicatriz umbilical.
+- Realizada a antissepsia com clorexidina alcóolica no local da punção e colocado campos estéreis.
+- Infiltrado anestésico local com lidocaína à 2% com uma agulha fina
+- Inserido cateter 14G lentamente até o retorno de líquido ascítico com aspecto [e.g., amarela-citrino, límpido]. 
+- Avançado cateter plástico sobre a agulha. Retirado a agulha
+- Conectado cateter a um equipo. Saída do líquido de forma gravitacional e coletado em saco coletor
+- Retirado: [e.g. 2] L de líquido ascítico
+- Reposto albumina na dose de: [e.g. 40] g
+- Retirado o cateter. Aplicado curativo compressivo e oclusivo no local da punção
+- Procedimento sem intercorrências imediatas
+Obs.: Não dispomos de recipiente coletor à vácuo. Não dispomos de laboratório para análise laboratoriais</t>
+  </si>
+  <si>
+    <t>Drenagem torácica</t>
+  </si>
+  <si>
+    <t>Toracocentese</t>
+  </si>
+  <si>
+    <t>- Indicação: [e.g., "Para alívio"]
+- Explicado procedimento para o paciente quanto ao riscos e benefícios
+- Posiciono paciente para que fique sentando e inclinado para frente
+- Determino local da punção pelo método da percussão, da ausculta e do nível intercostal. Utilizo a linha escapular média. Utilizo também a borda superior da costela inferior ao espaço intercostal escolhido
+- Realizo antissepsia com clorexidina com tensoativo e clorexidina alcóolica. Coloco campos cirúrgicos
+- Realizo anestesia no local da punção com lidocaína à 2%
+- Realizo a punção com cateter [e.g., 18] G sobre agulha acoplada a seringa. Ao perder a resistência e aspirar o líquido pleural avanço o cateter, e depois retiro a agulha.
+- Conecto o sistema de drenagem à extremidade do cateter. Sendo coberto a abertura do cateter com o dedo durante a inserção ou troca de equipamento no cateter para evitar pneumotórax. 
+- Retiro: [e.g., 700] ml de líquido pleural
+- Sem intercorrência durante o procedimento. Paciente tolerou bem
+- Realizado curativo oclusivo no local da punção</t>
+  </si>
+  <si>
+    <t>- Indicação: [e.g., pneumotórax, hemotórax etc.]
+- Explico procedimento para o paciente quanto ao riscos e benefícios
+- Determino local anatômico formado pelo "triângulo de segurança". Limites: linha axilar anterior, borda anterior do músculo grande dorsal e ao nível do [e.g., 4° ou 5°] espaço intercostal
+- Posiciono o paciente em decúbito dorsal. Braço ipsilateral da punção abduzido e posicionado com a mão na região da cabeça.
+- Realizo a paramentação
+- Realizo antissepsia com clorexidina com tensoativos e com clorexidina alcóolica e coloco os campos estéreis
+- Anestesia local: infiltração anestésica generosa com lidocaína à 2%
+- Incisão: feito incisão na pele de aproximadamente 2 a 3 cm sobre o espaço intercostal escolhido [e.g., 5° EIC]
+- Dissecção romba: com uma pinça hemostática, disseca-se os tecidos subcutâneos e muscular. Sempre direcionado para borda superior da costela inferior
+- Perfuração da pleura e exploração digital: avançado com a pinça. Perfurado a pleura. Aberto a pinça para alargar o orifício da pleura. Explorado cavidade e orifício com o dedo enluvado
+- Inserção do dreno: pinçado o dreno tamanho [e.g., 28] Fr com a pinça hemostática e, usando o dedo como guia, introduzido o dreno na cavidade pleural. Direcionado o dreno póstero-superiormente. E introduzido 2 a 3 cm para além do último orifício do dreno
+- Conexão ao sistema sela d'água: conectado a extremidade externa ao sistema de drenagem com selo d'água. Colocado [e.g., 500] ml de selo d'água. 
+- Sutura e fixação: realizado ponto em "U" com fio não absorvível. Após isso, realizo o nó de "bailarina"
+- Confirmação: [Drenagem de: ] [Oscilação da coluna líquida] [Borbulhamento do selo d'agua] [Embaçamento por ar do tubo]
+- Procedimento realizado sem intercorrências</t>
+  </si>
+  <si>
+    <t>Drenagem terapêutica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circunstâncias do Evento:
+- Hora do início da parada cardíaca.
+- Condição do paciente no momento da parada (ex.: apneia, ausência de pulso, inconsciência).
+Intervenções Realizadas:
+- Compressões Torácicas: Frequência, profundidade e qualidade das compressões (ex.: "compressões realizadas a uma frequência de 100-120/min e profundidade de 5-6 cm").
+- Ventilação: Método utilizado (ex.: ventilação boca-a-máscara, bolsa-válvula-máscara, intubação endotraqueal) e frequência das ventilações.
+- Desfibrilação: Número de choques administrados, energia utilizada (ex.: "choque de 200J administrado") e resposta do paciente.
+- Medicações: Tipo, dose e via de administração de medicamentos (ex.: "1 mg de epinefrina IV a cada 3-5 minutos").
+Resultados da RCP:
+- Retorno da Circulação Espontânea (RCE): Hora do RCE e condição do paciente após o RCE (ex.: "RCE obtido às 14:35, paciente com pulso palpável e pressão arterial de 90/60 mmHg").
+- Interrupção da RCP: Hora e motivo da interrupção (ex.: "RCP interrompida às 14:50 devido a ordem de não ressuscitar").
+Cuidados Pós-Parada:
+- Medidas de suporte hemodinâmico e ventilatório.
+- Gerenciamento da temperatura alvo e outras intervenções crítica </t>
+  </si>
+  <si>
+    <t>Acesso venoso central</t>
+  </si>
+  <si>
+    <t>1 - Amoxicilina 500 mg _____ ___ comprimidos
+Tomar 1 comprimido de 8 em 8 horas por ___ dias</t>
+  </si>
+  <si>
+    <t>1 - Prednisona 5 mg _____ ___ CPs
+Tomar ___ comprimido (s) por dia por ___ dias</t>
+  </si>
+  <si>
+    <t>1 - Sacarato de hidróxido férrico (ex..: noripurum) _____ ___ amp(s)
+Diluir ___ ampolas em ___ de S.F.0,9%. Correr lentamente. Repetir a cada uma semana (___ semanas de duração)</t>
+  </si>
+  <si>
+    <t>1 - Sais de reidratação oral _____ ___ envelopes
+Para preparar o soro de reidratação oral: diluir 1 envelope em 1 litro de água fervida ou filtrada. Tomar ___ L por dia de soro de reidratação oral. Tomar também líquido caseiros (água, suco, soro caseiro, chá e outros): ___ L. Total de litros por dia ___ L.) Tomar essa quantidade depois de dois dias de estar sem febre.</t>
+  </si>
+  <si>
+    <t>1 - Sais de reidratação oral _____ ___ envelopes
+Diluir 1 envelope em 1 litro de água fervida ou filtrada. Tomar 1 copo para cada evacuação ou vômitos</t>
+  </si>
+  <si>
+    <t>1 - Sulfametoxazol+trimetoprima 400/80mg _____ ___ comprimidos
+Tomar ___ comprimidos de _____ horas por ___ dias</t>
+  </si>
+  <si>
     <t>Uso oral 
 1 – Dipirona 500 mg _____ 1 caixa
 Tomar 1 comprimido de 6 em 6 horas se dor ou febre
@@ -1779,21 +1858,11 @@
 Aplicar 2 vezes ao dia em lesão
 Obs.: Como curativo utilizar gazes ou outros curativos específicos. Usar esparadrapo para fixar. 
 Obs2.: Deixa a ferida com o curativo inicial por 24h. Realizar a troca de curativo 2 vezes ao dia. Na troca de curativo realizar limpeza com água e antisséptico (sabão neutro ou solução antisséptica); Sempre deixar a ferida coberta. Em caso de surgimento de edema, vermelhidão ou pus, ou seja, sinais de infecção procurar assistência médica. 
-Obs3.: Retirar os pontos com _ dias</t>
-  </si>
-  <si>
-    <t>Uso inalatório
-1 - Fumarato de formoterol + budesonida 6/200 mcg capsula para inalação _____ 1 frasco
-Inalar 1 jato por dia
-2 – Salbutamol 100 mcg aerossol _____ 1 frasco
-Inalar 4 jatos de 4 em 4 horas por 2 dias, e após, usar de chiado no peito ou falta de ar
-Uso oral
-1 – Prednisona 20 mg _____ 10 cp
-Tomar 2 cp por dia por 5 dias</t>
+Obs3.: Retirar os pontos com ___ dias</t>
   </si>
   <si>
     <t>Uso oral
-1 - Sais de reidratação oral _____ __ envelopes
+1 - Sais de reidratação oral _____ ___ envelopes
 Para preparar o soro de reidratação oral: diluir 1 envelope em 1 litro de água fervida ou filtrada. 
 Tomar soro de reidratação oral: ___ L.
 Tomar também líquido caseiros (água, suco, soro caseiro, chá e outros): ___ L. 
@@ -1815,88 +1884,110 @@
 Beba bastante líquidos!!!</t>
   </si>
   <si>
-    <t>Paracentese</t>
-  </si>
-  <si>
-    <t>Punção terapêutica</t>
-  </si>
-  <si>
-    <t>- Indicação: [e.g., "Paracentese para alívio sintomático"].
-- Explicado o procedimento, riscos e benefícios para o paciente.
-- Posicionado paciente em decúbito [dorsal ou lateral] com a cabeceira elevada entre 45 e 90 graus.
-- Marcado ponto anatômico na junção do terço lateral com os dois terços mediais de uma linha imaginária traçada entre a espinha ilíaca anterossuperior esquerda e a cicatriz umbilical.
-- Realizada a antissepsia com clorexidina alcóolica no local da punção e colocado campos estéreis.
-- Infiltrado anestésico local com lidocaína à 2% com uma agulha fina
-- Inserido cateter 14G lentamente até o retorno de líquido ascítico com aspecto [e.g., amarela-citrino, límpido]. 
-- Avançado cateter plástico sobre a agulha. Retirado a agulha
-- Conectado cateter a um equipo. Saída do líquido de forma gravitacional e coletado em saco coletor
-- Retirado: [e.g. 2] L de líquido ascítico
-- Reposto albumina na dose de: [e.g. 40] g
-- Retirado o cateter. Aplicado curativo compressivo e oclusivo no local da punção
-- Procedimento sem intercorrências imediatas
-Obs.: Não dispomos de recipiente coletor à vácuo. Não dispomos de laboratório para análise laboratoriais</t>
-  </si>
-  <si>
-    <t>Drenagem torácica</t>
-  </si>
-  <si>
-    <t>Toracocentese</t>
-  </si>
-  <si>
-    <t>- Indicação: [e.g., "Para alívio"]
-- Explicado procedimento para o paciente quanto ao riscos e benefícios
-- Posiciono paciente para que fique sentando e inclinado para frente
-- Determino local da punção pelo método da percussão, da ausculta e do nível intercostal. Utilizo a linha escapular média. Utilizo também a borda superior da costela inferior ao espaço intercostal escolhido
-- Realizo antissepsia com clorexidina com tensoativo e clorexidina alcóolica. Coloco campos cirúrgicos
-- Realizo anestesia no local da punção com lidocaína à 2%
-- Realizo a punção com cateter [e.g., 18] G sobre agulha acoplada a seringa. Ao perder a resistência e aspirar o líquido pleural avanço o cateter, e depois retiro a agulha.
-- Conecto o sistema de drenagem à extremidade do cateter. Sendo coberto a abertura do cateter com o dedo durante a inserção ou troca de equipamento no cateter para evitar pneumotórax. 
-- Retiro: [e.g., 700] ml de líquido pleural
-- Sem intercorrência durante o procedimento. Paciente tolerou bem
-- Realizado curativo oclusivo no local da punção</t>
-  </si>
-  <si>
-    <t>- Indicação: [e.g., pneumotórax, hemotórax etc.]
-- Explico procedimento para o paciente quanto ao riscos e benefícios
-- Determino local anatômico formado pelo "triângulo de segurança". Limites: linha axilar anterior, borda anterior do músculo grande dorsal e ao nível do [e.g., 4° ou 5°] espaço intercostal
-- Posiciono o paciente em decúbito dorsal. Braço ipsilateral da punção abduzido e posicionado com a mão na região da cabeça.
-- Realizo a paramentação
-- Realizo antissepsia com clorexidina com tensoativos e com clorexidina alcóolica e coloco os campos estéreis
-- Anestesia local: infiltração anestésica generosa com lidocaína à 2%
-- Incisão: feito incisão na pele de aproximadamente 2 a 3 cm sobre o espaço intercostal escolhido [e.g., 5° EIC]
-- Dissecção romba: com uma pinça hemostática, disseca-se os tecidos subcutâneos e muscular. Sempre direcionado para borda superior da costela inferior
-- Perfuração da pleura e exploração digital: avançado com a pinça. Perfurado a pleura. Aberto a pinça para alargar o orifício da pleura. Explorado cavidade e orifício com o dedo enluvado
-- Inserção do dreno: pinçado o dreno tamanho [e.g., 28] Fr com a pinça hemostática e, usando o dedo como guia, introduzido o dreno na cavidade pleural. Direcionado o dreno póstero-superiormente. E introduzido 2 a 3 cm para além do último orifício do dreno
-- Conexão ao sistema sela d'água: conectado a extremidade externa ao sistema de drenagem com selo d'água. Colocado [e.g., 500] ml de selo d'água. 
-- Sutura e fixação: realizado ponto em "U" com fio não absorvível. Após isso, realizo o nó de "bailarina"
-- Confirmação: [Drenagem de: ] [Oscilação da coluna líquida] [Borbulhamento do selo d'agua] [Embaçamento por ar do tubo]
-- Procedimento realizado sem intercorrências</t>
-  </si>
-  <si>
-    <t>Drenagem terapêutica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Circunstâncias do Evento:
-- Hora do início da parada cardíaca.
-- Condição do paciente no momento da parada (ex.: apneia, ausência de pulso, inconsciência).
-Intervenções Realizadas:
-- Compressões Torácicas: Frequência, profundidade e qualidade das compressões (ex.: "compressões realizadas a uma frequência de 100-120/min e profundidade de 5-6 cm").
-- Ventilação: Método utilizado (ex.: ventilação boca-a-máscara, bolsa-válvula-máscara, intubação endotraqueal) e frequência das ventilações.
-- Desfibrilação: Número de choques administrados, energia utilizada (ex.: "choque de 200J administrado") e resposta do paciente.
-- Medicações: Tipo, dose e via de administração de medicamentos (ex.: "1 mg de epinefrina IV a cada 3-5 minutos").
-Resultados da RCP:
-- Retorno da Circulação Espontânea (RCE): Hora do RCE e condição do paciente após o RCE (ex.: "RCE obtido às 14:35, paciente com pulso palpável e pressão arterial de 90/60 mmHg").
-- Interrupção da RCP: Hora e motivo da interrupção (ex.: "RCP interrompida às 14:50 devido a ordem de não ressuscitar").
-Cuidados Pós-Parada:
-- Medidas de suporte hemodinâmico e ventilatório.
-- Gerenciamento da temperatura alvo e outras intervenções crítica </t>
+    <t xml:space="preserve">Acompanhante em questão esteve como acompanhante durante internação de (nome do paciente internado), (grau de parentesco) no (Estabelecimento de Saúde), (Cidade e estado), nos períodos: de __ até __.
+CID:
+Data: </t>
+  </si>
+  <si>
+    <t>isCalculable</t>
+  </si>
+  <si>
+    <t>calcPlaceholder</t>
+  </si>
+  <si>
+    <t>calcInfo</t>
+  </si>
+  <si>
+    <t>calcDoseMinMgKg</t>
+  </si>
+  <si>
+    <t>calcDoseMaxMgKg</t>
+  </si>
+  <si>
+    <t>calcConcentrationMgMl</t>
+  </si>
+  <si>
+    <t>calcDropsPerMl</t>
+  </si>
+  <si>
+    <t>calcMaxDoseMgKgDay</t>
+  </si>
+  <si>
+    <t>calcMaxDoseMgDay</t>
+  </si>
+  <si>
+    <t>calcRoundingMax</t>
+  </si>
+  <si>
+    <t>1 – Paracetamol 200 mg/ml solução _____ 1 frasco
+Dar [...] gotas de 6 em 6 horas se dor ou febre</t>
+  </si>
+  <si>
+    <t>dor, febre</t>
+  </si>
+  <si>
+    <t>[...]</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>Dose: 10-15 mg/kg/dose.
+Dose máxima: 75 mg/kg/dia ou 4000 mg/dia</t>
+  </si>
+  <si>
+    <t>FLOOR</t>
+  </si>
+  <si>
+    <t>1 – Ibuprofeno 100mg/ml solução _____ 1 frasco
+Dar [...] gotas de 8 em 8 horas se dor ou febre</t>
+  </si>
+  <si>
+    <t>Dose: 5-10 mg/kg/dose.
+Dose máxima: 40 mg/kg/dia ou 2400 mg/dia</t>
+  </si>
+  <si>
+    <t>calcFrequencyHours</t>
+  </si>
+  <si>
+    <t>calcUnit</t>
+  </si>
+  <si>
+    <t>1 – Dipirona sódica 50 mg/ml solução _____ 1 frasco
+Dar [...] mls de 6 em 6 horas se dor ou febre</t>
+  </si>
+  <si>
+    <t>Dose: 10-12 mg/kg/dose. 
+Dose máxima: 20 ml/dose ou 4000 mg/dia</t>
+  </si>
+  <si>
+    <t>ml</t>
+  </si>
+  <si>
+    <t>calcMaxMgPerDose</t>
+  </si>
+  <si>
+    <t>1 - Amoxicilina + clavulanato pó p/ susp  50/12,5 mg/ml _____ ___ 1 frasco
+Tomar [...] ml(s) de 8 em 8 horas por ___ dias</t>
+  </si>
+  <si>
+    <t>Dose: 25-45 mg/kg/dia de amoxicilina (ou 3,125-5,625 mg/kg/dose de amoxicilina). 
+Dose máxima: 20 ml/dose</t>
+  </si>
+  <si>
+    <t>1 - Amoxicilina pó para suspensão 250 mg/5 ml _____ 1 frasco
+Tomar [...] ml(s) de 8 em 8 horas por ___ dias</t>
+  </si>
+  <si>
+    <t>Dose: 25-50 mg/kg/dia (ou 8,3-16,7 mg/kg/dose). 
+Dose máxima: 10 ml/dose</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1919,24 +2010,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFD8DEE9"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFD0D0D0"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <b/>
@@ -1973,7 +2052,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2005,11 +2084,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2019,8 +2096,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2031,25 +2108,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="44">
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2091,6 +2149,25 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2339,12 +2416,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D533F96B-3659-4560-ACD7-02DCC551E6A1}" name="Tabela1" displayName="Tabela1" ref="A1:G138" totalsRowShown="0">
-  <autoFilter ref="A1:G138" xr:uid="{D533F96B-3659-4560-ACD7-02DCC551E6A1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D533F96B-3659-4560-ACD7-02DCC551E6A1}" name="Tabela1" displayName="Tabela1" ref="A1:T143" totalsRowShown="0">
+  <autoFilter ref="A1:T143" xr:uid="{D533F96B-3659-4560-ACD7-02DCC551E6A1}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F138">
     <sortCondition ref="B1:B138"/>
   </sortState>
-  <tableColumns count="7">
+  <tableColumns count="20">
     <tableColumn id="7" xr3:uid="{EEA224EE-B017-42F5-A417-487E2B86AD5D}" name="ID_Item">
       <calculatedColumnFormula>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
@@ -2354,6 +2431,19 @@
     <tableColumn id="4" xr3:uid="{E1DAEFD1-96A5-4769-95CA-789E157CF235}" name="Doenca" dataDxfId="40"/>
     <tableColumn id="5" xr3:uid="{00D107C9-5770-4523-8A77-BC2E8CCDFA3F}" name="OrdemPrioridade"/>
     <tableColumn id="6" xr3:uid="{A2A03C33-701E-4A02-84BD-0D3C40E0270C}" name="FormaFarmaceutica"/>
+    <tableColumn id="8" xr3:uid="{037F36DC-527F-4AE8-A6F4-3169AA433215}" name="isCalculable"/>
+    <tableColumn id="9" xr3:uid="{32DA01BC-4663-439B-A298-3E78ACF358AE}" name="calcPlaceholder"/>
+    <tableColumn id="10" xr3:uid="{95F2DF79-DD95-4B94-B995-8E05DA7BFE48}" name="calcInfo"/>
+    <tableColumn id="11" xr3:uid="{A3368C98-3C79-462A-B0B0-AA267EE3465E}" name="calcDoseMinMgKg"/>
+    <tableColumn id="12" xr3:uid="{DAC9C71A-BFEC-453E-8480-3C08E68D7BDA}" name="calcDoseMaxMgKg"/>
+    <tableColumn id="13" xr3:uid="{68609BF3-F4C0-4314-95B0-50B775A3E422}" name="calcConcentrationMgMl"/>
+    <tableColumn id="19" xr3:uid="{2B4D8352-799E-4A66-9421-E3E5E36E0F59}" name="calcUnit"/>
+    <tableColumn id="14" xr3:uid="{5AE89D45-E4F3-4795-886A-863A50BB9D34}" name="calcDropsPerMl"/>
+    <tableColumn id="18" xr3:uid="{2D8C2EEF-BA51-4779-A925-1A6A6988810F}" name="calcFrequencyHours"/>
+    <tableColumn id="20" xr3:uid="{98B59933-7704-4CEB-9C11-D291545F8380}" name="calcMaxMgPerDose"/>
+    <tableColumn id="15" xr3:uid="{ADD029AD-4302-4DFB-A730-84FEBE8F1506}" name="calcMaxDoseMgKgDay"/>
+    <tableColumn id="16" xr3:uid="{F50782CB-2422-484A-AEE5-602A7DE0A58A}" name="calcMaxDoseMgDay"/>
+    <tableColumn id="17" xr3:uid="{080F5EE5-E42D-4421-BF68-04806C3A7C35}" name="calcRoundingMax"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2411,49 +2501,49 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B195B058-C443-4C22-BFDA-1A6D6B3BD53F}" name="Tabela3" displayName="Tabela3" ref="A1:D7" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B195B058-C443-4C22-BFDA-1A6D6B3BD53F}" name="Tabela3" displayName="Tabela3" ref="A1:D7" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:D7" xr:uid="{B195B058-C443-4C22-BFDA-1A6D6B3BD53F}"/>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{30594E46-81AD-44D9-A464-0DDB2405FA5F}" name="ID_Item" dataDxfId="3">
+    <tableColumn id="4" xr3:uid="{30594E46-81AD-44D9-A464-0DDB2405FA5F}" name="ID_Item" dataDxfId="16">
       <calculatedColumnFormula>ROW() - ROW(Tabela3[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{CC635276-E45D-489A-B013-B9CB28D05F73}" name="NomeBusca" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{C4152665-161D-4E06-A92A-C044706FA22B}" name="ConteudoTexto" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{D73DEA13-D731-4A85-9704-AF815ADF8ECA}" name="Categoria" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{CC635276-E45D-489A-B013-B9CB28D05F73}" name="NomeBusca" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{C4152665-161D-4E06-A92A-C044706FA22B}" name="ConteudoTexto" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{D73DEA13-D731-4A85-9704-AF815ADF8ECA}" name="Categoria" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BF31387E-C94D-4214-90A7-3EA03A21E459}" name="Tabela4" displayName="Tabela4" ref="A1:D8" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BF31387E-C94D-4214-90A7-3EA03A21E459}" name="Tabela4" displayName="Tabela4" ref="A1:D8" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:D8" xr:uid="{BF31387E-C94D-4214-90A7-3EA03A21E459}"/>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{B03251EF-71D3-4778-9397-49B077E4BE95}" name="ID_Item" dataDxfId="16">
+    <tableColumn id="4" xr3:uid="{B03251EF-71D3-4778-9397-49B077E4BE95}" name="ID_Item" dataDxfId="10">
       <calculatedColumnFormula>ROW() - ROW(Tabela4[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{4E29BBAD-C1D6-4B95-B61D-6D2ACC75817D}" name="NomeBusca" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{E987E83A-5D1B-4FBA-B949-173B3B767BC5}" name="ConteudoTexto" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{5CEF5F95-0ACE-4A9D-B37D-26E33FA9BC59}" name="Categoria" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{4E29BBAD-C1D6-4B95-B61D-6D2ACC75817D}" name="NomeBusca" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{E987E83A-5D1B-4FBA-B949-173B3B767BC5}" name="ConteudoTexto" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{5CEF5F95-0ACE-4A9D-B37D-26E33FA9BC59}" name="Categoria" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{913B8A45-8E4C-40E3-89AF-FB1299E38DDE}" name="Tabela5" displayName="Tabela5" ref="A1:E8" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{913B8A45-8E4C-40E3-89AF-FB1299E38DDE}" name="Tabela5" displayName="Tabela5" ref="A1:E8" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E8" xr:uid="{913B8A45-8E4C-40E3-89AF-FB1299E38DDE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
     <sortCondition ref="E1:E8"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{FE4827F2-FADA-4522-96C6-C15115BA8429}" name="ID_Item" dataDxfId="10">
+    <tableColumn id="5" xr3:uid="{FE4827F2-FADA-4522-96C6-C15115BA8429}" name="ID_Item" dataDxfId="4">
       <calculatedColumnFormula>ROW() - ROW(Tabela5[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{2E3E19EF-E8C4-4174-A6DD-FE62A883B65B}" name="NomeBusca" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{A403427C-6D7B-4CAC-8A29-52B0496C1B55}" name="ConteudoTexto" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{495ABE71-9083-4D12-B7AF-769A1DE8A329}" name="Categoria" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{B52F07B3-9EB3-4432-9961-0DC5F0D7CABC}" name="OrdemPrioridade" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{2E3E19EF-E8C4-4174-A6DD-FE62A883B65B}" name="NomeBusca" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{A403427C-6D7B-4CAC-8A29-52B0496C1B55}" name="ConteudoTexto" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{495ABE71-9083-4D12-B7AF-769A1DE8A329}" name="Categoria" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{B52F07B3-9EB3-4432-9961-0DC5F0D7CABC}" name="OrdemPrioridade" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2777,10 +2867,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE9DEBA-C453-4102-816C-FDB2AD0D57A3}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:G138"/>
+  <dimension ref="A1:T143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2791,11 +2881,24 @@
     <col min="5" max="5" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.42578125" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22" customWidth="1"/>
+    <col min="18" max="18" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -2809,143 +2912,182 @@
       <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>7</v>
@@ -2954,91 +3096,91 @@
         <v>54</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>340</v>
+        <v>450</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>29</v>
@@ -3050,19 +3192,19 @@
         <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>29</v>
@@ -3074,19 +3216,19 @@
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>29</v>
@@ -3098,40 +3240,40 @@
         <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G15" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>47</v>
@@ -3140,7 +3282,7 @@
         <v>48</v>
       </c>
       <c r="G16" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3152,7 +3294,7 @@
         <v>24</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>29</v>
@@ -3164,7 +3306,7 @@
         <v>3</v>
       </c>
       <c r="G17" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3176,7 +3318,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>29</v>
@@ -3188,7 +3330,7 @@
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3200,7 +3342,7 @@
         <v>24</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>29</v>
@@ -3209,7 +3351,7 @@
         <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3221,7 +3363,7 @@
         <v>24</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>29</v>
@@ -3230,7 +3372,7 @@
         <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3239,19 +3381,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="G21" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3260,19 +3402,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G22" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3281,19 +3423,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3302,19 +3444,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G24" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3326,16 +3468,16 @@
         <v>55</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G25" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3347,16 +3489,16 @@
         <v>58</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -3365,19 +3507,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G27" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3389,7 +3531,7 @@
         <v>42</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>43</v>
@@ -3398,7 +3540,7 @@
         <v>44</v>
       </c>
       <c r="G28" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3407,19 +3549,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G29" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3431,16 +3573,16 @@
         <v>57</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3452,16 +3594,16 @@
         <v>57</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G31" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3473,7 +3615,7 @@
         <v>37</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>34</v>
@@ -3482,7 +3624,7 @@
         <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3491,19 +3633,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G33" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3512,19 +3654,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G34" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3533,19 +3675,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G35" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3557,7 +3699,7 @@
         <v>12</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>13</v>
@@ -3569,7 +3711,7 @@
         <v>4</v>
       </c>
       <c r="G36" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3581,7 +3723,7 @@
         <v>12</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>13</v>
@@ -3593,7 +3735,7 @@
         <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3602,22 +3744,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3626,19 +3768,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G39" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3647,19 +3789,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>170</v>
+        <v>330</v>
       </c>
       <c r="G40" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3668,22 +3810,22 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F41">
         <v>2</v>
       </c>
       <c r="G41" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3695,7 +3837,7 @@
         <v>8</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>10</v>
@@ -3707,7 +3849,7 @@
         <v>3</v>
       </c>
       <c r="G42" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3719,7 +3861,7 @@
         <v>49</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>47</v>
@@ -3728,7 +3870,7 @@
         <v>48</v>
       </c>
       <c r="G43" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3740,7 +3882,7 @@
         <v>50</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>47</v>
@@ -3749,7 +3891,7 @@
         <v>48</v>
       </c>
       <c r="G44" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3758,19 +3900,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="G45" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3782,7 +3924,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>9</v>
@@ -3794,7 +3936,7 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -3806,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>9</v>
@@ -3818,7 +3960,7 @@
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -3830,7 +3972,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>9</v>
@@ -3842,7 +3984,7 @@
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -3851,10 +3993,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>9</v>
@@ -3866,7 +4008,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -3875,10 +4017,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>9</v>
@@ -3890,7 +4032,7 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3902,7 +4044,7 @@
         <v>17</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>16</v>
@@ -3911,7 +4053,7 @@
         <v>21</v>
       </c>
       <c r="G51" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3920,19 +4062,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G52" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3941,19 +4083,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G53" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3965,7 +4107,7 @@
         <v>14</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>15</v>
@@ -3974,7 +4116,7 @@
         <v>20</v>
       </c>
       <c r="G54" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3983,19 +4125,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G55" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4004,19 +4146,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G56" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4025,19 +4167,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G57" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4046,10 +4188,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>27</v>
@@ -4061,7 +4203,7 @@
         <v>3</v>
       </c>
       <c r="G58" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4070,10 +4212,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>27</v>
@@ -4085,7 +4227,7 @@
         <v>3</v>
       </c>
       <c r="G59" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4094,13 +4236,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>156</v>
+        <v>327</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>154</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>30</v>
@@ -4109,7 +4251,7 @@
         <v>2</v>
       </c>
       <c r="G60" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4118,13 +4260,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>30</v>
@@ -4133,7 +4275,7 @@
         <v>2</v>
       </c>
       <c r="G61" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4142,13 +4284,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>30</v>
@@ -4157,7 +4299,7 @@
         <v>2</v>
       </c>
       <c r="G62" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4169,7 +4311,7 @@
         <v>59</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>5</v>
@@ -4178,7 +4320,7 @@
         <v>60</v>
       </c>
       <c r="G63" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4187,22 +4329,22 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F64">
         <v>2</v>
       </c>
       <c r="G64" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4211,22 +4353,22 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F65">
         <v>2</v>
       </c>
       <c r="G65" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4238,16 +4380,16 @@
         <v>32</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G66" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4259,16 +4401,16 @@
         <v>32</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G67" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4280,10 +4422,10 @@
         <v>32</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>33</v>
@@ -4292,7 +4434,7 @@
         <v>1</v>
       </c>
       <c r="G68" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4301,19 +4443,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G69" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4322,19 +4464,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G70" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4343,19 +4485,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="G71" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4364,19 +4506,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G72" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4385,22 +4527,22 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F73">
         <v>2</v>
       </c>
       <c r="G73" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4412,7 +4554,7 @@
         <v>22</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>10</v>
@@ -4424,7 +4566,7 @@
         <v>2</v>
       </c>
       <c r="G74" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4433,19 +4575,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G75" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4454,19 +4596,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G76" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4475,22 +4617,22 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F77">
         <v>3</v>
       </c>
       <c r="G77" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4499,22 +4641,22 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F78">
         <v>3</v>
       </c>
       <c r="G78" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -4523,22 +4665,22 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F79">
         <v>3</v>
       </c>
       <c r="G79" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4547,22 +4689,22 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F80">
         <v>3</v>
       </c>
       <c r="G80" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4571,22 +4713,22 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F81">
         <v>3</v>
       </c>
       <c r="G81" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -4595,22 +4737,22 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F82">
         <v>3</v>
       </c>
       <c r="G82" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -4619,22 +4761,22 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F83">
         <v>3</v>
       </c>
       <c r="G83" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -4643,22 +4785,22 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F84">
         <v>3</v>
       </c>
       <c r="G84" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4670,7 +4812,7 @@
         <v>51</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>52</v>
@@ -4679,7 +4821,7 @@
         <v>53</v>
       </c>
       <c r="G85" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4688,22 +4830,22 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="F86">
         <v>2</v>
       </c>
       <c r="G86" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4712,19 +4854,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G87" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4736,19 +4878,19 @@
         <v>38</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F88">
         <v>1</v>
       </c>
       <c r="G88" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4757,19 +4899,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G89" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4778,19 +4920,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G90" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -4799,22 +4941,22 @@
         <v>90</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F91">
         <v>3</v>
       </c>
       <c r="G91" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -4823,22 +4965,22 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F92">
         <v>4</v>
       </c>
       <c r="G92" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4847,22 +4989,22 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F93">
         <v>1</v>
       </c>
       <c r="G93" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4871,22 +5013,22 @@
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F94">
         <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -4895,22 +5037,22 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F95">
         <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4919,10 +5061,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>47</v>
@@ -4931,7 +5073,7 @@
         <v>48</v>
       </c>
       <c r="G96" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4940,19 +5082,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G97" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4964,7 +5106,7 @@
         <v>56</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>52</v>
@@ -4973,7 +5115,7 @@
         <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4985,16 +5127,16 @@
         <v>56</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G99" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5003,19 +5145,19 @@
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="G100" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5024,19 +5166,19 @@
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G101" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5048,16 +5190,16 @@
         <v>25</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G102" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5069,7 +5211,7 @@
         <v>11</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>10</v>
@@ -5081,7 +5223,7 @@
         <v>3</v>
       </c>
       <c r="G103" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5093,7 +5235,7 @@
         <v>11</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>10</v>
@@ -5105,7 +5247,7 @@
         <v>3</v>
       </c>
       <c r="G104" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5117,7 +5259,7 @@
         <v>36</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>34</v>
@@ -5126,7 +5268,7 @@
         <v>35</v>
       </c>
       <c r="G105" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5135,10 +5277,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>10</v>
@@ -5150,7 +5292,7 @@
         <v>3</v>
       </c>
       <c r="G106" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5159,19 +5301,19 @@
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G107" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5183,7 +5325,7 @@
         <v>61</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>5</v>
@@ -5192,7 +5334,7 @@
         <v>60</v>
       </c>
       <c r="G108" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5201,22 +5343,22 @@
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F109">
         <v>1</v>
       </c>
       <c r="G109" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5228,16 +5370,16 @@
         <v>2</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G110" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5246,10 +5388,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>47</v>
@@ -5258,7 +5400,7 @@
         <v>48</v>
       </c>
       <c r="G111" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5270,7 +5412,7 @@
         <v>7</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>9</v>
@@ -5282,7 +5424,7 @@
         <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5294,7 +5436,7 @@
         <v>7</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>9</v>
@@ -5306,7 +5448,7 @@
         <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5315,10 +5457,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>9</v>
@@ -5330,7 +5472,7 @@
         <v>1</v>
       </c>
       <c r="G114" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5339,10 +5481,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>9</v>
@@ -5354,7 +5496,7 @@
         <v>1</v>
       </c>
       <c r="G115" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5363,19 +5505,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E116" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C116" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="G116" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5384,19 +5526,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G117" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -5405,19 +5547,19 @@
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G118" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5426,19 +5568,19 @@
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D119" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="E119" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D119" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="G119" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5447,19 +5589,19 @@
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G120" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5471,16 +5613,16 @@
         <v>28</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G121" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5492,16 +5634,16 @@
         <v>28</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G122" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5513,16 +5655,16 @@
         <v>28</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G123" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5531,22 +5673,22 @@
         <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F124">
         <v>2</v>
       </c>
       <c r="G124" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5555,25 +5697,25 @@
         <v>124</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F125">
         <v>5</v>
       </c>
       <c r="G125" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A126">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>125</v>
@@ -5582,7 +5724,7 @@
         <v>62</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>63</v>
@@ -5591,7 +5733,7 @@
         <v>64</v>
       </c>
       <c r="G126" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5600,19 +5742,19 @@
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>331</v>
+        <v>453</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G127" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5621,22 +5763,22 @@
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>332</v>
+        <v>454</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G128" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A129">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>128</v>
@@ -5645,7 +5787,7 @@
         <v>26</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>27</v>
@@ -5657,10 +5799,10 @@
         <v>1</v>
       </c>
       <c r="G129" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A130">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>129</v>
@@ -5669,43 +5811,43 @@
         <v>26</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F130">
         <v>1</v>
       </c>
       <c r="G130" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A131">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G131" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A132">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>131</v>
@@ -5714,7 +5856,7 @@
         <v>23</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>23</v>
@@ -5723,52 +5865,52 @@
         <v>31</v>
       </c>
       <c r="G132" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A133">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>321</v>
+        <v>455</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G133" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A134">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G134" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A135">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>134</v>
@@ -5777,7 +5919,7 @@
         <v>41</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>10</v>
@@ -5789,10 +5931,10 @@
         <v>3</v>
       </c>
       <c r="G135" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A136">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>135</v>
@@ -5801,7 +5943,7 @@
         <v>46</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>13</v>
@@ -5813,10 +5955,10 @@
         <v>4</v>
       </c>
       <c r="G136" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A137">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>136</v>
@@ -5825,7 +5967,7 @@
         <v>46</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>13</v>
@@ -5837,28 +5979,291 @@
         <v>4</v>
       </c>
       <c r="G137" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A138">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G138" t="s">
-        <v>309</v>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>138</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G139" t="s">
+        <v>259</v>
+      </c>
+      <c r="H139" t="s">
+        <v>472</v>
+      </c>
+      <c r="I139" t="s">
+        <v>471</v>
+      </c>
+      <c r="J139" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="K139">
+        <v>10</v>
+      </c>
+      <c r="L139">
+        <v>15</v>
+      </c>
+      <c r="M139">
+        <v>200</v>
+      </c>
+      <c r="O139">
+        <v>20</v>
+      </c>
+      <c r="P139">
+        <v>6</v>
+      </c>
+      <c r="R139">
+        <v>75</v>
+      </c>
+      <c r="S139">
+        <v>4000</v>
+      </c>
+      <c r="T139" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>139</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G140" t="s">
+        <v>259</v>
+      </c>
+      <c r="H140" t="s">
+        <v>472</v>
+      </c>
+      <c r="I140" t="s">
+        <v>471</v>
+      </c>
+      <c r="J140" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="K140">
+        <v>5</v>
+      </c>
+      <c r="L140">
+        <v>10</v>
+      </c>
+      <c r="M140">
+        <v>100</v>
+      </c>
+      <c r="O140">
+        <v>20</v>
+      </c>
+      <c r="P140">
+        <v>8</v>
+      </c>
+      <c r="R140">
+        <v>40</v>
+      </c>
+      <c r="S140">
+        <v>2400</v>
+      </c>
+      <c r="T140" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>140</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G141" t="s">
+        <v>259</v>
+      </c>
+      <c r="H141" t="s">
+        <v>472</v>
+      </c>
+      <c r="I141" t="s">
+        <v>471</v>
+      </c>
+      <c r="J141" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="K141">
+        <v>10</v>
+      </c>
+      <c r="L141">
+        <v>12</v>
+      </c>
+      <c r="M141">
+        <v>50</v>
+      </c>
+      <c r="N141" t="s">
+        <v>481</v>
+      </c>
+      <c r="P141">
+        <v>6</v>
+      </c>
+      <c r="Q141">
+        <v>1000</v>
+      </c>
+      <c r="S141">
+        <v>4000</v>
+      </c>
+      <c r="T141" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>141</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G142" t="s">
+        <v>305</v>
+      </c>
+      <c r="H142" t="s">
+        <v>472</v>
+      </c>
+      <c r="I142" t="s">
+        <v>471</v>
+      </c>
+      <c r="J142" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="K142">
+        <v>3.125</v>
+      </c>
+      <c r="L142">
+        <v>5.625</v>
+      </c>
+      <c r="M142">
+        <v>50</v>
+      </c>
+      <c r="N142" t="s">
+        <v>481</v>
+      </c>
+      <c r="P142">
+        <v>8</v>
+      </c>
+      <c r="Q142">
+        <v>500</v>
+      </c>
+      <c r="T142" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>142</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G143" t="s">
+        <v>305</v>
+      </c>
+      <c r="H143" t="s">
+        <v>472</v>
+      </c>
+      <c r="I143" t="s">
+        <v>471</v>
+      </c>
+      <c r="J143" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="K143">
+        <f>25/3</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="L143">
+        <f>50/3</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="M143">
+        <v>50</v>
+      </c>
+      <c r="P143">
+        <v>8</v>
+      </c>
+      <c r="Q143">
+        <v>500</v>
+      </c>
+      <c r="T143" t="s">
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -5887,7 +6292,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -5899,7 +6304,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -5980,13 +6385,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="E6" s="5">
         <v>5</v>
@@ -6013,13 +6418,13 @@
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -6031,7 +6436,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
@@ -6040,13 +6445,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
@@ -6058,13 +6463,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E3" s="5">
         <v>2</v>
@@ -6076,13 +6481,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E4" s="5">
         <v>3</v>
@@ -6094,13 +6499,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E5" s="5">
         <v>4</v>
@@ -6112,13 +6517,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>286</v>
+        <v>282</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>283</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E6" s="5">
         <v>5</v>
@@ -6130,13 +6535,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E7" s="5">
         <v>6</v>
@@ -6148,13 +6553,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>288</v>
+        <v>266</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>285</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E8" s="5">
         <v>7</v>
@@ -6166,13 +6571,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>270</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>273</v>
       </c>
       <c r="E9" s="5">
         <v>8</v>
@@ -6190,8 +6595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1623D2DD-2AAF-46F4-A228-AB579D2CF3FD}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6204,104 +6609,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="390" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+      <c r="E1" s="16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>446</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="B2" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="E2" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E3" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="E2" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="300" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
-        <v>2</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>447</v>
-      </c>
-      <c r="D3" s="15" t="s">
+      <c r="E4" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="E5" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="E3" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="315" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
-        <v>3</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>448</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="E4" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
-        <v>4</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="E5" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
-        <v>5</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>450</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="E6" s="15">
+      <c r="E6" s="13">
         <v>5</v>
       </c>
     </row>
@@ -6320,8 +6725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63061C67-B363-452A-A39F-8FB51F9B9B82}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6333,7 +6738,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -6372,7 +6777,7 @@
         <v>80</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>81</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -6381,13 +6786,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>459</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="360" x14ac:dyDescent="0.25">
@@ -6396,13 +6801,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>453</v>
+        <v>440</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>442</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="345" x14ac:dyDescent="0.25">
@@ -6411,13 +6816,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>456</v>
+        <v>444</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>445</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -6426,13 +6831,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>457</v>
+        <v>443</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>446</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -6460,7 +6865,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -6478,13 +6883,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -6493,13 +6898,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="165" x14ac:dyDescent="0.25">
@@ -6508,13 +6913,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="135" x14ac:dyDescent="0.25">
@@ -6523,13 +6928,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="180" x14ac:dyDescent="0.25">
@@ -6538,13 +6943,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="405" x14ac:dyDescent="0.25">
@@ -6553,13 +6958,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -6568,13 +6973,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -6589,8 +6994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39D3372-8E60-46D2-8A5A-AF4F9411474D}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6604,7 +7009,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -6616,7 +7021,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="150" x14ac:dyDescent="0.25">
@@ -6625,13 +7030,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
@@ -6643,31 +7048,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E3" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f>ROW() - ROW(Tabela5[[#Headers],[ID_Item]])</f>
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>114</v>
+        <v>458</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E4" s="5"/>
     </row>
@@ -6677,13 +7082,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -6693,13 +7098,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>112</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -6709,13 +7114,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>102</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -6725,13 +7130,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>107</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E8" s="5"/>
     </row>

--- a/script-excel-para-json/input/prescricoes.xlsx
+++ b/script-excel-para-json/input/prescricoes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1AC289667D0E8CCD/Documentos/Saúde/Prescrições/Prescrição_python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1431" documentId="13_ncr:1_{243FE48A-7C6A-41E4-8FFF-32D7F4E6C3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B22C18C1-9D30-4C8A-AB7D-EB1AA16B544D}"/>
+  <xr:revisionPtr revIDLastSave="1694" documentId="13_ncr:1_{243FE48A-7C6A-41E4-8FFF-32D7F4E6C3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAF53786-BDAD-400B-94FA-1D8AC13C8C64}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{4C639DE4-733A-4E7F-8720-AC3921A2C161}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{4C639DE4-733A-4E7F-8720-AC3921A2C161}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicamentos" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="536">
   <si>
     <t>NomeBusca</t>
   </si>
@@ -943,12 +943,6 @@
   </si>
   <si>
     <t>OrdemPrioridade</t>
-  </si>
-  <si>
-    <t>crise asma</t>
-  </si>
-  <si>
-    <t>crise asma, bronquite</t>
   </si>
   <si>
     <t>FormaFarmaceutica</t>
@@ -1169,10 +1163,6 @@
 Tomar 5 ml de 8 em 8 horas</t>
   </si>
   <si>
-    <t>1. Amoxicilina+clavulanato 500/125 mg _____ ___ comprimidos
-Tomar 1 comprimido de 8 em 8 horas por ___ dias</t>
-  </si>
-  <si>
     <t>1 - Betametasona 0,1mg/ml _____ 1 frasco
 Tomar 10 ml de 8 em 8 horas por 4 dias</t>
   </si>
@@ -1919,17 +1909,10 @@
     <t>calcRoundingMax</t>
   </si>
   <si>
-    <t>1 – Paracetamol 200 mg/ml solução _____ 1 frasco
-Dar [...] gotas de 6 em 6 horas se dor ou febre</t>
-  </si>
-  <si>
     <t>dor, febre</t>
   </si>
   <si>
     <t>[...]</t>
-  </si>
-  <si>
-    <t>TRUE</t>
   </si>
   <si>
     <t>Dose: 10-15 mg/kg/dose.
@@ -1939,10 +1922,6 @@
     <t>FLOOR</t>
   </si>
   <si>
-    <t>1 – Ibuprofeno 100mg/ml solução _____ 1 frasco
-Dar [...] gotas de 8 em 8 horas se dor ou febre</t>
-  </si>
-  <si>
     <t>Dose: 5-10 mg/kg/dose.
 Dose máxima: 40 mg/kg/dia ou 2400 mg/dia</t>
   </si>
@@ -1953,34 +1932,229 @@
     <t>calcUnit</t>
   </si>
   <si>
-    <t>1 – Dipirona sódica 50 mg/ml solução _____ 1 frasco
+    <t>ml</t>
+  </si>
+  <si>
+    <t>calcMaxMgPerDose</t>
+  </si>
+  <si>
+    <t>calcType</t>
+  </si>
+  <si>
+    <t>calcAgeRanges</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>[{"minMonths":6,"maxMonths":11,"dose":"2 mL (1 mg)"},{"minMonths":12,"maxMonths":71,"dose":"2,5 mL (1,25 mg)"},{"minMonths":72,"maxMonths":143,"dose":"5 mL (2,5 mg)"},{"minMonths":144,"dose":"10 mL (5 mg)"}]</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>1 - Ondansetrona 8 mg _____ 20 cp
+Tomar 1 comprimido de 8 em 8 horas se náuseas ou vômitos</t>
+  </si>
+  <si>
+    <t>alergia, asma</t>
+  </si>
+  <si>
+    <t>Dose: 1-2 mg/kg/dia. Dose máxima: 60 mg/dia</t>
+  </si>
+  <si>
+    <t>1 - Amoxicilina pó para suspensão 250 mg/5 ml _____ 1 frasco
+Dar [...] ml(s) de 8 em 8 horas por ___ dias</t>
+  </si>
+  <si>
+    <t>ageWeightHybrid</t>
+  </si>
+  <si>
+    <t>cólica, dor abdominal</t>
+  </si>
+  <si>
+    <t>&lt; 3 meses de idade: 3 gotas/kg/dose (1,5 mg/kg/dose) VO de 8/8 horas;
+3-11 meses de idade: 1,4 gota/kg/dose (0,7 mg/kg/dose) VO de 8/8 horas ou 10 gotas (5 mg) VO de 8/8 horas;
+1-6 anos de idade: 0,6-1 gota/kg/dose (0,3-0,5 mg/kg/dose) VO de 8/8 horas ou 10-20 gotas (5-10 mg) VO de 8/8 horas;
+&gt; 6 anos de idade: 20-40 gotas (10-20 mg) VO de 3-5 vezes ao dia.</t>
+  </si>
+  <si>
+    <t>gotas</t>
+  </si>
+  <si>
+    <t>1 - Amoxicilina+clavulanato 500/125 mg _____ ___ comprimidos
+Tomar 1 comprimido de 8 em 8 horas por ___ dias</t>
+  </si>
+  <si>
+    <t>1- Bromoprida 4 mg/ml _____ 1 frasco
+Dar [...] gotas de 8 em 8 horas se náuseas ou vômitos</t>
+  </si>
+  <si>
+    <t>1 - Desloratadina 0,5 mg/ml _____ 1 frasco
+Dar [...] ml(s) por dia</t>
+  </si>
+  <si>
+    <t>1 - Dipirona sódica 50 mg/ml solução _____ 1 frasco
 Dar [...] mls de 6 em 6 horas se dor ou febre</t>
   </si>
   <si>
-    <t>Dose: 10-12 mg/kg/dose. 
+    <t>1 - Escopolamina 10mg/ml gotas _____ 1 frasco
+Dar [...] gotas de 8 em 8 horas se dor</t>
+  </si>
+  <si>
+    <t>1 - Ibuprofeno 100mg/ml solução _____ 1 frasco
+Dar [...] gotas de 8 em 8 horas se dor ou febre</t>
+  </si>
+  <si>
+    <t>1 - Paracetamol 200 mg/ml solução _____ 1 frasco
+Dar [...] gotas de 6 em 6 horas se dor ou febre</t>
+  </si>
+  <si>
+    <t>1 - Prednisolona 5 mg/ml _____ 1 frasco
+Dar [...] ml(s) por dia até ___ dia(s)</t>
+  </si>
+  <si>
+    <t>Azitromicina</t>
+  </si>
+  <si>
+    <t>1 - Azitromicina 500 mg _____ 5 comprimidos
+Tomar 1 comprimido por dia por 5 dias</t>
+  </si>
+  <si>
+    <t>Antibiótico, macrolídeo</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>1 - Hidroxizina 2mg/ml _____ 1 frasco
+Dar [...] ml(s) de 8 em 8 horas</t>
+  </si>
+  <si>
+    <t>alergia, prurido</t>
+  </si>
+  <si>
+    <t>1 - Fexofenadina 6 mg/ml _____ 1 frasco
+Dar [...] de 12 em 12 horas</t>
+  </si>
+  <si>
+    <t>alergia, rinite</t>
+  </si>
+  <si>
+    <t>[{"minMonths":6,"maxMonths":23,"dose":"2,5 mL (15 mg)"},{"minMonths":24,"maxMonths":143,"dose":"5 mL (30 mg)"},{"minMonths":144,"dose":"10 mL (60 mg)"}]</t>
+  </si>
+  <si>
+    <t>Fexofenadina</t>
+  </si>
+  <si>
+    <t>Montelucaste</t>
+  </si>
+  <si>
+    <t>1 - Montelucaste 4 mg comprimido mastigável _____ 1 caixa
+Dar 1 comprimido por dia</t>
+  </si>
+  <si>
+    <t>Antagonista de receptores de leucotrienos</t>
+  </si>
+  <si>
+    <t>1 - Montelucaste 5 mg comprimido mastigável _____ 1 caixa
+Dar 1 comprimido por dia</t>
+  </si>
+  <si>
+    <t>1 - Montelucaste 10 mg comprimido _____ 1 caixa
+Tomar 1 comprimido por dia</t>
+  </si>
+  <si>
+    <t>asma, rinite, urticária</t>
+  </si>
+  <si>
+    <t>comprimido mastigável</t>
+  </si>
+  <si>
+    <t>1 - Montelucaste 4 mg sachê (grânulo) _____ 1 sachê
+Dar 1 sachê diluído por dia
+Obs.: Pode ser diluído em fórmula infantil, leite materno, ou misturado com uma colher de purê de maçã, cenoura, arroz ou sorvete.</t>
+  </si>
+  <si>
+    <t>1 - Amoxicilina + clavulanato pó p/ susp 50/12,5 mg/ml _____ 1 frasco
+Dar [...] ml(s) de 8 em 8 horas por ___ dias</t>
+  </si>
+  <si>
+    <t>Dose: 25-50 mg/kg/dia (ou 8,3-16,7 mg/kg/dose).
+Dose máxima: 10 ml/dose</t>
+  </si>
+  <si>
+    <t>Dose: 25-45 mg/kg/dia de amoxicilina (ou 3,125-5,625 mg/kg/dose de amoxicilina).
+Dose máxima: 20 ml/dose</t>
+  </si>
+  <si>
+    <t>Dose: 0,5-1 mg/kg/dia (ou 0,17-0,33 mg/kg/dose).
+Dose máxima: 58 gotas/dose (10 mg/dose)</t>
+  </si>
+  <si>
+    <t>6m a 1ano: 1 mg (2ml)/dia;
+1 anos a 5 anos: 1,25 mg (2,5ml)/dia;
+6 a 11 anos: 2,5 mg (5 ml) /dia;
+&gt; 12 anos: 5 mg (10 ml)/dia</t>
+  </si>
+  <si>
+    <t>Dose: 10-12 mg/kg/dose.
 Dose máxima: 20 ml/dose ou 4000 mg/dia</t>
   </si>
   <si>
-    <t>ml</t>
-  </si>
-  <si>
-    <t>calcMaxMgPerDose</t>
-  </si>
-  <si>
-    <t>1 - Amoxicilina + clavulanato pó p/ susp  50/12,5 mg/ml _____ ___ 1 frasco
-Tomar [...] ml(s) de 8 em 8 horas por ___ dias</t>
-  </si>
-  <si>
-    <t>Dose: 25-45 mg/kg/dia de amoxicilina (ou 3,125-5,625 mg/kg/dose de amoxicilina). 
-Dose máxima: 20 ml/dose</t>
-  </si>
-  <si>
-    <t>1 - Amoxicilina pó para suspensão 250 mg/5 ml _____ 1 frasco
-Tomar [...] ml(s) de 8 em 8 horas por ___ dias</t>
-  </si>
-  <si>
-    <t>Dose: 25-50 mg/kg/dia (ou 8,3-16,7 mg/kg/dose). 
-Dose máxima: 10 ml/dose</t>
+    <t>Dose: 0,7 mg/kg/dose.
+Dose máxima: 2 mg/kg/dia ou 100 mg/dia.</t>
+  </si>
+  <si>
+    <t>6m a &lt;2a: 2,5 mL/dose;
+2-11a: 5 mL/dose;
+≥12a: 10 mL/dose</t>
+  </si>
+  <si>
+    <t>[ { "minMonths": 0, "maxMonths": 2, "description": "&lt; 3 meses", "calcDoseMinMgKg": 1,5, "calcDoseMaxMgKg": 1,5, "calcFrequencyHours": 8, "calcUnit": "gotas" }, { "minMonths": 3, "maxMonths": 11, "description": "3-11 meses", "calcDoseMinMgKg": 0,7, "calcDoseMaxMgKg": 0,7, "calcFrequencyHours": 8, "calcUnit": "gotas", "alternativeDose": "ou 10" }, { "minMonths": 12, "maxMonths": 71, "description": "1-6 anos", "calcDoseMinMgKg": 0,3, "calcDoseMaxMgKg": 0,5, "calcFrequencyHours": 8, "calcUnit": "gotas", "alternativeDose": "ou 10-20" }, { "minMonths": 72, "description": "&gt; 6 anos", "dose": "20-40" }
+]</t>
+  </si>
+  <si>
+    <t>Pelargonium Sidoides, Kaloba</t>
+  </si>
+  <si>
+    <t>1 - Pelargonium Sidoides (Kaloba®) _____ 1 frasco
+Dar ___ gotas de 8 em 8 horas</t>
+  </si>
+  <si>
+    <t>Fitoterápico: Imunomodulador</t>
+  </si>
+  <si>
+    <t>amigdalite, bronquite, resfriado, rinofaringite, sinusite</t>
+  </si>
+  <si>
+    <t>Fluticasona</t>
+  </si>
+  <si>
+    <t>1 - Fluticasona suspensão spray 27,5 mcg/dose _____ 1 frasco
+Aplicar ___ jato(s) por dia em cada narina</t>
+  </si>
+  <si>
+    <t>suspensão spray</t>
+  </si>
+  <si>
+    <t>Ipratrópio</t>
+  </si>
+  <si>
+    <t>1 - Brometo de ipratrópio ____ 1 frasco
+Realizar nebulização com ___ gotas de 6 em 6 horas</t>
+  </si>
+  <si>
+    <t>Anticolinérgico</t>
+  </si>
+  <si>
+    <t>asma, bronquite</t>
+  </si>
+  <si>
+    <t>solução para nebulização</t>
   </si>
 </sst>
 </file>
@@ -2108,6 +2282,18 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="44">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2386,18 +2572,6 @@
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2416,19 +2590,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D533F96B-3659-4560-ACD7-02DCC551E6A1}" name="Tabela1" displayName="Tabela1" ref="A1:T143" totalsRowShown="0">
-  <autoFilter ref="A1:T143" xr:uid="{D533F96B-3659-4560-ACD7-02DCC551E6A1}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F138">
-    <sortCondition ref="B1:B138"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D533F96B-3659-4560-ACD7-02DCC551E6A1}" name="Tabela1" displayName="Tabela1" ref="A1:V158" totalsRowShown="0">
+  <autoFilter ref="A1:V158" xr:uid="{D533F96B-3659-4560-ACD7-02DCC551E6A1}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V158">
+    <sortCondition ref="B1:B158"/>
   </sortState>
-  <tableColumns count="20">
+  <tableColumns count="22">
     <tableColumn id="7" xr3:uid="{EEA224EE-B017-42F5-A417-487E2B86AD5D}" name="ID_Item">
       <calculatedColumnFormula>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{FF9AC4B3-0AB1-43C0-813C-9F0FBFCD27C3}" name="NomeBusca" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{A4280A1D-29DF-4DF8-BAEB-74D735392255}" name="PrescricaoCompleta" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{1C09888C-F0B3-445C-96A7-59EF6CBB8977}" name="Categoria" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{E1DAEFD1-96A5-4769-95CA-789E157CF235}" name="Doenca" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{FF9AC4B3-0AB1-43C0-813C-9F0FBFCD27C3}" name="NomeBusca" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{A4280A1D-29DF-4DF8-BAEB-74D735392255}" name="PrescricaoCompleta" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{1C09888C-F0B3-445C-96A7-59EF6CBB8977}" name="Categoria" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{E1DAEFD1-96A5-4769-95CA-789E157CF235}" name="Doenca" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{00D107C9-5770-4523-8A77-BC2E8CCDFA3F}" name="OrdemPrioridade"/>
     <tableColumn id="6" xr3:uid="{A2A03C33-701E-4A02-84BD-0D3C40E0270C}" name="FormaFarmaceutica"/>
     <tableColumn id="8" xr3:uid="{037F36DC-527F-4AE8-A6F4-3169AA433215}" name="isCalculable"/>
@@ -2444,106 +2618,108 @@
     <tableColumn id="15" xr3:uid="{ADD029AD-4302-4DFB-A730-84FEBE8F1506}" name="calcMaxDoseMgKgDay"/>
     <tableColumn id="16" xr3:uid="{F50782CB-2422-484A-AEE5-602A7DE0A58A}" name="calcMaxDoseMgDay"/>
     <tableColumn id="17" xr3:uid="{080F5EE5-E42D-4421-BF68-04806C3A7C35}" name="calcRoundingMax"/>
+    <tableColumn id="21" xr3:uid="{52059363-AB0C-41B1-8B12-D680D51CD342}" name="calcType"/>
+    <tableColumn id="22" xr3:uid="{348BFE6C-7C07-441D-84E5-0D88FF3D68F9}" name="calcAgeRanges"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7B1BCF4E-F9B8-4BCA-9A1B-734209B09515}" name="Tabela2" displayName="Tabela2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7B1BCF4E-F9B8-4BCA-9A1B-734209B09515}" name="Tabela2" displayName="Tabela2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
   <autoFilter ref="A1:E6" xr:uid="{7B1BCF4E-F9B8-4BCA-9A1B-734209B09515}"/>
   <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{3B85112C-C948-4532-A5A9-B2DC134B2714}" name="ID_Item" dataDxfId="37">
+    <tableColumn id="5" xr3:uid="{3B85112C-C948-4532-A5A9-B2DC134B2714}" name="ID_Item" dataDxfId="41">
       <calculatedColumnFormula>ROW() - ROW(Tabela2[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{294ACE13-D92E-4E83-AE9A-884FBB3BAD21}" name="NomeBusca" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{57C4FF43-CE4E-4A4E-A745-1D12588CAE36}" name="ConteudoTexto" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{1B0E7410-6713-475C-9274-E8D53C220050}" name="Categoria" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{E775B5FA-D905-41A5-AF49-15CA3264FA30}" name="OrdemPrioridade" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{294ACE13-D92E-4E83-AE9A-884FBB3BAD21}" name="NomeBusca" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{57C4FF43-CE4E-4A4E-A745-1D12588CAE36}" name="ConteudoTexto" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{1B0E7410-6713-475C-9274-E8D53C220050}" name="Categoria" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{E775B5FA-D905-41A5-AF49-15CA3264FA30}" name="OrdemPrioridade" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F1B6F081-4196-40D7-9E1B-E18AC00A544A}" name="Tabela57" displayName="Tabela57" ref="A1:E9" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F1B6F081-4196-40D7-9E1B-E18AC00A544A}" name="Tabela57" displayName="Tabela57" ref="A1:E9" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="A1:E9" xr:uid="{F1B6F081-4196-40D7-9E1B-E18AC00A544A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E9">
     <sortCondition ref="E1:E9"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{255D6023-30BF-414A-B3B5-09A8AED4AD40}" name="ID_Item" dataDxfId="30">
+    <tableColumn id="5" xr3:uid="{255D6023-30BF-414A-B3B5-09A8AED4AD40}" name="ID_Item" dataDxfId="34">
       <calculatedColumnFormula>ROW() - ROW(Tabela57[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{8C75D187-576A-41EF-9BC9-337001D161C6}" name="NomeBusca" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{7A836061-FA92-4D6E-A1CB-B0A3080FF4E2}" name="ConteudoTexto" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{9C7516CD-131C-4A90-BC19-727B1919928E}" name="Categoria" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{D9BE6F3B-192E-46DB-ADBD-41AC809A383A}" name="OrdemPrioridade" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{8C75D187-576A-41EF-9BC9-337001D161C6}" name="NomeBusca" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{7A836061-FA92-4D6E-A1CB-B0A3080FF4E2}" name="ConteudoTexto" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{9C7516CD-131C-4A90-BC19-727B1919928E}" name="Categoria" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{D9BE6F3B-192E-46DB-ADBD-41AC809A383A}" name="OrdemPrioridade" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4EB17778-C096-4FB9-8CEA-CBC90E8CC8E2}" name="Tabela8" displayName="Tabela8" ref="A1:E6" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4EB17778-C096-4FB9-8CEA-CBC90E8CC8E2}" name="Tabela8" displayName="Tabela8" ref="A1:E6" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A1:E6" xr:uid="{4EB17778-C096-4FB9-8CEA-CBC90E8CC8E2}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C07F2220-FEC5-4C0B-AB14-F80860FCB6A0}" name="ID_Item" dataDxfId="23">
+    <tableColumn id="1" xr3:uid="{C07F2220-FEC5-4C0B-AB14-F80860FCB6A0}" name="ID_Item" dataDxfId="27">
       <calculatedColumnFormula>ROW() - ROW(Tabela5[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F6AB2AED-7D50-4A14-A3D8-3D697CD7C3E6}" name="NomeBusca" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{24DCE466-5828-477A-94D8-8B94F125CA52}" name="ConteudoTexto" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{544BC52C-0699-476B-9E91-F8010861B484}" name="Categoria" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{0A44EF13-A692-417E-90F4-EEE1E0C399BB}" name="OrdemPrioridade" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{F6AB2AED-7D50-4A14-A3D8-3D697CD7C3E6}" name="NomeBusca" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{24DCE466-5828-477A-94D8-8B94F125CA52}" name="ConteudoTexto" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{544BC52C-0699-476B-9E91-F8010861B484}" name="Categoria" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{0A44EF13-A692-417E-90F4-EEE1E0C399BB}" name="OrdemPrioridade" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B195B058-C443-4C22-BFDA-1A6D6B3BD53F}" name="Tabela3" displayName="Tabela3" ref="A1:D7" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B195B058-C443-4C22-BFDA-1A6D6B3BD53F}" name="Tabela3" displayName="Tabela3" ref="A1:D7" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A1:D7" xr:uid="{B195B058-C443-4C22-BFDA-1A6D6B3BD53F}"/>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{30594E46-81AD-44D9-A464-0DDB2405FA5F}" name="ID_Item" dataDxfId="16">
+    <tableColumn id="4" xr3:uid="{30594E46-81AD-44D9-A464-0DDB2405FA5F}" name="ID_Item" dataDxfId="20">
       <calculatedColumnFormula>ROW() - ROW(Tabela3[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{CC635276-E45D-489A-B013-B9CB28D05F73}" name="NomeBusca" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{C4152665-161D-4E06-A92A-C044706FA22B}" name="ConteudoTexto" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{D73DEA13-D731-4A85-9704-AF815ADF8ECA}" name="Categoria" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{CC635276-E45D-489A-B013-B9CB28D05F73}" name="NomeBusca" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{C4152665-161D-4E06-A92A-C044706FA22B}" name="ConteudoTexto" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{D73DEA13-D731-4A85-9704-AF815ADF8ECA}" name="Categoria" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BF31387E-C94D-4214-90A7-3EA03A21E459}" name="Tabela4" displayName="Tabela4" ref="A1:D8" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BF31387E-C94D-4214-90A7-3EA03A21E459}" name="Tabela4" displayName="Tabela4" ref="A1:D8" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:D8" xr:uid="{BF31387E-C94D-4214-90A7-3EA03A21E459}"/>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{B03251EF-71D3-4778-9397-49B077E4BE95}" name="ID_Item" dataDxfId="10">
+    <tableColumn id="4" xr3:uid="{B03251EF-71D3-4778-9397-49B077E4BE95}" name="ID_Item" dataDxfId="14">
       <calculatedColumnFormula>ROW() - ROW(Tabela4[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{4E29BBAD-C1D6-4B95-B61D-6D2ACC75817D}" name="NomeBusca" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{E987E83A-5D1B-4FBA-B949-173B3B767BC5}" name="ConteudoTexto" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{5CEF5F95-0ACE-4A9D-B37D-26E33FA9BC59}" name="Categoria" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{4E29BBAD-C1D6-4B95-B61D-6D2ACC75817D}" name="NomeBusca" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{E987E83A-5D1B-4FBA-B949-173B3B767BC5}" name="ConteudoTexto" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{5CEF5F95-0ACE-4A9D-B37D-26E33FA9BC59}" name="Categoria" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{913B8A45-8E4C-40E3-89AF-FB1299E38DDE}" name="Tabela5" displayName="Tabela5" ref="A1:E8" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{913B8A45-8E4C-40E3-89AF-FB1299E38DDE}" name="Tabela5" displayName="Tabela5" ref="A1:E8" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:E8" xr:uid="{913B8A45-8E4C-40E3-89AF-FB1299E38DDE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
     <sortCondition ref="E1:E8"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{FE4827F2-FADA-4522-96C6-C15115BA8429}" name="ID_Item" dataDxfId="4">
+    <tableColumn id="5" xr3:uid="{FE4827F2-FADA-4522-96C6-C15115BA8429}" name="ID_Item" dataDxfId="8">
       <calculatedColumnFormula>ROW() - ROW(Tabela5[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{2E3E19EF-E8C4-4174-A6DD-FE62A883B65B}" name="NomeBusca" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{A403427C-6D7B-4CAC-8A29-52B0496C1B55}" name="ConteudoTexto" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{495ABE71-9083-4D12-B7AF-769A1DE8A329}" name="Categoria" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{B52F07B3-9EB3-4432-9961-0DC5F0D7CABC}" name="OrdemPrioridade" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{2E3E19EF-E8C4-4174-A6DD-FE62A883B65B}" name="NomeBusca" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{A403427C-6D7B-4CAC-8A29-52B0496C1B55}" name="ConteudoTexto" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{495ABE71-9083-4D12-B7AF-769A1DE8A329}" name="Categoria" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{B52F07B3-9EB3-4432-9961-0DC5F0D7CABC}" name="OrdemPrioridade" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2867,10 +3043,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE9DEBA-C453-4102-816C-FDB2AD0D57A3}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:T143"/>
+  <dimension ref="A1:V158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+    <sheetView tabSelected="1" topLeftCell="D138" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F147" sqref="F147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2883,7 +3059,7 @@
     <col min="7" max="7" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.42578125" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
@@ -2894,11 +3070,13 @@
     <col min="18" max="18" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="54.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -2916,49 +3094,55 @@
         <v>252</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="U1" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>1</v>
@@ -2967,7 +3151,7 @@
         <v>247</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>248</v>
@@ -2976,10 +3160,13 @@
         <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="H2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>2</v>
@@ -2988,7 +3175,7 @@
         <v>221</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
@@ -3000,10 +3187,13 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="H3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>3</v>
@@ -3012,7 +3202,7 @@
         <v>249</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>250</v>
@@ -3021,10 +3211,13 @@
         <v>251</v>
       </c>
       <c r="G4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="H4" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>4</v>
@@ -3033,7 +3226,7 @@
         <v>170</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>126</v>
@@ -3042,10 +3235,13 @@
         <v>171</v>
       </c>
       <c r="G5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="H5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>5</v>
@@ -3054,7 +3250,7 @@
         <v>239</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>211</v>
@@ -3063,10 +3259,13 @@
         <v>212</v>
       </c>
       <c r="G6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="H6" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>6</v>
@@ -3075,7 +3274,7 @@
         <v>246</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>115</v>
@@ -3084,10 +3283,13 @@
         <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="H7" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>7</v>
@@ -3096,7 +3298,7 @@
         <v>54</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>215</v>
@@ -3105,19 +3307,22 @@
         <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="H8" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>310</v>
+        <v>483</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>215</v>
@@ -3126,175 +3331,258 @@
         <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="H9" t="s">
+        <v>499</v>
+      </c>
+      <c r="I9" t="s">
+        <v>467</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="K9">
+        <f>25/3</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="L9">
+        <f>50/3</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="M9">
+        <v>50</v>
+      </c>
+      <c r="N9" t="s">
+        <v>473</v>
+      </c>
+      <c r="P9">
+        <v>8</v>
+      </c>
+      <c r="Q9">
+        <v>500</v>
+      </c>
+      <c r="T9" t="s">
+        <v>469</v>
+      </c>
+      <c r="U9" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>256</v>
+      </c>
+      <c r="H10" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" t="s">
+        <v>303</v>
+      </c>
+      <c r="H11" t="s">
+        <v>499</v>
+      </c>
+      <c r="I11" t="s">
+        <v>467</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="K11">
+        <v>3.125</v>
+      </c>
+      <c r="L11">
+        <v>5.625</v>
+      </c>
+      <c r="M11">
+        <v>50</v>
+      </c>
+      <c r="N11" t="s">
+        <v>473</v>
+      </c>
+      <c r="P11">
+        <v>8</v>
+      </c>
+      <c r="Q11">
+        <v>500</v>
+      </c>
+      <c r="T11" t="s">
+        <v>469</v>
+      </c>
+      <c r="U11" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C12" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="G10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="G12" t="s">
+        <v>256</v>
+      </c>
+      <c r="H12" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C13" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="G11" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="G13" t="s">
+        <v>256</v>
+      </c>
+      <c r="H13" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" t="s">
+        <v>256</v>
+      </c>
+      <c r="H14" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-      <c r="G12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="G13" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-      <c r="G14" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>180</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>143</v>
+        <v>30</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+      <c r="H15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+      <c r="H16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>29</v>
@@ -3306,2401 +3594,2921 @@
         <v>3</v>
       </c>
       <c r="G17" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="H17" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>24</v>
+        <v>180</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" t="s">
+        <v>256</v>
+      </c>
+      <c r="H18" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" t="s">
+        <v>256</v>
+      </c>
+      <c r="H19" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" t="s">
+        <v>257</v>
+      </c>
+      <c r="H20" t="s">
+        <v>499</v>
+      </c>
+      <c r="I20" t="s">
+        <v>467</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="K20">
+        <f>0.5/3</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="L20">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M20">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>487</v>
+      </c>
+      <c r="O20">
+        <v>20</v>
+      </c>
+      <c r="P20">
+        <v>8</v>
+      </c>
+      <c r="Q20">
+        <v>10</v>
+      </c>
+      <c r="T20" t="s">
+        <v>469</v>
+      </c>
+      <c r="U20" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F18">
+      <c r="F21">
         <v>3</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G21" t="s">
+        <v>288</v>
+      </c>
+      <c r="H21" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>288</v>
+      </c>
+      <c r="H22" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" t="s">
+        <v>289</v>
+      </c>
+      <c r="H23" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" t="s">
+        <v>289</v>
+      </c>
+      <c r="H24" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>18</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="H25" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" t="s">
+        <v>256</v>
+      </c>
+      <c r="H26" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G27" t="s">
+        <v>256</v>
+      </c>
+      <c r="H27" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G28" t="s">
+        <v>256</v>
+      </c>
+      <c r="H28" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" t="s">
+        <v>256</v>
+      </c>
+      <c r="H29" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>29</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G21" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>21</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G22" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>22</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="B30" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G23" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>23</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G24" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>24</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>25</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="D26" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>26</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G27" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>27</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>28</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G29" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>29</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>218</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="H30" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G31" t="s">
+        <v>292</v>
+      </c>
+      <c r="H31" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" t="s">
+        <v>256</v>
+      </c>
+      <c r="H32" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G33" t="s">
+        <v>256</v>
+      </c>
+      <c r="H33" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C34" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" t="s">
+        <v>256</v>
+      </c>
+      <c r="H34" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" t="s">
+        <v>256</v>
+      </c>
+      <c r="H35" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" t="s">
+        <v>293</v>
+      </c>
+      <c r="H36" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" t="s">
+        <v>256</v>
+      </c>
+      <c r="H37" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G38" t="s">
+        <v>255</v>
+      </c>
+      <c r="H38" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="D39" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G39" t="s">
+        <v>255</v>
+      </c>
+      <c r="H39" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40" t="s">
+        <v>256</v>
+      </c>
+      <c r="H40" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>40</v>
       </c>
-      <c r="G31" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>31</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G32" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>32</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>33</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="B41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="D41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>34</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="H41" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="D42" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>256</v>
+      </c>
+      <c r="H42" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G43" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>35</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="H43" t="s">
+        <v>499</v>
+      </c>
+      <c r="I43" t="s">
+        <v>467</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="N43" t="s">
+        <v>473</v>
+      </c>
+      <c r="P43">
+        <v>24</v>
+      </c>
+      <c r="T43" t="s">
+        <v>469</v>
+      </c>
+      <c r="U43" t="s">
+        <v>479</v>
+      </c>
+      <c r="V43" s="12" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G44" t="s">
+        <v>254</v>
+      </c>
+      <c r="H44" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36">
-        <v>4</v>
-      </c>
-      <c r="G36" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>36</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="D45" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G45" t="s">
+        <v>255</v>
+      </c>
+      <c r="H45" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F37">
-        <v>4</v>
-      </c>
-      <c r="G37" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>37</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="D46" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46" t="s">
+        <v>256</v>
+      </c>
+      <c r="H46" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>38</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G39" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>39</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="G40" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>40</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F41">
-        <v>2</v>
-      </c>
-      <c r="G41" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>41</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="D42" s="4" t="s">
+      <c r="D47" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42">
-        <v>3</v>
-      </c>
-      <c r="G42" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>42</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G43" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>43</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G44" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>44</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G45" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>45</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>46</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47" t="s">
+        <v>256</v>
+      </c>
+      <c r="H47" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G48" t="s">
+        <v>256</v>
+      </c>
+      <c r="H48" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G49" t="s">
+        <v>256</v>
+      </c>
+      <c r="H49" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G50" t="s">
+        <v>256</v>
+      </c>
+      <c r="H50" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>50</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G47" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>47</v>
-      </c>
-      <c r="B48" s="4" t="s">
+      <c r="C51" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51">
         <v>1</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="G51" t="s">
+        <v>256</v>
+      </c>
+      <c r="H51" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>51</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="s">
+        <v>256</v>
+      </c>
+      <c r="H52" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>52</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="s">
+        <v>257</v>
+      </c>
+      <c r="H53" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G54" t="s">
+        <v>257</v>
+      </c>
+      <c r="H54" t="s">
+        <v>499</v>
+      </c>
+      <c r="I54" t="s">
+        <v>467</v>
+      </c>
+      <c r="J54" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="K54">
+        <v>10</v>
+      </c>
+      <c r="L54">
+        <v>12</v>
+      </c>
+      <c r="M54">
+        <v>50</v>
+      </c>
+      <c r="N54" t="s">
+        <v>473</v>
+      </c>
+      <c r="P54">
+        <v>6</v>
+      </c>
+      <c r="Q54">
+        <v>1000</v>
+      </c>
+      <c r="S54">
+        <v>4000</v>
+      </c>
+      <c r="T54" t="s">
+        <v>469</v>
+      </c>
+      <c r="U54" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="s">
+        <v>256</v>
+      </c>
+      <c r="H55" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="s">
+        <v>257</v>
+      </c>
+      <c r="H56" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>56</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>48</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C49" s="3" t="s">
+      <c r="D57" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G57" t="s">
+        <v>256</v>
+      </c>
+      <c r="H57" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>57</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>49</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C50" s="3" t="s">
+      <c r="D58" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G58" t="s">
+        <v>256</v>
+      </c>
+      <c r="H58" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>58</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>50</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" s="3" t="s">
+      <c r="D59" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G59" t="s">
+        <v>256</v>
+      </c>
+      <c r="H59" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>59</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>51</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C52" s="3" t="s">
+      <c r="D60" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" t="s">
+        <v>256</v>
+      </c>
+      <c r="H60" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" ht="195" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>60</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="G61" t="s">
+        <v>257</v>
+      </c>
+      <c r="H61" t="s">
+        <v>499</v>
+      </c>
+      <c r="I61" t="s">
+        <v>467</v>
+      </c>
+      <c r="J61" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="M61">
+        <v>10</v>
+      </c>
+      <c r="N61" t="s">
+        <v>487</v>
+      </c>
+      <c r="O61">
+        <v>20</v>
+      </c>
+      <c r="P61">
+        <v>8</v>
+      </c>
+      <c r="T61" t="s">
+        <v>469</v>
+      </c>
+      <c r="U61" t="s">
+        <v>484</v>
+      </c>
+      <c r="V61" s="12" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>61</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G52" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>52</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C53" s="3" t="s">
+      <c r="D62" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G62" t="s">
+        <v>256</v>
+      </c>
+      <c r="H62" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>62</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="G63" t="s">
+        <v>257</v>
+      </c>
+      <c r="H63" t="s">
+        <v>499</v>
+      </c>
+      <c r="I63" t="s">
+        <v>467</v>
+      </c>
+      <c r="J63" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="M63">
+        <v>6</v>
+      </c>
+      <c r="N63" t="s">
+        <v>473</v>
+      </c>
+      <c r="P63">
+        <v>12</v>
+      </c>
+      <c r="T63" t="s">
+        <v>469</v>
+      </c>
+      <c r="U63" t="s">
+        <v>479</v>
+      </c>
+      <c r="V63" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>63</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G53" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>53</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" s="3" t="s">
+      <c r="D64" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G64" t="s">
+        <v>256</v>
+      </c>
+      <c r="H64" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>64</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>54</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C55" s="3" t="s">
+      <c r="D65" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G65" t="s">
+        <v>256</v>
+      </c>
+      <c r="H65" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>65</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G66" t="s">
+        <v>530</v>
+      </c>
+      <c r="H66" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>66</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G55" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>55</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C56" s="3" t="s">
+      <c r="D67" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F67">
+        <v>3</v>
+      </c>
+      <c r="G67" t="s">
+        <v>288</v>
+      </c>
+      <c r="H67" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>67</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G56" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>56</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C57" s="3" t="s">
+      <c r="D68" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+      <c r="G68" t="s">
+        <v>288</v>
+      </c>
+      <c r="H68" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>68</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69" t="s">
+        <v>288</v>
+      </c>
+      <c r="H69" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>69</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70" t="s">
+        <v>295</v>
+      </c>
+      <c r="H70" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>70</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71" t="s">
+        <v>295</v>
+      </c>
+      <c r="H71" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>71</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G57" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>57</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C58" s="3" t="s">
+      <c r="D72" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G72" t="s">
+        <v>296</v>
+      </c>
+      <c r="H72" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>72</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F58">
-        <v>3</v>
-      </c>
-      <c r="G58" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>58</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F59">
-        <v>3</v>
-      </c>
-      <c r="G59" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>59</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F60">
-        <v>2</v>
-      </c>
-      <c r="G60" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>60</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F61">
-        <v>2</v>
-      </c>
-      <c r="G61" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>61</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F62">
-        <v>2</v>
-      </c>
-      <c r="G62" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>62</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G63" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>63</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="D64" s="4" t="s">
+      <c r="D73" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="F64">
-        <v>2</v>
-      </c>
-      <c r="G64" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>64</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F65">
-        <v>2</v>
-      </c>
-      <c r="G65" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>65</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G66" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>66</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G67" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>67</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>68</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G69" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>69</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G70" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>70</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G71" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>71</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G72" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>72</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="F73">
         <v>2</v>
       </c>
       <c r="G73" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="H73" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A74">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>22</v>
+        <v>229</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>319</v>
+        <v>374</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>10</v>
+        <v>230</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
       <c r="F74">
         <v>2</v>
       </c>
       <c r="G74" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="H74" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A75">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>192</v>
+        <v>32</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>190</v>
+        <v>115</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>191</v>
+        <v>33</v>
       </c>
       <c r="G75" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H75" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A76">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G76" t="s">
+        <v>259</v>
+      </c>
+      <c r="H76" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>76</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" t="s">
+        <v>257</v>
+      </c>
+      <c r="H77" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>77</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G78" t="s">
+        <v>256</v>
+      </c>
+      <c r="H78" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>78</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G79" t="s">
+        <v>254</v>
+      </c>
+      <c r="H79" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>79</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G80" t="s">
+        <v>257</v>
+      </c>
+      <c r="H80" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>80</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G81" t="s">
+        <v>293</v>
+      </c>
+      <c r="H81" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>81</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="G82" t="s">
+        <v>256</v>
+      </c>
+      <c r="H82" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>82</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="G83" t="s">
+        <v>257</v>
+      </c>
+      <c r="H83" t="s">
+        <v>499</v>
+      </c>
+      <c r="I83" t="s">
+        <v>467</v>
+      </c>
+      <c r="J83" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="K83">
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L83">
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M83">
+        <v>2</v>
+      </c>
+      <c r="N83" t="s">
+        <v>473</v>
+      </c>
+      <c r="P83">
+        <v>8</v>
+      </c>
+      <c r="R83">
+        <v>2</v>
+      </c>
+      <c r="S83">
+        <v>100</v>
+      </c>
+      <c r="T83" t="s">
+        <v>469</v>
+      </c>
+      <c r="U83" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>83</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84" t="s">
+        <v>256</v>
+      </c>
+      <c r="H84" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>84</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G85" t="s">
+        <v>257</v>
+      </c>
+      <c r="H85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I85" t="s">
+        <v>467</v>
+      </c>
+      <c r="J85" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="K85">
+        <v>5</v>
+      </c>
+      <c r="L85">
+        <v>10</v>
+      </c>
+      <c r="M85">
+        <v>100</v>
+      </c>
+      <c r="N85" t="s">
+        <v>487</v>
+      </c>
+      <c r="O85">
+        <v>20</v>
+      </c>
+      <c r="P85">
+        <v>8</v>
+      </c>
+      <c r="R85">
+        <v>40</v>
+      </c>
+      <c r="S85">
+        <v>2400</v>
+      </c>
+      <c r="T85" t="s">
+        <v>469</v>
+      </c>
+      <c r="U85" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>85</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C86" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G86" t="s">
+        <v>256</v>
+      </c>
+      <c r="H86" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>86</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G87" t="s">
+        <v>256</v>
+      </c>
+      <c r="H87" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>87</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F88">
+        <v>3</v>
+      </c>
+      <c r="G88" t="s">
+        <v>297</v>
+      </c>
+      <c r="H88" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>88</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F89">
+        <v>3</v>
+      </c>
+      <c r="G89" t="s">
+        <v>297</v>
+      </c>
+      <c r="H89" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>89</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="D76" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G76" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>76</v>
-      </c>
-      <c r="B77" s="4" t="s">
+      <c r="D90" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F90">
+        <v>3</v>
+      </c>
+      <c r="G90" t="s">
+        <v>297</v>
+      </c>
+      <c r="H90" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>90</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C91" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D91" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E91" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="F77">
-        <v>3</v>
-      </c>
-      <c r="G77" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>77</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F78">
-        <v>3</v>
-      </c>
-      <c r="G78" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>78</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F79">
-        <v>3</v>
-      </c>
-      <c r="G79" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>79</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F80">
-        <v>3</v>
-      </c>
-      <c r="G80" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>80</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F81">
-        <v>3</v>
-      </c>
-      <c r="G81" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>81</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F82">
-        <v>3</v>
-      </c>
-      <c r="G82" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>82</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F83">
-        <v>3</v>
-      </c>
-      <c r="G83" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>83</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F84">
-        <v>3</v>
-      </c>
-      <c r="G84" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>84</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G85" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>85</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F86">
-        <v>2</v>
-      </c>
-      <c r="G86" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>86</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G87" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>87</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>88</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G89" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>89</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G90" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>90</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="F91">
         <v>3</v>
       </c>
       <c r="G91" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="H91" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A92">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>436</v>
+        <v>227</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>137</v>
+        <v>223</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>138</v>
+        <v>224</v>
       </c>
       <c r="F92">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G92" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="H92" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A93">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>224</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G93" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="H93" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A94">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>224</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G94" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="H94" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A95">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G95" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="H95" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A96">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>140</v>
+        <v>531</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>404</v>
+        <v>532</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>47</v>
+        <v>533</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+      <c r="H96" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A97">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>201</v>
+        <v>51</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>202</v>
+        <v>52</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>198</v>
+        <v>53</v>
       </c>
       <c r="G97" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="H97" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A98">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="E98" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F98">
+        <v>2</v>
+      </c>
+      <c r="G98" t="s">
+        <v>257</v>
+      </c>
+      <c r="H98" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>98</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="G98" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>98</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="G99" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H99" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A100">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>120</v>
+        <v>176</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
       </c>
       <c r="G100" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H100" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A101">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>5</v>
+        <v>197</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="G101" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H101" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A102">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="C102" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G102" t="s">
+        <v>256</v>
+      </c>
+      <c r="H102" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>102</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F103">
+        <v>4</v>
+      </c>
+      <c r="G103" t="s">
+        <v>303</v>
+      </c>
+      <c r="H103" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>103</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C104" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D102" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G102" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>102</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F103">
-        <v>3</v>
-      </c>
-      <c r="G103" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>103</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>411</v>
-      </c>
       <c r="D104" s="4" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="F104">
         <v>3</v>
       </c>
       <c r="G104" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+      <c r="H104" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A105">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105" t="s">
+        <v>256</v>
+      </c>
+      <c r="H105" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>105</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106" t="s">
+        <v>256</v>
+      </c>
+      <c r="H106" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>106</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107" t="s">
+        <v>256</v>
+      </c>
+      <c r="H107" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>107</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G108" t="s">
+        <v>256</v>
+      </c>
+      <c r="H108" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>108</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G109" t="s">
+        <v>256</v>
+      </c>
+      <c r="H109" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>109</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G110" t="s">
+        <v>256</v>
+      </c>
+      <c r="H110" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>110</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G111" t="s">
+        <v>254</v>
+      </c>
+      <c r="H111" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>111</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G112" t="s">
+        <v>254</v>
+      </c>
+      <c r="H112" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>112</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="G113" t="s">
+        <v>513</v>
+      </c>
+      <c r="H113" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>113</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="G114" t="s">
+        <v>513</v>
+      </c>
+      <c r="H114" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>114</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="G115" t="s">
+        <v>513</v>
+      </c>
+      <c r="H115" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>115</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="G116" t="s">
+        <v>296</v>
+      </c>
+      <c r="H116" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>116</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G117" t="s">
+        <v>254</v>
+      </c>
+      <c r="H117" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>117</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G118" t="s">
+        <v>299</v>
+      </c>
+      <c r="H118" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>118</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F119">
+        <v>3</v>
+      </c>
+      <c r="G119" t="s">
+        <v>256</v>
+      </c>
+      <c r="H119" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>119</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F120">
+        <v>3</v>
+      </c>
+      <c r="G120" t="s">
+        <v>256</v>
+      </c>
+      <c r="H120" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>120</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C121" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G121" t="s">
+        <v>293</v>
+      </c>
+      <c r="H121" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>121</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F122">
+        <v>3</v>
+      </c>
+      <c r="G122" t="s">
+        <v>256</v>
+      </c>
+      <c r="H122" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>122</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G123" t="s">
+        <v>256</v>
+      </c>
+      <c r="H123" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>123</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D105" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G105" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>105</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C106" s="3" t="s">
+      <c r="D124" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G124" t="s">
+        <v>256</v>
+      </c>
+      <c r="H124" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>124</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>413</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F106">
-        <v>3</v>
-      </c>
-      <c r="G106" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>106</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G107" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>107</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G108" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>108</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F109">
-        <v>1</v>
-      </c>
-      <c r="G109" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>109</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G110" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>110</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G111" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>111</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F112">
-        <v>1</v>
-      </c>
-      <c r="G112" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>112</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F113">
-        <v>1</v>
-      </c>
-      <c r="G113" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>113</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F114">
-        <v>1</v>
-      </c>
-      <c r="G114" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>114</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F115">
-        <v>1</v>
-      </c>
-      <c r="G115" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>115</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G116" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>116</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G117" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>117</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G118" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>118</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G119" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>119</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G120" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>120</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G121" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>121</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G122" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>122</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="G123" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>123</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F124">
-        <v>2</v>
-      </c>
-      <c r="G124" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>124</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>428</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>137</v>
@@ -5709,561 +6517,910 @@
         <v>138</v>
       </c>
       <c r="F125">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G125" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="H125" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A126">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>452</v>
+        <v>320</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="G126" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="H126" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A127">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>453</v>
+        <v>414</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>244</v>
+        <v>47</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
       <c r="G127" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="H127" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A128">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>454</v>
+        <v>480</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>244</v>
+        <v>47</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>135</v>
+        <v>48</v>
       </c>
       <c r="G128" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="129" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="H128" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A129">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F129">
         <v>1</v>
       </c>
       <c r="G129" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="130" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="H129" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A130">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>253</v>
+        <v>19</v>
       </c>
       <c r="F130">
         <v>1</v>
       </c>
       <c r="G130" t="s">
+        <v>256</v>
+      </c>
+      <c r="H130" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>130</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G131" t="s">
+        <v>257</v>
+      </c>
+      <c r="H131" t="s">
+        <v>499</v>
+      </c>
+      <c r="I131" t="s">
+        <v>467</v>
+      </c>
+      <c r="J131" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="K131">
+        <v>10</v>
+      </c>
+      <c r="L131">
+        <v>15</v>
+      </c>
+      <c r="M131">
+        <v>200</v>
+      </c>
+      <c r="N131" t="s">
+        <v>487</v>
+      </c>
+      <c r="O131">
+        <v>20</v>
+      </c>
+      <c r="P131">
+        <v>6</v>
+      </c>
+      <c r="R131">
+        <v>75</v>
+      </c>
+      <c r="S131">
+        <v>4000</v>
+      </c>
+      <c r="T131" t="s">
+        <v>469</v>
+      </c>
+      <c r="U131" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>131</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132" t="s">
+        <v>256</v>
+      </c>
+      <c r="H132" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>132</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133" t="s">
+        <v>256</v>
+      </c>
+      <c r="H133" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>133</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="G134" t="s">
+        <v>257</v>
+      </c>
+      <c r="H134" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>134</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G135" t="s">
+        <v>301</v>
+      </c>
+      <c r="H135" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>135</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G136" t="s">
+        <v>294</v>
+      </c>
+      <c r="H136" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" ht="105" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>136</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G137" t="s">
+        <v>292</v>
+      </c>
+      <c r="H137" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>137</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G138" t="s">
+        <v>302</v>
+      </c>
+      <c r="H138" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>138</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G139" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="131" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>130</v>
-      </c>
-      <c r="B131" s="4" t="s">
+      <c r="H139" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>139</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G140" t="s">
+        <v>257</v>
+      </c>
+      <c r="H140" t="s">
+        <v>499</v>
+      </c>
+      <c r="I140" t="s">
+        <v>467</v>
+      </c>
+      <c r="J140" t="s">
+        <v>482</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>2</v>
+      </c>
+      <c r="M140">
+        <v>3</v>
+      </c>
+      <c r="N140" t="s">
+        <v>473</v>
+      </c>
+      <c r="P140">
+        <v>24</v>
+      </c>
+      <c r="Q140">
+        <v>60</v>
+      </c>
+      <c r="R140">
+        <v>2</v>
+      </c>
+      <c r="S140">
+        <v>60</v>
+      </c>
+      <c r="T140" t="s">
+        <v>469</v>
+      </c>
+      <c r="U140" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>140</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G141" t="s">
+        <v>256</v>
+      </c>
+      <c r="H141" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>141</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G142" t="s">
+        <v>256</v>
+      </c>
+      <c r="H142" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>142</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="G143" t="s">
+        <v>257</v>
+      </c>
+      <c r="H143" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>143</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F144">
+        <v>2</v>
+      </c>
+      <c r="G144" t="s">
+        <v>256</v>
+      </c>
+      <c r="H144" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>144</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F145">
+        <v>5</v>
+      </c>
+      <c r="G145" t="s">
+        <v>258</v>
+      </c>
+      <c r="H145" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>145</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G146" t="s">
+        <v>285</v>
+      </c>
+      <c r="H146" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>146</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G147" t="s">
+        <v>303</v>
+      </c>
+      <c r="H147" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>147</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G148" t="s">
+        <v>303</v>
+      </c>
+      <c r="H148" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>148</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149" t="s">
+        <v>288</v>
+      </c>
+      <c r="H149" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>149</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150" t="s">
+        <v>288</v>
+      </c>
+      <c r="H150" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>150</v>
+      </c>
+      <c r="B151" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C131" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="D131" s="4" t="s">
+      <c r="C151" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D151" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E131" s="1" t="s">
+      <c r="E151" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="G131" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="132" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>131</v>
-      </c>
-      <c r="B132" s="4" t="s">
+      <c r="G151" t="s">
+        <v>256</v>
+      </c>
+      <c r="H151" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>151</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C152" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="D132" s="4" t="s">
+      <c r="D152" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E132" s="1" t="s">
+      <c r="E152" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G132" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="133" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>132</v>
-      </c>
-      <c r="B133" s="4" t="s">
+      <c r="G152" t="s">
+        <v>255</v>
+      </c>
+      <c r="H152" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>152</v>
+      </c>
+      <c r="B153" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C133" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="D133" s="4" t="s">
+      <c r="C153" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D153" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="E153" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G133" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="134" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>133</v>
-      </c>
-      <c r="B134" s="4" t="s">
+      <c r="G153" t="s">
+        <v>256</v>
+      </c>
+      <c r="H153" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>153</v>
+      </c>
+      <c r="B154" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C154" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G154" t="s">
+        <v>256</v>
+      </c>
+      <c r="H154" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>154</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F155">
+        <v>3</v>
+      </c>
+      <c r="G155" t="s">
+        <v>256</v>
+      </c>
+      <c r="H155" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>155</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F156">
+        <v>4</v>
+      </c>
+      <c r="G156" t="s">
+        <v>256</v>
+      </c>
+      <c r="H156" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>156</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C157" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="D134" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G134" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="135" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>134</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C135" s="3" t="s">
+      <c r="D157" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F157">
+        <v>4</v>
+      </c>
+      <c r="G157" t="s">
+        <v>256</v>
+      </c>
+      <c r="H157" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>157</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C158" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="D135" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F135">
-        <v>3</v>
-      </c>
-      <c r="G135" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="136" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>135</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F136">
-        <v>4</v>
-      </c>
-      <c r="G136" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="137" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>136</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F137">
-        <v>4</v>
-      </c>
-      <c r="G137" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="138" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>137</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="D138" s="4" t="s">
+      <c r="D158" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E138" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="G138" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="139" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>138</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="G139" t="s">
-        <v>259</v>
-      </c>
-      <c r="H139" t="s">
-        <v>472</v>
-      </c>
-      <c r="I139" t="s">
-        <v>471</v>
-      </c>
-      <c r="J139" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="K139">
-        <v>10</v>
-      </c>
-      <c r="L139">
-        <v>15</v>
-      </c>
-      <c r="M139">
-        <v>200</v>
-      </c>
-      <c r="O139">
-        <v>20</v>
-      </c>
-      <c r="P139">
-        <v>6</v>
-      </c>
-      <c r="R139">
-        <v>75</v>
-      </c>
-      <c r="S139">
-        <v>4000</v>
-      </c>
-      <c r="T139" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="140" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>139</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="G140" t="s">
-        <v>259</v>
-      </c>
-      <c r="H140" t="s">
-        <v>472</v>
-      </c>
-      <c r="I140" t="s">
-        <v>471</v>
-      </c>
-      <c r="J140" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="K140">
-        <v>5</v>
-      </c>
-      <c r="L140">
-        <v>10</v>
-      </c>
-      <c r="M140">
-        <v>100</v>
-      </c>
-      <c r="O140">
-        <v>20</v>
-      </c>
-      <c r="P140">
-        <v>8</v>
-      </c>
-      <c r="R140">
-        <v>40</v>
-      </c>
-      <c r="S140">
-        <v>2400</v>
-      </c>
-      <c r="T140" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="141" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>140</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="G141" t="s">
-        <v>259</v>
-      </c>
-      <c r="H141" t="s">
-        <v>472</v>
-      </c>
-      <c r="I141" t="s">
-        <v>471</v>
-      </c>
-      <c r="J141" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="K141">
-        <v>10</v>
-      </c>
-      <c r="L141">
-        <v>12</v>
-      </c>
-      <c r="M141">
-        <v>50</v>
-      </c>
-      <c r="N141" t="s">
-        <v>481</v>
-      </c>
-      <c r="P141">
-        <v>6</v>
-      </c>
-      <c r="Q141">
-        <v>1000</v>
-      </c>
-      <c r="S141">
-        <v>4000</v>
-      </c>
-      <c r="T141" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="142" spans="1:20" ht="60" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>141</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G142" t="s">
-        <v>305</v>
-      </c>
-      <c r="H142" t="s">
-        <v>472</v>
-      </c>
-      <c r="I142" t="s">
-        <v>471</v>
-      </c>
-      <c r="J142" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="K142">
-        <v>3.125</v>
-      </c>
-      <c r="L142">
-        <v>5.625</v>
-      </c>
-      <c r="M142">
-        <v>50</v>
-      </c>
-      <c r="N142" t="s">
-        <v>481</v>
-      </c>
-      <c r="P142">
-        <v>8</v>
-      </c>
-      <c r="Q142">
-        <v>500</v>
-      </c>
-      <c r="T142" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="143" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>142</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G143" t="s">
-        <v>305</v>
-      </c>
-      <c r="H143" t="s">
-        <v>472</v>
-      </c>
-      <c r="I143" t="s">
-        <v>471</v>
-      </c>
-      <c r="J143" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="K143">
-        <f>25/3</f>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="L143">
-        <f>50/3</f>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="M143">
-        <v>50</v>
-      </c>
-      <c r="P143">
-        <v>8</v>
-      </c>
-      <c r="Q143">
-        <v>500</v>
-      </c>
-      <c r="T143" t="s">
-        <v>474</v>
+      <c r="E158" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G158" t="s">
+        <v>304</v>
+      </c>
+      <c r="H158" t="s">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -6292,7 +7449,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -6424,7 +7581,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -6466,7 +7623,7 @@
         <v>235</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>235</v>
@@ -6487,7 +7644,7 @@
         <v>237</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E4" s="5">
         <v>3</v>
@@ -6499,13 +7656,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E5" s="5">
         <v>4</v>
@@ -6517,13 +7674,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E6" s="5">
         <v>5</v>
@@ -6538,10 +7695,10 @@
         <v>238</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E7" s="5">
         <v>6</v>
@@ -6553,13 +7710,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E8" s="5">
         <v>7</v>
@@ -6571,13 +7728,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E9" s="5">
         <v>8</v>
@@ -6610,7 +7767,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>0</v>
@@ -6633,10 +7790,10 @@
         <v>231</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E2" s="13">
         <v>1</v>
@@ -6647,13 +7804,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E3" s="13">
         <v>2</v>
@@ -6667,10 +7824,10 @@
         <v>99</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E4" s="13">
         <v>3</v>
@@ -6681,13 +7838,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E5" s="13">
         <v>4</v>
@@ -6701,10 +7858,10 @@
         <v>145</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E6" s="13">
         <v>5</v>
@@ -6738,7 +7895,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -6777,7 +7934,7 @@
         <v>80</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -6789,7 +7946,7 @@
         <v>81</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>82</v>
@@ -6801,13 +7958,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="345" x14ac:dyDescent="0.25">
@@ -6816,13 +7973,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -6831,13 +7988,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>443</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>446</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -6865,7 +8022,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -7009,7 +8166,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -7069,7 +8226,7 @@
         <v>112</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>107</v>

--- a/script-excel-para-json/input/prescricoes.xlsx
+++ b/script-excel-para-json/input/prescricoes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1AC289667D0E8CCD/Documentos/Saúde/Prescrições/Prescrição_python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1694" documentId="13_ncr:1_{243FE48A-7C6A-41E4-8FFF-32D7F4E6C3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAF53786-BDAD-400B-94FA-1D8AC13C8C64}"/>
+  <xr:revisionPtr revIDLastSave="2037" documentId="13_ncr:1_{243FE48A-7C6A-41E4-8FFF-32D7F4E6C3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD58D4C6-099C-4958-BCEC-68E9B32D6334}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{4C639DE4-733A-4E7F-8720-AC3921A2C161}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" firstSheet="5" activeTab="9" xr2:uid="{4C639DE4-733A-4E7F-8720-AC3921A2C161}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicamentos" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="Procedimentos" sheetId="3" r:id="rId5"/>
     <sheet name="Orientacoes" sheetId="4" r:id="rId6"/>
     <sheet name="Outros" sheetId="5" r:id="rId7"/>
+    <sheet name="PortaEInternacao" sheetId="10" r:id="rId8"/>
+    <sheet name="ViasDeAdministracao" sheetId="8" r:id="rId9"/>
+    <sheet name="Aprazamentos" sheetId="9" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="Renovação_receita" localSheetId="6">Outros!$D$3</definedName>
@@ -44,8 +47,147 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="3">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="3">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
+<file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
+<python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
+  <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
+    <initialization>
+      <code xml:space="preserve">import numpy as np
+import pandas as pd
+import matplotlib.pyplot as plt
+import seaborn as sns
+import statsmodels as sm
+import excel
+import warnings
+warnings.simplefilter('ignore')
+excel.set_xl_scalar_conversion(excel.convert_to_scalar)
+excel.set_xl_array_conversion(excel.convert_to_dataframe)
+</code>
+    </initialization>
+  </environmentDefinition>
+  <pythonScripts>
+    <pythonScript>
+      <code>[
+  {
+    "nome": "Ceftriaxona 1g 12/12h",
+    "texto": "Ceftriaxona 1g, 1g (1 frasco), EV, 12/12h",
+    "componentes": [
+      {
+        "item": "Cloreto de sódio à 0,9%%",
+        "dose": "100",
+        "unidade": "ml"
+      }
+    ]
+  },
+  {
+    "nome": "Ceftriaxona 2g 24/24h",
+    "texto": "Ceftriaxona 1g, 2g (2 frascos), EV, 24/24h"
+  }
+]</code>
+    </pythonScript>
+    <pythonScript>
+      <code>[
+  {
+    "nome": "Fentanil 10 mcg BIC",
+    "texto": "Fentanil 50 mcg/ml, 20 ml, BIC, vazão ACM. Concentração: 10 mcg/ml",
+    "componentes":[
+      {
+        "item": "Glicose à 5%%",
+        "dose": "80",
+        "unidade": "ml"
+      }
+                  ]
+  },
+]</code>
+    </pythonScript>
+    <pythonScript>
+      <code>[
+    {
+    "nome": "Midazolam 1 mg/ml BIC (150 ml)",
+    "texto": "Midazolam 5 mg/ml, 30 ml, BIC, vazão ACM. Concentração: 1 mg/ml",
+    "componentes":[
+      {
+        "item": "SF 0,9%% ou SG 5%%",
+        "dose": "120",
+        "unidade": "ml"
+      }
+                  ]
+    },
+    {
+    "nome": "Midazolam 1 mg/ml BIC (250ml)",
+    "texto": "Midazolam 5 mg/ml, 50 ml, BIC, vazão ACM. Concentração: 1 mg/ml",
+    "componentes":[
+        {
+        "item": "SF 0,9%% ou SG 5%%",
+        "dose": "200",
+        "unidade": "ml"
+        }
+                    ]
+    },
+]</code>
+    </pythonScript>
+  </pythonScripts>
+</python>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="633">
   <si>
     <t>NomeBusca</t>
   </si>
@@ -2156,6 +2298,304 @@
   <si>
     <t>solução para nebulização</t>
   </si>
+  <si>
+    <t>1 - Loratadina 1 mg/ml ___________________ 1 frasco
+Dar ___ mls por dia</t>
+  </si>
+  <si>
+    <t>Sigla</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>VO</t>
+  </si>
+  <si>
+    <t>Via oral</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>Endovenoso</t>
+  </si>
+  <si>
+    <t>IM</t>
+  </si>
+  <si>
+    <t>Imtramuscular</t>
+  </si>
+  <si>
+    <t>Via inalatória</t>
+  </si>
+  <si>
+    <t>Via SNE</t>
+  </si>
+  <si>
+    <t>Via sondanasoentérica</t>
+  </si>
+  <si>
+    <t>Tópico</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ItemPrincipal</t>
+  </si>
+  <si>
+    <t>TipoItem</t>
+  </si>
+  <si>
+    <t>Apresentacoes</t>
+  </si>
+  <si>
+    <t>UnidadesDose</t>
+  </si>
+  <si>
+    <t>DescricaoCompleta</t>
+  </si>
+  <si>
+    <t>PrescricoesPadronizadasJSON</t>
+  </si>
+  <si>
+    <t>ObservacaoPadrao</t>
+  </si>
+  <si>
+    <t>Medicamento</t>
+  </si>
+  <si>
+    <t>Complexo</t>
+  </si>
+  <si>
+    <t>Dieta via oral conforme prescrição nutricional</t>
+  </si>
+  <si>
+    <t>Simples</t>
+  </si>
+  <si>
+    <t>1g/frasco</t>
+  </si>
+  <si>
+    <t>g; mg</t>
+  </si>
+  <si>
+    <t>Dieta via oral</t>
+  </si>
+  <si>
+    <t>Monitorização</t>
+  </si>
+  <si>
+    <t>Cuidados da enfermagem</t>
+  </si>
+  <si>
+    <t>Sinais vitais</t>
+  </si>
+  <si>
+    <t>Sinais vitais de 2 em 2 horas</t>
+  </si>
+  <si>
+    <t>Sinais vitais de 6 em 6 horas</t>
+  </si>
+  <si>
+    <t>25 mg Comp;
+50 mg Comp</t>
+  </si>
+  <si>
+    <t>mg; Comp</t>
+  </si>
+  <si>
+    <t>Fentanil</t>
+  </si>
+  <si>
+    <t>mcg; ml</t>
+  </si>
+  <si>
+    <t>Dieta</t>
+  </si>
+  <si>
+    <t>Midazolam</t>
+  </si>
+  <si>
+    <t>5 mg/ml Amp 3 ml;
+5 mg/ml Amp 10 ml</t>
+  </si>
+  <si>
+    <t>50 mcg/ml Amp 2 ml;
+50 mcg/ml Amp 2 ml</t>
+  </si>
+  <si>
+    <t>mg; ml</t>
+  </si>
+  <si>
+    <t>Cloreto de sódio</t>
+  </si>
+  <si>
+    <t>ml; frasco</t>
+  </si>
+  <si>
+    <t>0,9% (100 ml);
+0,9% (250 ml);
+0,9% (500 ml);
+0,9% (1000 ml);</t>
+  </si>
+  <si>
+    <t>Cuidados com posicionamento</t>
+  </si>
+  <si>
+    <t>Cabeceira elevada em 30°</t>
+  </si>
+  <si>
+    <t>Prevenção de úlcera de pressão</t>
+  </si>
+  <si>
+    <t>Mudança de posição de 6 em 6 horas</t>
+  </si>
+  <si>
+    <t>Oxigenoterapia</t>
+  </si>
+  <si>
+    <t>Cateter nasal à 2 L/min, se SatO2 &lt; 94%</t>
+  </si>
+  <si>
+    <t>Hipodermóclise</t>
+  </si>
+  <si>
+    <t>Inalatório</t>
+  </si>
+  <si>
+    <t>Agora</t>
+  </si>
+  <si>
+    <t>Dose única imediata</t>
+  </si>
+  <si>
+    <t>Dose única</t>
+  </si>
+  <si>
+    <t>1/1h</t>
+  </si>
+  <si>
+    <t>2/2h</t>
+  </si>
+  <si>
+    <t>3/3h</t>
+  </si>
+  <si>
+    <t>4/4h</t>
+  </si>
+  <si>
+    <t>6/6h</t>
+  </si>
+  <si>
+    <t>8/8h</t>
+  </si>
+  <si>
+    <t>12/12h</t>
+  </si>
+  <si>
+    <t>24/24h</t>
+  </si>
+  <si>
+    <t>1x dia</t>
+  </si>
+  <si>
+    <t>1 vez ao dia</t>
+  </si>
+  <si>
+    <t>2x dia</t>
+  </si>
+  <si>
+    <t>2 vezes ao dia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3x dia </t>
+  </si>
+  <si>
+    <t>3 vezes ao dia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x dia </t>
+  </si>
+  <si>
+    <t>4 vezes ao dia</t>
+  </si>
+  <si>
+    <t>1x semana</t>
+  </si>
+  <si>
+    <t>1 vez por semana</t>
+  </si>
+  <si>
+    <t>2x semana</t>
+  </si>
+  <si>
+    <t>2 vezes por semana</t>
+  </si>
+  <si>
+    <t>3x semana</t>
+  </si>
+  <si>
+    <t>3 vezes por semana</t>
+  </si>
+  <si>
+    <t>De 24 em 24 horas</t>
+  </si>
+  <si>
+    <t>De 1 em 1 hora</t>
+  </si>
+  <si>
+    <t>De 2 em 2 horas</t>
+  </si>
+  <si>
+    <t>De 8 em 8 horas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De 3 em 3 horas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">De 4 em 4 horas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">De 6 em 6 horas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">De 12 em 12 horas </t>
+  </si>
+  <si>
+    <t>48/38h</t>
+  </si>
+  <si>
+    <t>De 48 em 48 horas</t>
+  </si>
+  <si>
+    <t>72/72h</t>
+  </si>
+  <si>
+    <t>De 72 em 72 horas</t>
+  </si>
+  <si>
+    <t>Via retal</t>
+  </si>
+  <si>
+    <t>Via nasal</t>
+  </si>
+  <si>
+    <t>Via otológica</t>
+  </si>
+  <si>
+    <t>Via oftálmica</t>
+  </si>
+  <si>
+    <t>Horario</t>
+  </si>
+  <si>
+    <t>Descricao</t>
+  </si>
+  <si>
+    <t>Correr em 30 minutos</t>
+  </si>
 </sst>
 </file>
 
@@ -2200,7 +2640,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2213,8 +2653,14 @@
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2222,11 +2668,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2277,11 +2771,91 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="47">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2589,9 +3163,172 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="2">
+  <a r="2">
+    <v t="s">&lt;dict&gt;</v>
+    <v t="s">&lt;dict&gt;</v>
+  </a>
+  <a r="1">
+    <v t="s">&lt;dict&gt;</v>
+  </a>
+</arrayData>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="7">
+  <rv s="0">
+    <v>0</v>
+  </rv>
+  <rv s="1">
+    <v>list</v>
+    <v>1</v>
+    <v>0</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'list'&gt;</v>
+    <v>list</v>
+    <v>[{'nome': 'Ceftriaxona 1g 12/12h', 'texto': 'Ceftriaxona 1g, 1g (1 frasco), EV, 12/12h', 'componentes': [{'item': 'Cloreto de sódio à 0,9%', 'dose': '100', 'unidade': 'ml'}]}, {'nome': 'Ceftriaxona 2g 24/24h', 'texto': 'Ceftriaxona 1g, 2g (2 frascos), ...</v>
+    <v>1</v>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+  </rv>
+  <rv s="1">
+    <v>list</v>
+    <v>4</v>
+    <v>3</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'list'&gt;</v>
+    <v>list</v>
+    <v>[{'nome': 'Fentanil 10 mcg BIC', 'texto': 'Fentanil 50 mcg/ml, 20 ml, BIC, vazão ACM. Concentração: 10 mcg/ml', 'componentes': [{'item': 'Glicose à 5%', 'dose': '80', 'unidade': 'ml'}]}]</v>
+    <v>4</v>
+    <v>2</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'list'&gt;</v>
+    <v>list</v>
+    <v>[{'nome': 'Midazolam 1 mg/ml BIC (150 ml)', 'texto': 'Midazolam 5 mg/ml, 30 ml, BIC, vazão ACM. Concentração: 1 mg/ml', 'componentes': [{'item': 'SF 0,9% ou SG 5%', 'dose': '120', 'unidade': 'ml'}]}, {'nome': 'Midazolam 1 mg/ml BIC (250ml)', 'texto': '...</v>
+    <v>1</v>
+    <v>2</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_array">
+    <k n="array" t="a"/>
+  </s>
+  <s t="_entity">
+    <k n="_DisplayString" t="s"/>
+    <k n="_ViewInfo" t="spb"/>
+    <k n="arrayPreview" t="r"/>
+  </s>
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
+    <k n="preview" t="r"/>
+    <k n="_Provider" t="spb"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbData count="5">
+    <spb s="0">
+      <v>2</v>
+      <v>1</v>
+      <v>list</v>
+      <v>arrayPreview</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>https://www.anaconda.com/excel</v>
+      <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
+      <v>Python fornecido por Anaconda</v>
+    </spb>
+    <spb s="0">
+      <v>1</v>
+      <v>1</v>
+      <v>list</v>
+      <v>arrayPreview</v>
+    </spb>
+    <spb s="1">
+      <v>3</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="3">
+  <s>
+    <k n="drw" t="i"/>
+    <k n="dcol" t="i"/>
+    <k n="name" t="s"/>
+    <k n="array" t="s"/>
+  </s>
+  <s>
+    <k n="ArrayCardInfo" t="spb"/>
+  </s>
+  <s>
+    <k n="link" t="s"/>
+    <k n="logo" t="s"/>
+    <k n="name" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D533F96B-3659-4560-ACD7-02DCC551E6A1}" name="Tabela1" displayName="Tabela1" ref="A1:V158" totalsRowShown="0">
-  <autoFilter ref="A1:V158" xr:uid="{D533F96B-3659-4560-ACD7-02DCC551E6A1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D533F96B-3659-4560-ACD7-02DCC551E6A1}" name="Tabela1" displayName="Tabela1" ref="A1:V159" totalsRowShown="0">
+  <autoFilter ref="A1:V159" xr:uid="{D533F96B-3659-4560-ACD7-02DCC551E6A1}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V158">
     <sortCondition ref="B1:B158"/>
   </sortState>
@@ -2599,10 +3336,10 @@
     <tableColumn id="7" xr3:uid="{EEA224EE-B017-42F5-A417-487E2B86AD5D}" name="ID_Item">
       <calculatedColumnFormula>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{FF9AC4B3-0AB1-43C0-813C-9F0FBFCD27C3}" name="NomeBusca" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{A4280A1D-29DF-4DF8-BAEB-74D735392255}" name="PrescricaoCompleta" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{1C09888C-F0B3-445C-96A7-59EF6CBB8977}" name="Categoria" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{E1DAEFD1-96A5-4769-95CA-789E157CF235}" name="Doenca" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{FF9AC4B3-0AB1-43C0-813C-9F0FBFCD27C3}" name="NomeBusca" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{A4280A1D-29DF-4DF8-BAEB-74D735392255}" name="PrescricaoCompleta" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{1C09888C-F0B3-445C-96A7-59EF6CBB8977}" name="Categoria" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{E1DAEFD1-96A5-4769-95CA-789E157CF235}" name="Doenca" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{00D107C9-5770-4523-8A77-BC2E8CCDFA3F}" name="OrdemPrioridade"/>
     <tableColumn id="6" xr3:uid="{A2A03C33-701E-4A02-84BD-0D3C40E0270C}" name="FormaFarmaceutica"/>
     <tableColumn id="8" xr3:uid="{037F36DC-527F-4AE8-A6F4-3169AA433215}" name="isCalculable"/>
@@ -2625,103 +3362,145 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9BC025B4-0C86-43DA-9BA8-AD95BA9033CF}" name="Tabela7" displayName="Tabela7" ref="A1:B20" totalsRowShown="0">
+  <autoFilter ref="A1:B20" xr:uid="{9BC025B4-0C86-43DA-9BA8-AD95BA9033CF}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{CFD77929-9554-43BE-908D-A85767D19E05}" name="Horario"/>
+    <tableColumn id="2" xr3:uid="{371D9874-4C27-4E8A-9C60-1E16D092C8FD}" name="Descricao"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7B1BCF4E-F9B8-4BCA-9A1B-734209B09515}" name="Tabela2" displayName="Tabela2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7B1BCF4E-F9B8-4BCA-9A1B-734209B09515}" name="Tabela2" displayName="Tabela2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
   <autoFilter ref="A1:E6" xr:uid="{7B1BCF4E-F9B8-4BCA-9A1B-734209B09515}"/>
   <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{3B85112C-C948-4532-A5A9-B2DC134B2714}" name="ID_Item" dataDxfId="41">
+    <tableColumn id="5" xr3:uid="{3B85112C-C948-4532-A5A9-B2DC134B2714}" name="ID_Item" dataDxfId="44">
       <calculatedColumnFormula>ROW() - ROW(Tabela2[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{294ACE13-D92E-4E83-AE9A-884FBB3BAD21}" name="NomeBusca" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{57C4FF43-CE4E-4A4E-A745-1D12588CAE36}" name="ConteudoTexto" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{1B0E7410-6713-475C-9274-E8D53C220050}" name="Categoria" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{E775B5FA-D905-41A5-AF49-15CA3264FA30}" name="OrdemPrioridade" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{294ACE13-D92E-4E83-AE9A-884FBB3BAD21}" name="NomeBusca" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{57C4FF43-CE4E-4A4E-A745-1D12588CAE36}" name="ConteudoTexto" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{1B0E7410-6713-475C-9274-E8D53C220050}" name="Categoria" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{E775B5FA-D905-41A5-AF49-15CA3264FA30}" name="OrdemPrioridade" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F1B6F081-4196-40D7-9E1B-E18AC00A544A}" name="Tabela57" displayName="Tabela57" ref="A1:E9" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F1B6F081-4196-40D7-9E1B-E18AC00A544A}" name="Tabela57" displayName="Tabela57" ref="A1:E9" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A1:E9" xr:uid="{F1B6F081-4196-40D7-9E1B-E18AC00A544A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E9">
     <sortCondition ref="E1:E9"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{255D6023-30BF-414A-B3B5-09A8AED4AD40}" name="ID_Item" dataDxfId="34">
+    <tableColumn id="5" xr3:uid="{255D6023-30BF-414A-B3B5-09A8AED4AD40}" name="ID_Item" dataDxfId="37">
       <calculatedColumnFormula>ROW() - ROW(Tabela57[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{8C75D187-576A-41EF-9BC9-337001D161C6}" name="NomeBusca" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{7A836061-FA92-4D6E-A1CB-B0A3080FF4E2}" name="ConteudoTexto" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{9C7516CD-131C-4A90-BC19-727B1919928E}" name="Categoria" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{D9BE6F3B-192E-46DB-ADBD-41AC809A383A}" name="OrdemPrioridade" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{8C75D187-576A-41EF-9BC9-337001D161C6}" name="NomeBusca" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{7A836061-FA92-4D6E-A1CB-B0A3080FF4E2}" name="ConteudoTexto" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{9C7516CD-131C-4A90-BC19-727B1919928E}" name="Categoria" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{D9BE6F3B-192E-46DB-ADBD-41AC809A383A}" name="OrdemPrioridade" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4EB17778-C096-4FB9-8CEA-CBC90E8CC8E2}" name="Tabela8" displayName="Tabela8" ref="A1:E6" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4EB17778-C096-4FB9-8CEA-CBC90E8CC8E2}" name="Tabela8" displayName="Tabela8" ref="A1:E6" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <autoFilter ref="A1:E6" xr:uid="{4EB17778-C096-4FB9-8CEA-CBC90E8CC8E2}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C07F2220-FEC5-4C0B-AB14-F80860FCB6A0}" name="ID_Item" dataDxfId="27">
+    <tableColumn id="1" xr3:uid="{C07F2220-FEC5-4C0B-AB14-F80860FCB6A0}" name="ID_Item" dataDxfId="30">
       <calculatedColumnFormula>ROW() - ROW(Tabela5[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F6AB2AED-7D50-4A14-A3D8-3D697CD7C3E6}" name="NomeBusca" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{24DCE466-5828-477A-94D8-8B94F125CA52}" name="ConteudoTexto" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{544BC52C-0699-476B-9E91-F8010861B484}" name="Categoria" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{0A44EF13-A692-417E-90F4-EEE1E0C399BB}" name="OrdemPrioridade" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{F6AB2AED-7D50-4A14-A3D8-3D697CD7C3E6}" name="NomeBusca" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{24DCE466-5828-477A-94D8-8B94F125CA52}" name="ConteudoTexto" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{544BC52C-0699-476B-9E91-F8010861B484}" name="Categoria" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{0A44EF13-A692-417E-90F4-EEE1E0C399BB}" name="OrdemPrioridade" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B195B058-C443-4C22-BFDA-1A6D6B3BD53F}" name="Tabela3" displayName="Tabela3" ref="A1:D7" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B195B058-C443-4C22-BFDA-1A6D6B3BD53F}" name="Tabela3" displayName="Tabela3" ref="A1:D7" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A1:D7" xr:uid="{B195B058-C443-4C22-BFDA-1A6D6B3BD53F}"/>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{30594E46-81AD-44D9-A464-0DDB2405FA5F}" name="ID_Item" dataDxfId="20">
+    <tableColumn id="4" xr3:uid="{30594E46-81AD-44D9-A464-0DDB2405FA5F}" name="ID_Item" dataDxfId="23">
       <calculatedColumnFormula>ROW() - ROW(Tabela3[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{CC635276-E45D-489A-B013-B9CB28D05F73}" name="NomeBusca" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{C4152665-161D-4E06-A92A-C044706FA22B}" name="ConteudoTexto" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{D73DEA13-D731-4A85-9704-AF815ADF8ECA}" name="Categoria" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{CC635276-E45D-489A-B013-B9CB28D05F73}" name="NomeBusca" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{C4152665-161D-4E06-A92A-C044706FA22B}" name="ConteudoTexto" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{D73DEA13-D731-4A85-9704-AF815ADF8ECA}" name="Categoria" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BF31387E-C94D-4214-90A7-3EA03A21E459}" name="Tabela4" displayName="Tabela4" ref="A1:D8" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BF31387E-C94D-4214-90A7-3EA03A21E459}" name="Tabela4" displayName="Tabela4" ref="A1:D8" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:D8" xr:uid="{BF31387E-C94D-4214-90A7-3EA03A21E459}"/>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{B03251EF-71D3-4778-9397-49B077E4BE95}" name="ID_Item" dataDxfId="14">
+    <tableColumn id="4" xr3:uid="{B03251EF-71D3-4778-9397-49B077E4BE95}" name="ID_Item" dataDxfId="17">
       <calculatedColumnFormula>ROW() - ROW(Tabela4[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{4E29BBAD-C1D6-4B95-B61D-6D2ACC75817D}" name="NomeBusca" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{E987E83A-5D1B-4FBA-B949-173B3B767BC5}" name="ConteudoTexto" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{5CEF5F95-0ACE-4A9D-B37D-26E33FA9BC59}" name="Categoria" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{4E29BBAD-C1D6-4B95-B61D-6D2ACC75817D}" name="NomeBusca" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{E987E83A-5D1B-4FBA-B949-173B3B767BC5}" name="ConteudoTexto" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{5CEF5F95-0ACE-4A9D-B37D-26E33FA9BC59}" name="Categoria" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{913B8A45-8E4C-40E3-89AF-FB1299E38DDE}" name="Tabela5" displayName="Tabela5" ref="A1:E8" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{913B8A45-8E4C-40E3-89AF-FB1299E38DDE}" name="Tabela5" displayName="Tabela5" ref="A1:E8" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:E8" xr:uid="{913B8A45-8E4C-40E3-89AF-FB1299E38DDE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
     <sortCondition ref="E1:E8"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{FE4827F2-FADA-4522-96C6-C15115BA8429}" name="ID_Item" dataDxfId="8">
+    <tableColumn id="5" xr3:uid="{FE4827F2-FADA-4522-96C6-C15115BA8429}" name="ID_Item" dataDxfId="11">
       <calculatedColumnFormula>ROW() - ROW(Tabela5[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{2E3E19EF-E8C4-4174-A6DD-FE62A883B65B}" name="NomeBusca" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{A403427C-6D7B-4CAC-8A29-52B0496C1B55}" name="ConteudoTexto" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{495ABE71-9083-4D12-B7AF-769A1DE8A329}" name="Categoria" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{B52F07B3-9EB3-4432-9961-0DC5F0D7CABC}" name="OrdemPrioridade" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{2E3E19EF-E8C4-4174-A6DD-FE62A883B65B}" name="NomeBusca" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{A403427C-6D7B-4CAC-8A29-52B0496C1B55}" name="ConteudoTexto" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{495ABE71-9083-4D12-B7AF-769A1DE8A329}" name="Categoria" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{B52F07B3-9EB3-4432-9961-0DC5F0D7CABC}" name="OrdemPrioridade" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{ACBDBD77-4F47-4470-9066-42382BF03E43}" name="Tabela10" displayName="Tabela10" ref="A1:I13" totalsRowShown="0">
+  <autoFilter ref="A1:I13" xr:uid="{ACBDBD77-4F47-4470-9066-42382BF03E43}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{CF3203F3-4CFD-4D66-B74A-BC12D8F80FFA}" name="ID">
+      <calculatedColumnFormula>ROW() - ROW(Tabela10[[#Headers],[ID]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{F0A4A9FD-374C-4C54-BB2A-5F28D41CC94F}" name="Categoria"/>
+    <tableColumn id="3" xr3:uid="{FFABFB1D-C8F4-405B-AEE9-D9AD9763CC53}" name="ItemPrincipal"/>
+    <tableColumn id="4" xr3:uid="{A34F1342-A7E3-4126-AD78-872FBDC5E7F9}" name="TipoItem"/>
+    <tableColumn id="5" xr3:uid="{713B817B-AFCD-41AC-9811-678098C3DAA2}" name="Apresentacoes"/>
+    <tableColumn id="6" xr3:uid="{51FD07B6-C473-44E8-86E2-4ADD006B84FE}" name="UnidadesDose"/>
+    <tableColumn id="7" xr3:uid="{27DD1729-7493-4AFC-BA0D-C3C0C3F7994C}" name="DescricaoCompleta"/>
+    <tableColumn id="8" xr3:uid="{25028A68-0087-4AD4-8FAB-FDB2744115FA}" name="PrescricoesPadronizadasJSON"/>
+    <tableColumn id="9" xr3:uid="{78D527DD-27A2-4C60-B2BB-5C8F58225E77}" name="ObservacaoPadrao"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{08C68780-8D11-4E55-B88C-5F8138D4CC5D}" name="Tabela9" displayName="Tabela9" ref="A1:B12" totalsRowShown="0" tableBorderDxfId="2">
+  <autoFilter ref="A1:B12" xr:uid="{08C68780-8D11-4E55-B88C-5F8138D4CC5D}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{150208FE-C1A4-49E1-81FF-1AA10AF0B961}" name="Sigla" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{79FC3213-8BF9-487D-8478-621C9C80380A}" name="Nome" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -3043,10 +3822,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE9DEBA-C453-4102-816C-FDB2AD0D57A3}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:V158"/>
+  <dimension ref="A1:V159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D138" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F147" sqref="F147"/>
+    <sheetView topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7423,11 +8202,217 @@
         <v>500</v>
       </c>
     </row>
+    <row r="159" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>158</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G159" t="s">
+        <v>257</v>
+      </c>
+      <c r="H159" t="s">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960A8748-E94B-4690-B759-C2243F7BF2D9}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>591</v>
+      </c>
+      <c r="B3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>592</v>
+      </c>
+      <c r="B4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>593</v>
+      </c>
+      <c r="B5" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>594</v>
+      </c>
+      <c r="B6" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>595</v>
+      </c>
+      <c r="B7" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>596</v>
+      </c>
+      <c r="B8" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>597</v>
+      </c>
+      <c r="B9" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>598</v>
+      </c>
+      <c r="B10" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>599</v>
+      </c>
+      <c r="B11" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>622</v>
+      </c>
+      <c r="B12" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>624</v>
+      </c>
+      <c r="B13" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>600</v>
+      </c>
+      <c r="B14" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>602</v>
+      </c>
+      <c r="B15" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>604</v>
+      </c>
+      <c r="B16" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>606</v>
+      </c>
+      <c r="B17" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>608</v>
+      </c>
+      <c r="B18" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>610</v>
+      </c>
+      <c r="B19" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>612</v>
+      </c>
+      <c r="B20" t="s">
+        <v>613</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
@@ -8152,7 +9137,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8303,4 +9288,417 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFFD9FF-690D-4767-9960-BAF8E0E731BC}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D1" t="s">
+        <v>551</v>
+      </c>
+      <c r="E1" t="s">
+        <v>552</v>
+      </c>
+      <c r="F1" t="s">
+        <v>553</v>
+      </c>
+      <c r="G1" t="s">
+        <v>554</v>
+      </c>
+      <c r="H1" t="s">
+        <v>555</v>
+      </c>
+      <c r="I1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>ROW() - ROW(Tabela10[[#Headers],[ID]])</f>
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>558</v>
+      </c>
+      <c r="E2" t="s">
+        <v>561</v>
+      </c>
+      <c r="F2" t="s">
+        <v>562</v>
+      </c>
+      <c r="H2" s="12" t="e" cm="1" vm="1">
+        <f t="array" ref="H2">_xlfn._xlws.PY(0,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>ROW() - ROW(Tabela10[[#Headers],[ID]])</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>573</v>
+      </c>
+      <c r="C3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D3" t="s">
+        <v>560</v>
+      </c>
+      <c r="G3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>ROW() - ROW(Tabela10[[#Headers],[ID]])</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>ROW() - ROW(Tabela10[[#Headers],[ID]])</f>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>565</v>
+      </c>
+      <c r="C5" t="s">
+        <v>566</v>
+      </c>
+      <c r="D5" t="s">
+        <v>560</v>
+      </c>
+      <c r="G5" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>ROW() - ROW(Tabela10[[#Headers],[ID]])</f>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>565</v>
+      </c>
+      <c r="C6" t="s">
+        <v>566</v>
+      </c>
+      <c r="D6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G6" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>ROW() - ROW(Tabela10[[#Headers],[ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>557</v>
+      </c>
+      <c r="C7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" t="s">
+        <v>558</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="F7" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>ROW() - ROW(Tabela10[[#Headers],[ID]])</f>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>557</v>
+      </c>
+      <c r="C8" t="s">
+        <v>571</v>
+      </c>
+      <c r="D8" t="s">
+        <v>558</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="F8" t="s">
+        <v>572</v>
+      </c>
+      <c r="H8" s="12" t="e" cm="1" vm="2">
+        <f t="array" ref="H8">_xlfn._xlws.PY(1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>ROW() - ROW(Tabela10[[#Headers],[ID]])</f>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>557</v>
+      </c>
+      <c r="C9" t="s">
+        <v>574</v>
+      </c>
+      <c r="D9" t="s">
+        <v>558</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="F9" t="s">
+        <v>577</v>
+      </c>
+      <c r="H9" t="e" cm="1" vm="3">
+        <f t="array" ref="H9">_xlfn._xlws.PY(2,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>ROW() - ROW(Tabela10[[#Headers],[ID]])</f>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>557</v>
+      </c>
+      <c r="C10" t="s">
+        <v>578</v>
+      </c>
+      <c r="D10" t="s">
+        <v>558</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>580</v>
+      </c>
+      <c r="F10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>ROW() - ROW(Tabela10[[#Headers],[ID]])</f>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>565</v>
+      </c>
+      <c r="C11" t="s">
+        <v>581</v>
+      </c>
+      <c r="D11" t="s">
+        <v>560</v>
+      </c>
+      <c r="G11" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>ROW() - ROW(Tabela10[[#Headers],[ID]])</f>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>565</v>
+      </c>
+      <c r="C12" t="s">
+        <v>583</v>
+      </c>
+      <c r="D12" t="s">
+        <v>560</v>
+      </c>
+      <c r="G12" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>ROW() - ROW(Tabela10[[#Headers],[ID]])</f>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>585</v>
+      </c>
+      <c r="C13" t="s">
+        <v>585</v>
+      </c>
+      <c r="D13" t="s">
+        <v>560</v>
+      </c>
+      <c r="G13" t="s">
+        <v>586</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAEBC3F-9249-4D7D-8804-A8B285799DAA}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>539</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>543</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>588</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>548</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>587</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>626</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>627</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>628</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>629</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>629</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/script-excel-para-json/input/prescricoes.xlsx
+++ b/script-excel-para-json/input/prescricoes.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1AC289667D0E8CCD/Documentos/Saúde/Prescrições/Prescrição_python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2037" documentId="13_ncr:1_{243FE48A-7C6A-41E4-8FFF-32D7F4E6C3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD58D4C6-099C-4958-BCEC-68E9B32D6334}"/>
+  <xr:revisionPtr revIDLastSave="2396" documentId="13_ncr:1_{243FE48A-7C6A-41E4-8FFF-32D7F4E6C3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EFAAB7E-B676-4E43-8038-6689DBE959E8}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" firstSheet="5" activeTab="9" xr2:uid="{4C639DE4-733A-4E7F-8720-AC3921A2C161}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" firstSheet="2" activeTab="7" xr2:uid="{4C639DE4-733A-4E7F-8720-AC3921A2C161}"/>
   </bookViews>
   <sheets>
-    <sheet name="Medicamentos" sheetId="1" r:id="rId1"/>
+    <sheet name="Para_casa" sheetId="1" r:id="rId1"/>
     <sheet name="ExameFisicos" sheetId="2" r:id="rId2"/>
     <sheet name="Evolucoes" sheetId="6" r:id="rId3"/>
     <sheet name="Kit_medicamentos" sheetId="7" r:id="rId4"/>
     <sheet name="Procedimentos" sheetId="3" r:id="rId5"/>
     <sheet name="Orientacoes" sheetId="4" r:id="rId6"/>
     <sheet name="Outros" sheetId="5" r:id="rId7"/>
-    <sheet name="PortaEInternacao" sheetId="10" r:id="rId8"/>
+    <sheet name="Sala_de_medicacao_e_Internacao" sheetId="10" r:id="rId8"/>
     <sheet name="ViasDeAdministracao" sheetId="8" r:id="rId9"/>
     <sheet name="Aprazamentos" sheetId="9" r:id="rId10"/>
   </sheets>
@@ -28,6 +28,7 @@
     <definedName name="Renovação_receita" localSheetId="6">Outros!$D$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,63 +48,6 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="2">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="3">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="2"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="5"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="6"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-  <valueMetadata count="3">
-    <bk>
-      <rc t="2" v="0"/>
-    </bk>
-    <bk>
-      <rc t="2" v="1"/>
-    </bk>
-    <bk>
-      <rc t="2" v="2"/>
-    </bk>
-  </valueMetadata>
-</metadata>
-</file>
-
 <file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
 <python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
   <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
@@ -121,73 +65,11 @@
 </code>
     </initialization>
   </environmentDefinition>
-  <pythonScripts>
-    <pythonScript>
-      <code>[
-  {
-    "nome": "Ceftriaxona 1g 12/12h",
-    "texto": "Ceftriaxona 1g, 1g (1 frasco), EV, 12/12h",
-    "componentes": [
-      {
-        "item": "Cloreto de sódio à 0,9%%",
-        "dose": "100",
-        "unidade": "ml"
-      }
-    ]
-  },
-  {
-    "nome": "Ceftriaxona 2g 24/24h",
-    "texto": "Ceftriaxona 1g, 2g (2 frascos), EV, 24/24h"
-  }
-]</code>
-    </pythonScript>
-    <pythonScript>
-      <code>[
-  {
-    "nome": "Fentanil 10 mcg BIC",
-    "texto": "Fentanil 50 mcg/ml, 20 ml, BIC, vazão ACM. Concentração: 10 mcg/ml",
-    "componentes":[
-      {
-        "item": "Glicose à 5%%",
-        "dose": "80",
-        "unidade": "ml"
-      }
-                  ]
-  },
-]</code>
-    </pythonScript>
-    <pythonScript>
-      <code>[
-    {
-    "nome": "Midazolam 1 mg/ml BIC (150 ml)",
-    "texto": "Midazolam 5 mg/ml, 30 ml, BIC, vazão ACM. Concentração: 1 mg/ml",
-    "componentes":[
-      {
-        "item": "SF 0,9%% ou SG 5%%",
-        "dose": "120",
-        "unidade": "ml"
-      }
-                  ]
-    },
-    {
-    "nome": "Midazolam 1 mg/ml BIC (250ml)",
-    "texto": "Midazolam 5 mg/ml, 50 ml, BIC, vazão ACM. Concentração: 1 mg/ml",
-    "componentes":[
-        {
-        "item": "SF 0,9%% ou SG 5%%",
-        "dose": "200",
-        "unidade": "ml"
-        }
-                    ]
-    },
-]</code>
-    </pythonScript>
-  </pythonScripts>
 </python>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="722">
   <si>
     <t>NomeBusca</t>
   </si>
@@ -2375,28 +2257,16 @@
     <t>Simples</t>
   </si>
   <si>
-    <t>1g/frasco</t>
-  </si>
-  <si>
     <t>g; mg</t>
   </si>
   <si>
     <t>Dieta via oral</t>
   </si>
   <si>
-    <t>Monitorização</t>
-  </si>
-  <si>
     <t>Cuidados da enfermagem</t>
   </si>
   <si>
     <t>Sinais vitais</t>
-  </si>
-  <si>
-    <t>Sinais vitais de 2 em 2 horas</t>
-  </si>
-  <si>
-    <t>Sinais vitais de 6 em 6 horas</t>
   </si>
   <si>
     <t>25 mg Comp;
@@ -2426,21 +2296,9 @@
 50 mcg/ml Amp 2 ml</t>
   </si>
   <si>
-    <t>mg; ml</t>
-  </si>
-  <si>
     <t>Cloreto de sódio</t>
   </si>
   <si>
-    <t>ml; frasco</t>
-  </si>
-  <si>
-    <t>0,9% (100 ml);
-0,9% (250 ml);
-0,9% (500 ml);
-0,9% (1000 ml);</t>
-  </si>
-  <si>
     <t>Cuidados com posicionamento</t>
   </si>
   <si>
@@ -2594,7 +2452,472 @@
     <t>Descricao</t>
   </si>
   <si>
-    <t>Correr em 30 minutos</t>
+    <t>Infundir em 30 minutos</t>
+  </si>
+  <si>
+    <t>500 mg/ml solução oral;
+500 mg/ml Amp 2 ml</t>
+  </si>
+  <si>
+    <t>ACM</t>
+  </si>
+  <si>
+    <t>À critério médico</t>
+  </si>
+  <si>
+    <t>Em jejum</t>
+  </si>
+  <si>
+    <t>Após almoço</t>
+  </si>
+  <si>
+    <t>Manhã</t>
+  </si>
+  <si>
+    <t>Tarde</t>
+  </si>
+  <si>
+    <t>Noite</t>
+  </si>
+  <si>
+    <t>[
+	{
+		"nome": "Fentanil 10 mcg BIC",
+		"texto": "Fentanil 50 mcg/ml, 20 ml, BIC, vazão ACM. Concentração: 10 mcg/ml",
+		"componentes":	[
+			{
+				"item": "Glicose à 5%",
+				"dose": "80",
+				"unidade": "ml"
+			}
+					]
+	}
+]</t>
+  </si>
+  <si>
+    <t>25 mg/ml Amp 3</t>
+  </si>
+  <si>
+    <t>[
+	{
+		"nome": "Diclofenaco 75mg agora",
+		"texto": "Diclofenaco 25 mg/ml, 3 ml, IM, agora"
+	}
+]</t>
+  </si>
+  <si>
+    <t>5 mg/ml Amp 2 ml</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "nome": "Ceftriaxona 1g 12/12h",
+        "texto": "Ceftriaxona 1g, 1g (1 frasco), EV, 12/12h",
+        "componentes": [
+            {
+                "item": "Cloreto de sódio à 0,9%",
+                "dose": "100",
+                "unidade": "ml"
+            }
+        ],
+        "observacao": "Infundir em 30 minutos"
+    },
+    {
+        "nome": "Ceftriaxona 2g 24/24h",
+        "texto": "Ceftriaxona 1g, 2g (2 frascos), EV, 24/24h",
+        "componentes": [
+            {
+                "item": "Cloreto de sódio à 0,9%",
+                "dose": "100",
+                "unidade": "ml"
+            }
+        ],
+        "observacao": "Infundir em 30 minutos"
+    }
+]</t>
+  </si>
+  <si>
+    <t>25 mg/ml Amp 2 ml</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "nome": "Midazolam 1 mg/ml BIC (150 ml)",
+        "texto": "Midazolam 5 mg/ml, 30 ml, BIC, vazão ACM. Concentração: 1 mg/ml",
+        "componentes": [
+            {
+                "item": "SF 0,9% ou SG 5%",
+                "dose": "120",
+                "unidade": "ml"
+            }
+        ]
+    },
+    {
+        "nome": "Midazolam 1 mg/ml BIC (250ml)",
+        "texto": "Midazolam 5 mg/ml, 50 ml, BIC, vazão ACM. Concentração: 1 mg/ml",
+        "componentes": [
+            {
+                "item": "SF 0,9% ou SG 5%",
+                "dose": "200",
+                "unidade": "ml"
+            }
+        ]
+    },
+    {
+        "nome": "Midazolam 10 mg IM agora",
+        "texto": "Midazolam 5 mg/ml, 2ml, IM, agora"
+    }
+]</t>
+  </si>
+  <si>
+    <t>20 mg/ml Amp 1 ml</t>
+  </si>
+  <si>
+    <t>1g Amp Pó</t>
+  </si>
+  <si>
+    <t>20 mg Amp pó</t>
+  </si>
+  <si>
+    <t>mg; ampola</t>
+  </si>
+  <si>
+    <t>[
+	{
+		"nome": "Tenoxicam 20mg agora",
+		"texto": "Tenoxicam 20 mg, 20 mg (1 ampola), EV, agora"
+	}
+]</t>
+  </si>
+  <si>
+    <t>4 mg/ml Amp 2,5 ml</t>
+  </si>
+  <si>
+    <t>[
+	{
+		"nome": "Dexametasona 10mg IM agora",
+		"texto": "Dexametasona 4 mg/ml, 2,5ml (1 ampola), IM, agora"
+	}
+]</t>
+  </si>
+  <si>
+    <t>Clonazepam</t>
+  </si>
+  <si>
+    <t>2,5 mg/ml Solução oral</t>
+  </si>
+  <si>
+    <t>gotas; mg</t>
+  </si>
+  <si>
+    <t>[
+	{
+		"nome": "Clonazepam  6 gotas agora",
+		"texto": "Clonazepam 2,5 mg/ml, 6 gotas, VO, agora"
+	}
+]</t>
+  </si>
+  <si>
+    <t>Diazepam</t>
+  </si>
+  <si>
+    <t>5  mg/ml Amp 2 ml</t>
+  </si>
+  <si>
+    <t>ml; mg</t>
+  </si>
+  <si>
+    <t>[
+	{
+		"nome": "Midazolam 10 mg EV agora",
+		"texto": "Midazolam 5 mg/ml, 2 ml em 10 ml de ABD, EV, lento, agora",
+		"observacao": "Infundir em 3 minutos"
+	}
+]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penicilina benzatina </t>
+  </si>
+  <si>
+    <t>1,2M de U Amp pó</t>
+  </si>
+  <si>
+    <t>UI; ampola</t>
+  </si>
+  <si>
+    <t>[
+	{
+		"nome": "Penicilina benzatina 1,2M UI IM agora",
+		"texto": "Penicilina benzatina 1,2 M UI, aplicar 1,2 M UI (1 ampola), IM, agora"
+	}
+]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insulina humana regular </t>
+  </si>
+  <si>
+    <t>100 UI/ml Amp 10 ml</t>
+  </si>
+  <si>
+    <t>UI; ml</t>
+  </si>
+  <si>
+    <t>[
+	{
+		"nome": "Insulina humana regular SC 4/4h se necessário",
+		"texto": "Insulina humana regular, SC, 4/4h, se glicemia capilar: 200-250: aplicar 2 UI / 250-300: aplicar 4 UI / 300-350: aplicar 6 UI / 350-400: aplicar 8 UI / &gt; 400: solicitar avaliação médica"
+	}
+]</t>
+  </si>
+  <si>
+    <t>Glicose</t>
+  </si>
+  <si>
+    <t>ml; ampola; L</t>
+  </si>
+  <si>
+    <t>ml; frasco; L</t>
+  </si>
+  <si>
+    <t>0,9% Bolsa 100 ml;
+0,9% Bolsa 250 ml;
+0,9% Bolsa 500 ml;
+0,9% Bolsa 1000 ml;
+20 % Amp 10 ml</t>
+  </si>
+  <si>
+    <t>50% Amp 10 ml;
+5% Bolsa 250 ml;
+5% Bolsa 500 ml;
+10% Bolsa 250 ml;
+10% Bolsa 500 ml</t>
+  </si>
+  <si>
+    <t>Restrição no leito</t>
+  </si>
+  <si>
+    <t>Repouso absoluto no leito</t>
+  </si>
+  <si>
+    <t>Repouso relativo no leito</t>
+  </si>
+  <si>
+    <t>Contenção física no leito</t>
+  </si>
+  <si>
+    <t>Controle glicêmico</t>
+  </si>
+  <si>
+    <t>Controles glicêmicos a cada 4/4h</t>
+  </si>
+  <si>
+    <t>Acído acetilsalicílico</t>
+  </si>
+  <si>
+    <t>100 mg Comp</t>
+  </si>
+  <si>
+    <t>mg; comp</t>
+  </si>
+  <si>
+    <t>Clopidogrel</t>
+  </si>
+  <si>
+    <t>75 mg Comp</t>
+  </si>
+  <si>
+    <t>Amiodarona</t>
+  </si>
+  <si>
+    <t>50 mg/ml Amp 3 ml</t>
+  </si>
+  <si>
+    <t>Atropina</t>
+  </si>
+  <si>
+    <t>0,25 mg/ml Amp 1 ml;
+0,5 mg/ml Amp 1ml</t>
+  </si>
+  <si>
+    <t>Adenosina</t>
+  </si>
+  <si>
+    <t>3 mg/ml Ampo 2 ml</t>
+  </si>
+  <si>
+    <t>100 mcg</t>
+  </si>
+  <si>
+    <t>mcg; jatos</t>
+  </si>
+  <si>
+    <t>0,25 mg/ml Solução para nebulização</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidrocortisona </t>
+  </si>
+  <si>
+    <t>100 mg Amp pó</t>
+  </si>
+  <si>
+    <t>mg, ampola</t>
+  </si>
+  <si>
+    <t>Sulfato de magnésio</t>
+  </si>
+  <si>
+    <t>10% Amp 10 ml;
+20% Amp 10 ml;
+50% Amp 10 ml</t>
+  </si>
+  <si>
+    <t>Morfina</t>
+  </si>
+  <si>
+    <t>10 mg/ml Amp 1 ml</t>
+  </si>
+  <si>
+    <t>Carvão ativado</t>
+  </si>
+  <si>
+    <t>25 g Envelope</t>
+  </si>
+  <si>
+    <t>g; envelope</t>
+  </si>
+  <si>
+    <t>Cloreto de potássio</t>
+  </si>
+  <si>
+    <t>10% Amp 10 ml;
+19,1% Amp 10 ml</t>
+  </si>
+  <si>
+    <t>ml; mg; ampola</t>
+  </si>
+  <si>
+    <t>ml; mg; g; ampola</t>
+  </si>
+  <si>
+    <t>gotas; ml; mg</t>
+  </si>
+  <si>
+    <t>mg; ml; ampola</t>
+  </si>
+  <si>
+    <t>Haloperidol</t>
+  </si>
+  <si>
+    <t>5 mg/ml Amp 1 ml</t>
+  </si>
+  <si>
+    <t>Norepinefrina</t>
+  </si>
+  <si>
+    <t>1 mg/ml Amp 4 ml</t>
+  </si>
+  <si>
+    <t>Nitroprussiato</t>
+  </si>
+  <si>
+    <t>Dobutamina</t>
+  </si>
+  <si>
+    <t>12,5 mg/ml Amp 20 ml</t>
+  </si>
+  <si>
+    <t>Dopamina</t>
+  </si>
+  <si>
+    <t>5 mg/ml Amp 10 ml</t>
+  </si>
+  <si>
+    <t>[
+	{
+		"nome": "Bromoprida 10 mg agora",
+		"texto": "Bromoprida 5 mg/ml, 2ml, EV, agora"
+	},
+	{
+		"nome": "Bromoprida 10 mg 6/6h se necessário",
+		"texto": "Bromoprida 5 mg/ml, 2 ml, EV, 8/8h, se náuseas ou vômitos"
+	}
+]</t>
+  </si>
+  <si>
+    <t>[
+	{
+		"nome": "Dipirona 1g agora",
+		"texto": "Dipirona 500 mg/ml, 2ml, EV, agora"
+	},
+	{
+		"nome": "Dipirona 1g 6/6h se necessário",
+		"texto": "Dipirona 500 mg/ml, 2 ml, EV, de 6/6h, se dor ou febre"
+	}
+]</t>
+  </si>
+  <si>
+    <t>[
+	{
+		"nome": "Escopolamina 20 mg agora",
+		"texto": "Escopolamina 20 mg/ml, 1 ml, EV, agora"
+	},
+	{
+		"nome": "Escopolamina 20 mg 6/6h se necessário",
+		"texto": "Escopolamina 20 mg/ml, 1 ml, EV, 6/6h, se dor abdominal"
+	}
+]</t>
+  </si>
+  <si>
+    <t>[
+	{
+		"nome": "Prometazina 50 mg IM agora",
+		"texto": "Prometazina 25 mg/ml, 2ml, IM, agora"
+	},
+	{
+		"nome": "Prometazina 50 mg IM 12/12h",
+		"texto": "Prometazina 25 mg/ml, 2ml, IM, 12/12h"
+	}
+]</t>
+  </si>
+  <si>
+    <t>[
+	{
+		"nome": "Glicose à 50% 40 ml EV agora",
+		"texto": "Glicose à 50%, 40 ml, EV, bolus, se HGT &lt; 70. Observação: comunicar o médico"
+	},
+	{
+		"nome": "Glicose à 50% 40 ml EV se necessário",
+		"texto": "Glicose à 50%, 40 ml, EV, bolus, se HGT &lt; 70" ,
+		"observacao": "comunicar o médico(a)"
+	}
+]</t>
+  </si>
+  <si>
+    <t>[
+	{
+		"nome": "Metoclopramida 10 mg agora",
+		"texto": "Metoclopramida 5 mg/ml, 2ml em 8 ml de ABD, EV, lento, agora"
+	},
+	{
+		"nome": "Metoclopramida 10 mg 8/8h se necessário",
+		"texto": "Metoclopramida 5 mg/ml, 2 ml diluído em 8 ml de ABD, EV, lento, 8/8h, se náuseas ou vômitos"
+	}
+]</t>
+  </si>
+  <si>
+    <t>Aferir sinais vitais</t>
+  </si>
+  <si>
+    <t>[
+	{
+		"nome": "SSVV 2/2h",
+		"texto": "Aferir sinais vitais de 2 em 2 horas"
+	},
+	{
+		"nome": "SSVV 6/6h",
+		"texto": "Aferir sinais vitais de 6 em 6 horas"
+	}
+]</t>
   </si>
 </sst>
 </file>
@@ -2640,7 +2963,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2659,8 +2982,14 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2716,11 +3045,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2771,20 +3109,302 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="58">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2855,18 +3475,6 @@
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3146,6 +3754,18 @@
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3163,183 +3783,20 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
-<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="2">
-  <a r="2">
-    <v t="s">&lt;dict&gt;</v>
-    <v t="s">&lt;dict&gt;</v>
-  </a>
-  <a r="1">
-    <v t="s">&lt;dict&gt;</v>
-  </a>
-</arrayData>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="7">
-  <rv s="0">
-    <v>0</v>
-  </rv>
-  <rv s="1">
-    <v>list</v>
-    <v>1</v>
-    <v>0</v>
-  </rv>
-  <rv s="2">
-    <v>&lt;class 'list'&gt;</v>
-    <v>list</v>
-    <v>[{'nome': 'Ceftriaxona 1g 12/12h', 'texto': 'Ceftriaxona 1g, 1g (1 frasco), EV, 12/12h', 'componentes': [{'item': 'Cloreto de sódio à 0,9%', 'dose': '100', 'unidade': 'ml'}]}, {'nome': 'Ceftriaxona 2g 24/24h', 'texto': 'Ceftriaxona 1g, 2g (2 frascos), ...</v>
-    <v>1</v>
-    <v>2</v>
-  </rv>
-  <rv s="0">
-    <v>1</v>
-  </rv>
-  <rv s="1">
-    <v>list</v>
-    <v>4</v>
-    <v>3</v>
-  </rv>
-  <rv s="2">
-    <v>&lt;class 'list'&gt;</v>
-    <v>list</v>
-    <v>[{'nome': 'Fentanil 10 mcg BIC', 'texto': 'Fentanil 50 mcg/ml, 20 ml, BIC, vazão ACM. Concentração: 10 mcg/ml', 'componentes': [{'item': 'Glicose à 5%', 'dose': '80', 'unidade': 'ml'}]}]</v>
-    <v>4</v>
-    <v>2</v>
-  </rv>
-  <rv s="2">
-    <v>&lt;class 'list'&gt;</v>
-    <v>list</v>
-    <v>[{'nome': 'Midazolam 1 mg/ml BIC (150 ml)', 'texto': 'Midazolam 5 mg/ml, 30 ml, BIC, vazão ACM. Concentração: 1 mg/ml', 'componentes': [{'item': 'SF 0,9% ou SG 5%', 'dose': '120', 'unidade': 'ml'}]}, {'nome': 'Midazolam 1 mg/ml BIC (250ml)', 'texto': '...</v>
-    <v>1</v>
-    <v>2</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
-  <s t="_array">
-    <k n="array" t="a"/>
-  </s>
-  <s t="_entity">
-    <k n="_DisplayString" t="s"/>
-    <k n="_ViewInfo" t="spb"/>
-    <k n="arrayPreview" t="r"/>
-  </s>
-  <s t="_python">
-    <k n="Python_type" t="s"/>
-    <k n="Python_typeName" t="s"/>
-    <k n="Python_str" t="s"/>
-    <k n="preview" t="r"/>
-    <k n="_Provider" t="spb"/>
-  </s>
-</rvStructures>
-</file>
-
-<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
-<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbData count="5">
-    <spb s="0">
-      <v>2</v>
-      <v>1</v>
-      <v>list</v>
-      <v>arrayPreview</v>
-    </spb>
-    <spb s="1">
-      <v>0</v>
-    </spb>
-    <spb s="2">
-      <v>https://www.anaconda.com/excel</v>
-      <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
-      <v>Python fornecido por Anaconda</v>
-    </spb>
-    <spb s="0">
-      <v>1</v>
-      <v>1</v>
-      <v>list</v>
-      <v>arrayPreview</v>
-    </spb>
-    <spb s="1">
-      <v>3</v>
-    </spb>
-  </spbData>
-</supportingPropertyBags>
-</file>
-
-<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="3">
-  <s>
-    <k n="drw" t="i"/>
-    <k n="dcol" t="i"/>
-    <k n="name" t="s"/>
-    <k n="array" t="s"/>
-  </s>
-  <s>
-    <k n="ArrayCardInfo" t="spb"/>
-  </s>
-  <s>
-    <k n="link" t="s"/>
-    <k n="logo" t="s"/>
-    <k n="name" t="s"/>
-  </s>
-</spbStructures>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D533F96B-3659-4560-ACD7-02DCC551E6A1}" name="Tabela1" displayName="Tabela1" ref="A1:V159" totalsRowShown="0">
   <autoFilter ref="A1:V159" xr:uid="{D533F96B-3659-4560-ACD7-02DCC551E6A1}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V158">
-    <sortCondition ref="B1:B158"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V159">
+    <sortCondition ref="B1:B159"/>
   </sortState>
   <tableColumns count="22">
     <tableColumn id="7" xr3:uid="{EEA224EE-B017-42F5-A417-487E2B86AD5D}" name="ID_Item">
       <calculatedColumnFormula>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{FF9AC4B3-0AB1-43C0-813C-9F0FBFCD27C3}" name="NomeBusca" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{A4280A1D-29DF-4DF8-BAEB-74D735392255}" name="PrescricaoCompleta" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{1C09888C-F0B3-445C-96A7-59EF6CBB8977}" name="Categoria" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{E1DAEFD1-96A5-4769-95CA-789E157CF235}" name="Doenca" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{FF9AC4B3-0AB1-43C0-813C-9F0FBFCD27C3}" name="NomeBusca" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{A4280A1D-29DF-4DF8-BAEB-74D735392255}" name="PrescricaoCompleta" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{1C09888C-F0B3-445C-96A7-59EF6CBB8977}" name="Categoria" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{E1DAEFD1-96A5-4769-95CA-789E157CF235}" name="Doenca" dataDxfId="54"/>
     <tableColumn id="5" xr3:uid="{00D107C9-5770-4523-8A77-BC2E8CCDFA3F}" name="OrdemPrioridade"/>
     <tableColumn id="6" xr3:uid="{A2A03C33-701E-4A02-84BD-0D3C40E0270C}" name="FormaFarmaceutica"/>
     <tableColumn id="8" xr3:uid="{037F36DC-527F-4AE8-A6F4-3169AA433215}" name="isCalculable"/>
@@ -3363,8 +3820,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9BC025B4-0C86-43DA-9BA8-AD95BA9033CF}" name="Tabela7" displayName="Tabela7" ref="A1:B20" totalsRowShown="0">
-  <autoFilter ref="A1:B20" xr:uid="{9BC025B4-0C86-43DA-9BA8-AD95BA9033CF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9BC025B4-0C86-43DA-9BA8-AD95BA9033CF}" name="Tabela7" displayName="Tabela7" ref="A1:B26" totalsRowShown="0">
+  <autoFilter ref="A1:B26" xr:uid="{9BC025B4-0C86-43DA-9BA8-AD95BA9033CF}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{CFD77929-9554-43BE-908D-A85767D19E05}" name="Horario"/>
     <tableColumn id="2" xr3:uid="{371D9874-4C27-4E8A-9C60-1E16D092C8FD}" name="Descricao"/>
@@ -3374,131 +3831,134 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7B1BCF4E-F9B8-4BCA-9A1B-734209B09515}" name="Tabela2" displayName="Tabela2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7B1BCF4E-F9B8-4BCA-9A1B-734209B09515}" name="Tabela2" displayName="Tabela2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <autoFilter ref="A1:E6" xr:uid="{7B1BCF4E-F9B8-4BCA-9A1B-734209B09515}"/>
   <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{3B85112C-C948-4532-A5A9-B2DC134B2714}" name="ID_Item" dataDxfId="44">
+    <tableColumn id="5" xr3:uid="{3B85112C-C948-4532-A5A9-B2DC134B2714}" name="ID_Item" dataDxfId="51">
       <calculatedColumnFormula>ROW() - ROW(Tabela2[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{294ACE13-D92E-4E83-AE9A-884FBB3BAD21}" name="NomeBusca" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{57C4FF43-CE4E-4A4E-A745-1D12588CAE36}" name="ConteudoTexto" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{1B0E7410-6713-475C-9274-E8D53C220050}" name="Categoria" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{E775B5FA-D905-41A5-AF49-15CA3264FA30}" name="OrdemPrioridade" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{294ACE13-D92E-4E83-AE9A-884FBB3BAD21}" name="NomeBusca" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{57C4FF43-CE4E-4A4E-A745-1D12588CAE36}" name="ConteudoTexto" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{1B0E7410-6713-475C-9274-E8D53C220050}" name="Categoria" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{E775B5FA-D905-41A5-AF49-15CA3264FA30}" name="OrdemPrioridade" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F1B6F081-4196-40D7-9E1B-E18AC00A544A}" name="Tabela57" displayName="Tabela57" ref="A1:E9" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F1B6F081-4196-40D7-9E1B-E18AC00A544A}" name="Tabela57" displayName="Tabela57" ref="A1:E9" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
   <autoFilter ref="A1:E9" xr:uid="{F1B6F081-4196-40D7-9E1B-E18AC00A544A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E9">
     <sortCondition ref="E1:E9"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{255D6023-30BF-414A-B3B5-09A8AED4AD40}" name="ID_Item" dataDxfId="37">
+    <tableColumn id="5" xr3:uid="{255D6023-30BF-414A-B3B5-09A8AED4AD40}" name="ID_Item" dataDxfId="44">
       <calculatedColumnFormula>ROW() - ROW(Tabela57[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{8C75D187-576A-41EF-9BC9-337001D161C6}" name="NomeBusca" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{7A836061-FA92-4D6E-A1CB-B0A3080FF4E2}" name="ConteudoTexto" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{9C7516CD-131C-4A90-BC19-727B1919928E}" name="Categoria" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{D9BE6F3B-192E-46DB-ADBD-41AC809A383A}" name="OrdemPrioridade" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{8C75D187-576A-41EF-9BC9-337001D161C6}" name="NomeBusca" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{7A836061-FA92-4D6E-A1CB-B0A3080FF4E2}" name="ConteudoTexto" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{9C7516CD-131C-4A90-BC19-727B1919928E}" name="Categoria" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{D9BE6F3B-192E-46DB-ADBD-41AC809A383A}" name="OrdemPrioridade" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4EB17778-C096-4FB9-8CEA-CBC90E8CC8E2}" name="Tabela8" displayName="Tabela8" ref="A1:E6" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4EB17778-C096-4FB9-8CEA-CBC90E8CC8E2}" name="Tabela8" displayName="Tabela8" ref="A1:E6" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A1:E6" xr:uid="{4EB17778-C096-4FB9-8CEA-CBC90E8CC8E2}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C07F2220-FEC5-4C0B-AB14-F80860FCB6A0}" name="ID_Item" dataDxfId="30">
+    <tableColumn id="1" xr3:uid="{C07F2220-FEC5-4C0B-AB14-F80860FCB6A0}" name="ID_Item" dataDxfId="37">
       <calculatedColumnFormula>ROW() - ROW(Tabela5[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F6AB2AED-7D50-4A14-A3D8-3D697CD7C3E6}" name="NomeBusca" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{24DCE466-5828-477A-94D8-8B94F125CA52}" name="ConteudoTexto" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{544BC52C-0699-476B-9E91-F8010861B484}" name="Categoria" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{0A44EF13-A692-417E-90F4-EEE1E0C399BB}" name="OrdemPrioridade" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{F6AB2AED-7D50-4A14-A3D8-3D697CD7C3E6}" name="NomeBusca" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{24DCE466-5828-477A-94D8-8B94F125CA52}" name="ConteudoTexto" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{544BC52C-0699-476B-9E91-F8010861B484}" name="Categoria" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{0A44EF13-A692-417E-90F4-EEE1E0C399BB}" name="OrdemPrioridade" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B195B058-C443-4C22-BFDA-1A6D6B3BD53F}" name="Tabela3" displayName="Tabela3" ref="A1:D7" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B195B058-C443-4C22-BFDA-1A6D6B3BD53F}" name="Tabela3" displayName="Tabela3" ref="A1:D7" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <autoFilter ref="A1:D7" xr:uid="{B195B058-C443-4C22-BFDA-1A6D6B3BD53F}"/>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{30594E46-81AD-44D9-A464-0DDB2405FA5F}" name="ID_Item" dataDxfId="23">
+    <tableColumn id="4" xr3:uid="{30594E46-81AD-44D9-A464-0DDB2405FA5F}" name="ID_Item" dataDxfId="30">
       <calculatedColumnFormula>ROW() - ROW(Tabela3[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{CC635276-E45D-489A-B013-B9CB28D05F73}" name="NomeBusca" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{C4152665-161D-4E06-A92A-C044706FA22B}" name="ConteudoTexto" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{D73DEA13-D731-4A85-9704-AF815ADF8ECA}" name="Categoria" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{CC635276-E45D-489A-B013-B9CB28D05F73}" name="NomeBusca" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{C4152665-161D-4E06-A92A-C044706FA22B}" name="ConteudoTexto" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{D73DEA13-D731-4A85-9704-AF815ADF8ECA}" name="Categoria" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BF31387E-C94D-4214-90A7-3EA03A21E459}" name="Tabela4" displayName="Tabela4" ref="A1:D8" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BF31387E-C94D-4214-90A7-3EA03A21E459}" name="Tabela4" displayName="Tabela4" ref="A1:D8" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:D8" xr:uid="{BF31387E-C94D-4214-90A7-3EA03A21E459}"/>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{B03251EF-71D3-4778-9397-49B077E4BE95}" name="ID_Item" dataDxfId="17">
+    <tableColumn id="4" xr3:uid="{B03251EF-71D3-4778-9397-49B077E4BE95}" name="ID_Item" dataDxfId="24">
       <calculatedColumnFormula>ROW() - ROW(Tabela4[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{4E29BBAD-C1D6-4B95-B61D-6D2ACC75817D}" name="NomeBusca" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{E987E83A-5D1B-4FBA-B949-173B3B767BC5}" name="ConteudoTexto" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{5CEF5F95-0ACE-4A9D-B37D-26E33FA9BC59}" name="Categoria" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{4E29BBAD-C1D6-4B95-B61D-6D2ACC75817D}" name="NomeBusca" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{E987E83A-5D1B-4FBA-B949-173B3B767BC5}" name="ConteudoTexto" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{5CEF5F95-0ACE-4A9D-B37D-26E33FA9BC59}" name="Categoria" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{913B8A45-8E4C-40E3-89AF-FB1299E38DDE}" name="Tabela5" displayName="Tabela5" ref="A1:E8" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{913B8A45-8E4C-40E3-89AF-FB1299E38DDE}" name="Tabela5" displayName="Tabela5" ref="A1:E8" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:E8" xr:uid="{913B8A45-8E4C-40E3-89AF-FB1299E38DDE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
     <sortCondition ref="E1:E8"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{FE4827F2-FADA-4522-96C6-C15115BA8429}" name="ID_Item" dataDxfId="11">
+    <tableColumn id="5" xr3:uid="{FE4827F2-FADA-4522-96C6-C15115BA8429}" name="ID_Item" dataDxfId="18">
       <calculatedColumnFormula>ROW() - ROW(Tabela5[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{2E3E19EF-E8C4-4174-A6DD-FE62A883B65B}" name="NomeBusca" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{A403427C-6D7B-4CAC-8A29-52B0496C1B55}" name="ConteudoTexto" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{495ABE71-9083-4D12-B7AF-769A1DE8A329}" name="Categoria" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{B52F07B3-9EB3-4432-9961-0DC5F0D7CABC}" name="OrdemPrioridade" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{2E3E19EF-E8C4-4174-A6DD-FE62A883B65B}" name="NomeBusca" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{A403427C-6D7B-4CAC-8A29-52B0496C1B55}" name="ConteudoTexto" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{495ABE71-9083-4D12-B7AF-769A1DE8A329}" name="Categoria" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{B52F07B3-9EB3-4432-9961-0DC5F0D7CABC}" name="OrdemPrioridade" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{ACBDBD77-4F47-4470-9066-42382BF03E43}" name="Tabela10" displayName="Tabela10" ref="A1:I13" totalsRowShown="0">
-  <autoFilter ref="A1:I13" xr:uid="{ACBDBD77-4F47-4470-9066-42382BF03E43}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{4B1D6705-EEC4-44EF-9410-0F0CC297D1AF}" name="Tabela11" displayName="Tabela11" ref="A1:I45" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="A1:I45" xr:uid="{4B1D6705-EEC4-44EF-9410-0F0CC297D1AF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I45">
+    <sortCondition ref="B1:B45"/>
+  </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{CF3203F3-4CFD-4D66-B74A-BC12D8F80FFA}" name="ID">
-      <calculatedColumnFormula>ROW() - ROW(Tabela10[[#Headers],[ID]])</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{301BA950-EFFF-4FE5-9DB9-5861171DCD47}" name="ID" dataDxfId="7">
+      <calculatedColumnFormula>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F0A4A9FD-374C-4C54-BB2A-5F28D41CC94F}" name="Categoria"/>
-    <tableColumn id="3" xr3:uid="{FFABFB1D-C8F4-405B-AEE9-D9AD9763CC53}" name="ItemPrincipal"/>
-    <tableColumn id="4" xr3:uid="{A34F1342-A7E3-4126-AD78-872FBDC5E7F9}" name="TipoItem"/>
-    <tableColumn id="5" xr3:uid="{713B817B-AFCD-41AC-9811-678098C3DAA2}" name="Apresentacoes"/>
-    <tableColumn id="6" xr3:uid="{51FD07B6-C473-44E8-86E2-4ADD006B84FE}" name="UnidadesDose"/>
-    <tableColumn id="7" xr3:uid="{27DD1729-7493-4AFC-BA0D-C3C0C3F7994C}" name="DescricaoCompleta"/>
-    <tableColumn id="8" xr3:uid="{25028A68-0087-4AD4-8FAB-FDB2744115FA}" name="PrescricoesPadronizadasJSON"/>
-    <tableColumn id="9" xr3:uid="{78D527DD-27A2-4C60-B2BB-5C8F58225E77}" name="ObservacaoPadrao"/>
+    <tableColumn id="2" xr3:uid="{95B7D018-E9AC-491D-B435-1F6EB200D80A}" name="Categoria" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{7CAFE1FE-9E4E-49EE-A066-49EF442BD903}" name="ItemPrincipal" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{32EB61CF-E015-4D3D-B756-51398F6C009A}" name="TipoItem" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{936FB20C-D115-4667-97E7-E129A658386C}" name="Apresentacoes"/>
+    <tableColumn id="6" xr3:uid="{DABD4860-46A3-4322-9CEC-02C728F8C85E}" name="UnidadesDose" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{F99AE901-6D2A-4AAF-A051-717D622F48E0}" name="DescricaoCompleta" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{33992999-473F-4B43-8EE4-B2F7493B3B68}" name="PrescricoesPadronizadasJSON" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{8FC9313B-C050-471A-AF80-B95E43A2F6F3}" name="ObservacaoPadrao" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{08C68780-8D11-4E55-B88C-5F8138D4CC5D}" name="Tabela9" displayName="Tabela9" ref="A1:B12" totalsRowShown="0" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{08C68780-8D11-4E55-B88C-5F8138D4CC5D}" name="Tabela9" displayName="Tabela9" ref="A1:B12" totalsRowShown="0" tableBorderDxfId="13">
   <autoFilter ref="A1:B12" xr:uid="{08C68780-8D11-4E55-B88C-5F8138D4CC5D}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{150208FE-C1A4-49E1-81FF-1AA10AF0B961}" name="Sigla" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{79FC3213-8BF9-487D-8478-621C9C80380A}" name="Nome" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{150208FE-C1A4-49E1-81FF-1AA10AF0B961}" name="Sigla" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{79FC3213-8BF9-487D-8478-621C9C80380A}" name="Nome" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3825,7 +4285,7 @@
   <dimension ref="A1:V159"/>
   <sheetViews>
     <sheetView topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B159" sqref="B159"/>
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6684,19 +7144,19 @@
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>196</v>
+        <v>38</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>395</v>
+        <v>536</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>197</v>
+        <v>39</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="G101" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H101" t="s">
         <v>500</v>
@@ -6711,7 +7171,7 @@
         <v>196</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>197</v>
@@ -6726,28 +7186,25 @@
         <v>500</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A103">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>433</v>
+        <v>196</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F103">
-        <v>4</v>
+        <v>198</v>
       </c>
       <c r="G103" t="s">
-        <v>303</v>
+        <v>256</v>
       </c>
       <c r="H103" t="s">
         <v>500</v>
@@ -6758,11 +7215,11 @@
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>103</v>
       </c>
-      <c r="B104" s="9" t="s">
-        <v>158</v>
+      <c r="B104" s="4" t="s">
+        <v>433</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>322</v>
+        <v>397</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>137</v>
@@ -6771,37 +7228,37 @@
         <v>138</v>
       </c>
       <c r="F104">
+        <v>4</v>
+      </c>
+      <c r="G104" t="s">
+        <v>303</v>
+      </c>
+      <c r="H104" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>104</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F105">
         <v>3</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G105" t="s">
         <v>298</v>
-      </c>
-      <c r="H104" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>104</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F105">
-        <v>1</v>
-      </c>
-      <c r="G105" t="s">
-        <v>256</v>
       </c>
       <c r="H105" t="s">
         <v>500</v>
@@ -6816,7 +7273,7 @@
         <v>242</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>228</v>
@@ -6834,7 +7291,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A107">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>106</v>
@@ -6843,7 +7300,7 @@
         <v>242</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>228</v>
@@ -6861,22 +7318,25 @@
         <v>500</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A108">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>140</v>
+        <v>242</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>47</v>
+        <v>228</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>48</v>
+        <v>224</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
       </c>
       <c r="G108" t="s">
         <v>256</v>
@@ -6891,16 +7351,16 @@
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>201</v>
+        <v>140</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>202</v>
+        <v>47</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>198</v>
+        <v>48</v>
       </c>
       <c r="G109" t="s">
         <v>256</v>
@@ -6915,16 +7375,16 @@
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>56</v>
+        <v>201</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>52</v>
+        <v>202</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="G110" t="s">
         <v>256</v>
@@ -6942,16 +7402,16 @@
         <v>56</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="G111" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H111" t="s">
         <v>500</v>
@@ -6963,13 +7423,13 @@
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>120</v>
@@ -6987,19 +7447,19 @@
         <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>507</v>
+        <v>118</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>508</v>
+        <v>405</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>509</v>
+        <v>119</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>512</v>
+        <v>120</v>
       </c>
       <c r="G113" t="s">
-        <v>513</v>
+        <v>254</v>
       </c>
       <c r="H113" t="s">
         <v>500</v>
@@ -7014,7 +7474,7 @@
         <v>507</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>509</v>
@@ -7038,7 +7498,7 @@
         <v>507</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>509</v>
@@ -7053,7 +7513,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A116">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>115</v>
@@ -7062,7 +7522,7 @@
         <v>507</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>509</v>
@@ -7071,82 +7531,79 @@
         <v>512</v>
       </c>
       <c r="G116" t="s">
+        <v>513</v>
+      </c>
+      <c r="H116" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>116</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="G117" t="s">
         <v>296</v>
       </c>
-      <c r="H116" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>116</v>
-      </c>
-      <c r="B117" s="4" t="s">
+      <c r="H117" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>117</v>
+      </c>
+      <c r="B118" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C118" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="D117" s="4" t="s">
+      <c r="D118" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="E118" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G118" t="s">
         <v>254</v>
       </c>
-      <c r="H117" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>117</v>
-      </c>
-      <c r="B118" s="4" t="s">
+      <c r="H118" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>118</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C119" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="D119" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E118" s="1" t="s">
+      <c r="E119" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G119" t="s">
         <v>299</v>
-      </c>
-      <c r="H118" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>118</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F119">
-        <v>3</v>
-      </c>
-      <c r="G119" t="s">
-        <v>256</v>
       </c>
       <c r="H119" t="s">
         <v>500</v>
@@ -7161,7 +7618,7 @@
         <v>11</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>10</v>
@@ -7185,19 +7642,22 @@
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
+      </c>
+      <c r="F121">
+        <v>3</v>
       </c>
       <c r="G121" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="H121" t="s">
         <v>500</v>
@@ -7209,22 +7669,19 @@
         <v>121</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F122">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="H122" t="s">
         <v>500</v>
@@ -7236,16 +7693,19 @@
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>240</v>
+        <v>127</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>211</v>
+        <v>10</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>212</v>
+        <v>19</v>
+      </c>
+      <c r="F123">
+        <v>3</v>
       </c>
       <c r="G123" t="s">
         <v>256</v>
@@ -7260,16 +7720,16 @@
         <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>61</v>
+        <v>240</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>5</v>
+        <v>211</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>60</v>
+        <v>212</v>
       </c>
       <c r="G124" t="s">
         <v>256</v>
@@ -7278,52 +7738,52 @@
         <v>500</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A125">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G125" t="s">
+        <v>256</v>
+      </c>
+      <c r="H125" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>125</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C126" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="D125" s="4" t="s">
+      <c r="D126" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E125" s="1" t="s">
+      <c r="E126" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F125">
+      <c r="F126">
         <v>1</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G126" t="s">
         <v>286</v>
-      </c>
-      <c r="H125" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>125</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G126" t="s">
-        <v>300</v>
       </c>
       <c r="H126" t="s">
         <v>500</v>
@@ -7335,19 +7795,19 @@
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>141</v>
+        <v>2</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>414</v>
+        <v>320</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="G127" t="s">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="H127" t="s">
         <v>500</v>
@@ -7362,7 +7822,7 @@
         <v>141</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>480</v>
+        <v>414</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>47</v>
@@ -7383,19 +7843,16 @@
         <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>415</v>
+        <v>480</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F129">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="G129" t="s">
         <v>256</v>
@@ -7413,7 +7870,7 @@
         <v>7</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>9</v>
@@ -7431,7 +7888,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="131" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A131">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>130</v>
@@ -7440,55 +7897,22 @@
         <v>7</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>494</v>
+        <v>416</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>466</v>
+        <v>19</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
       </c>
       <c r="G131" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H131" t="s">
-        <v>499</v>
-      </c>
-      <c r="I131" t="s">
-        <v>467</v>
-      </c>
-      <c r="J131" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="K131">
-        <v>10</v>
-      </c>
-      <c r="L131">
-        <v>15</v>
-      </c>
-      <c r="M131">
-        <v>200</v>
-      </c>
-      <c r="N131" t="s">
-        <v>487</v>
-      </c>
-      <c r="O131">
-        <v>20</v>
-      </c>
-      <c r="P131">
-        <v>6</v>
-      </c>
-      <c r="R131">
-        <v>75</v>
-      </c>
-      <c r="S131">
-        <v>4000</v>
-      </c>
-      <c r="T131" t="s">
-        <v>469</v>
-      </c>
-      <c r="U131" t="s">
-        <v>477</v>
+        <v>500</v>
       </c>
     </row>
     <row r="132" spans="1:21" ht="45" x14ac:dyDescent="0.25">
@@ -7497,28 +7921,61 @@
         <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>276</v>
+        <v>7</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>417</v>
+        <v>494</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F132">
-        <v>1</v>
+        <v>466</v>
       </c>
       <c r="G132" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H132" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="133" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+      <c r="I132" t="s">
+        <v>467</v>
+      </c>
+      <c r="J132" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="K132">
+        <v>10</v>
+      </c>
+      <c r="L132">
+        <v>15</v>
+      </c>
+      <c r="M132">
+        <v>200</v>
+      </c>
+      <c r="N132" t="s">
+        <v>487</v>
+      </c>
+      <c r="O132">
+        <v>20</v>
+      </c>
+      <c r="P132">
+        <v>6</v>
+      </c>
+      <c r="R132">
+        <v>75</v>
+      </c>
+      <c r="S132">
+        <v>4000</v>
+      </c>
+      <c r="T132" t="s">
+        <v>469</v>
+      </c>
+      <c r="U132" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A133">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>132</v>
@@ -7527,7 +7984,7 @@
         <v>276</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>9</v>
@@ -7545,49 +8002,52 @@
         <v>500</v>
       </c>
     </row>
-    <row r="134" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A134">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134" t="s">
+        <v>256</v>
+      </c>
+      <c r="H134" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>134</v>
+      </c>
+      <c r="B135" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C135" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="D134" s="4" t="s">
+      <c r="D135" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="E134" s="1" t="s">
+      <c r="E135" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="G134" t="s">
+      <c r="G135" t="s">
         <v>257</v>
-      </c>
-      <c r="H134" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="135" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>134</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G135" t="s">
-        <v>301</v>
       </c>
       <c r="H135" t="s">
         <v>500</v>
@@ -7599,25 +8059,25 @@
         <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="G136" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="H136" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="137" spans="1:21" ht="105" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A137">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>136</v>
@@ -7626,7 +8086,7 @@
         <v>174</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>206</v>
@@ -7635,31 +8095,31 @@
         <v>207</v>
       </c>
       <c r="G137" t="s">
+        <v>294</v>
+      </c>
+      <c r="H137" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" ht="105" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>137</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G138" t="s">
         <v>292</v>
-      </c>
-      <c r="H137" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="138" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>137</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G138" t="s">
-        <v>302</v>
       </c>
       <c r="H138" t="s">
         <v>500</v>
@@ -7671,19 +8131,19 @@
         <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>323</v>
+        <v>160</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="G139" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="H139" t="s">
         <v>500</v>
@@ -7698,55 +8158,19 @@
         <v>186</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>495</v>
+        <v>323</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>481</v>
+        <v>124</v>
       </c>
       <c r="G140" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="H140" t="s">
-        <v>499</v>
-      </c>
-      <c r="I140" t="s">
-        <v>467</v>
-      </c>
-      <c r="J140" t="s">
-        <v>482</v>
-      </c>
-      <c r="K140">
-        <v>1</v>
-      </c>
-      <c r="L140">
-        <v>2</v>
-      </c>
-      <c r="M140">
-        <v>3</v>
-      </c>
-      <c r="N140" t="s">
-        <v>473</v>
-      </c>
-      <c r="P140">
-        <v>24</v>
-      </c>
-      <c r="Q140">
-        <v>60</v>
-      </c>
-      <c r="R140">
-        <v>2</v>
-      </c>
-      <c r="S140">
-        <v>60</v>
-      </c>
-      <c r="T140" t="s">
-        <v>469</v>
-      </c>
-      <c r="U140" t="s">
-        <v>477</v>
+        <v>500</v>
       </c>
     </row>
     <row r="141" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -7755,22 +8179,58 @@
         <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>28</v>
+        <v>186</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>448</v>
+        <v>495</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>208</v>
+        <v>481</v>
       </c>
       <c r="G141" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H141" t="s">
-        <v>500</v>
+        <v>499</v>
+      </c>
+      <c r="I141" t="s">
+        <v>467</v>
+      </c>
+      <c r="J141" t="s">
+        <v>482</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>2</v>
+      </c>
+      <c r="M141">
+        <v>3</v>
+      </c>
+      <c r="N141" t="s">
+        <v>473</v>
+      </c>
+      <c r="P141">
+        <v>24</v>
+      </c>
+      <c r="Q141">
+        <v>60</v>
+      </c>
+      <c r="R141">
+        <v>2</v>
+      </c>
+      <c r="S141">
+        <v>60</v>
+      </c>
+      <c r="T141" t="s">
+        <v>469</v>
+      </c>
+      <c r="U141" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="142" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -7782,13 +8242,13 @@
         <v>28</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>30</v>
+        <v>208</v>
       </c>
       <c r="G142" t="s">
         <v>256</v>
@@ -7806,16 +8266,16 @@
         <v>28</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>534</v>
+        <v>30</v>
       </c>
       <c r="G143" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H143" t="s">
         <v>500</v>
@@ -7827,49 +8287,46 @@
         <v>143</v>
       </c>
       <c r="B144" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="G144" t="s">
+        <v>257</v>
+      </c>
+      <c r="H144" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>144</v>
+      </c>
+      <c r="B145" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C145" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="D144" s="4" t="s">
+      <c r="D145" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E144" s="1" t="s">
+      <c r="E145" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F144">
+      <c r="F145">
         <v>2</v>
       </c>
-      <c r="G144" t="s">
+      <c r="G145" t="s">
         <v>256</v>
-      </c>
-      <c r="H144" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>144</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F145">
-        <v>5</v>
-      </c>
-      <c r="G145" t="s">
-        <v>258</v>
       </c>
       <c r="H145" t="s">
         <v>500</v>
@@ -7880,50 +8337,53 @@
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>145</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="B146" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F146">
+        <v>5</v>
+      </c>
+      <c r="G146" t="s">
+        <v>258</v>
+      </c>
+      <c r="H146" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>146</v>
+      </c>
+      <c r="B147" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C147" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="D146" s="4" t="s">
+      <c r="D147" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E146" s="1" t="s">
+      <c r="E147" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G146" t="s">
+      <c r="G147" t="s">
         <v>285</v>
       </c>
-      <c r="H146" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>146</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G147" t="s">
-        <v>303</v>
-      </c>
       <c r="H147" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A148">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>147</v>
@@ -7932,13 +8392,13 @@
         <v>134</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>244</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="G148" t="s">
         <v>303</v>
@@ -7953,22 +8413,19 @@
         <v>148</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>426</v>
+        <v>451</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>27</v>
+        <v>244</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F149">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="G149" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="H149" t="s">
         <v>500</v>
@@ -7983,7 +8440,7 @@
         <v>26</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>27</v>
@@ -8007,19 +8464,22 @@
         <v>150</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>317</v>
+        <v>427</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>220</v>
+        <v>30</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
       </c>
       <c r="G151" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="H151" t="s">
         <v>500</v>
@@ -8031,19 +8491,19 @@
         <v>151</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>243</v>
+        <v>317</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>31</v>
+        <v>220</v>
       </c>
       <c r="G152" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H152" t="s">
         <v>500</v>
@@ -8055,19 +8515,19 @@
         <v>152</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>452</v>
+        <v>243</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>219</v>
+        <v>23</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G153" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H153" t="s">
         <v>500</v>
@@ -8079,16 +8539,16 @@
         <v>153</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="G154" t="s">
         <v>256</v>
@@ -8103,19 +8563,16 @@
         <v>154</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F155">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="G155" t="s">
         <v>256</v>
@@ -8130,19 +8587,19 @@
         <v>155</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F156">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G156" t="s">
         <v>256</v>
@@ -8160,7 +8617,7 @@
         <v>46</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>13</v>
@@ -8184,19 +8641,22 @@
         <v>157</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>166</v>
+        <v>46</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>327</v>
+        <v>19</v>
+      </c>
+      <c r="F158">
+        <v>4</v>
       </c>
       <c r="G158" t="s">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="H158" t="s">
         <v>500</v>
@@ -8208,19 +8668,19 @@
         <v>158</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>536</v>
+        <v>432</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>176</v>
+        <v>327</v>
       </c>
       <c r="G159" t="s">
-        <v>257</v>
+        <v>304</v>
       </c>
       <c r="H159" t="s">
         <v>500</v>
@@ -8237,10 +8697,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960A8748-E94B-4690-B759-C2243F7BF2D9}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8251,87 +8711,87 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="B1" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>589</v>
+        <v>627</v>
       </c>
       <c r="B2" t="s">
-        <v>590</v>
+        <v>628</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="B3" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="B4" t="s">
-        <v>615</v>
+        <v>584</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="B5" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="B6" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B7" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="B8" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="B9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="B10" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="B11" t="s">
         <v>614</v>
@@ -8339,74 +8799,122 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>622</v>
+        <v>592</v>
       </c>
       <c r="B12" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="B13" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>600</v>
+        <v>617</v>
       </c>
       <c r="B14" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="B15" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="B16" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="B17" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="B18" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="B19" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="B20" t="s">
-        <v>613</v>
+        <v>604</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>605</v>
+      </c>
+      <c r="B21" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>629</v>
+      </c>
+      <c r="B22" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>630</v>
+      </c>
+      <c r="B23" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>631</v>
+      </c>
+      <c r="B24" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>632</v>
+      </c>
+      <c r="B25" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>633</v>
+      </c>
+      <c r="B26" t="s">
+        <v>633</v>
       </c>
     </row>
   </sheetData>
@@ -8422,7 +8930,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9292,295 +9800,1129 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFFD9FF-690D-4767-9960-BAF8E0E731BC}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" customWidth="1"/>
+    <col min="7" max="7" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="88" customWidth="1"/>
     <col min="9" max="9" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="27" t="s">
         <v>549</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="27" t="s">
         <v>550</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="27" t="s">
         <v>551</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="27" t="s">
         <v>552</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="27" t="s">
         <v>553</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="27" t="s">
         <v>554</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="27" t="s">
         <v>555</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="27" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f>ROW() - ROW(Tabela10[[#Headers],[ID]])</f>
+      <c r="A2" s="25">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="29" t="s">
+        <v>563</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>673</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29" t="s">
+        <v>674</v>
+      </c>
+      <c r="H2" s="39"/>
+      <c r="I2" s="29"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="25">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>560</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25" t="s">
+        <v>575</v>
+      </c>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="24">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>563</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>576</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>560</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24" t="s">
+        <v>577</v>
+      </c>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>4</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>669</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>560</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="H5" s="39"/>
+      <c r="I5" s="29"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>5</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>669</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>560</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29" t="s">
+        <v>671</v>
+      </c>
+      <c r="H6" s="39"/>
+      <c r="I6" s="29"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="25">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>6</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>563</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>669</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>560</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29" t="s">
+        <v>672</v>
+      </c>
+      <c r="H7" s="39"/>
+      <c r="I7" s="29"/>
+    </row>
+    <row r="8" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A8" s="25">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>7</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>560</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25" t="s">
+        <v>720</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>721</v>
+      </c>
+      <c r="I8" s="25"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="25">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>8</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>562</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>560</v>
+      </c>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25" t="s">
+        <v>559</v>
+      </c>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="25">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>9</v>
+      </c>
+      <c r="B10" s="29" t="s">
         <v>557</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C10" s="29" t="s">
+        <v>675</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>558</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>676</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>677</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="29"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="29">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>10</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>684</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>558</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>685</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>701</v>
+      </c>
+      <c r="G11" s="29"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="29"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="29">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>11</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>680</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>558</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>681</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>701</v>
+      </c>
+      <c r="G12" s="29"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="29"/>
+    </row>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="29">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>12</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>682</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>558</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>683</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>701</v>
+      </c>
+      <c r="G13" s="29"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="29"/>
+    </row>
+    <row r="14" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A14" s="25">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>13</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>557</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>558</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>637</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>701</v>
+      </c>
+      <c r="G14" s="29"/>
+      <c r="H14" s="26" t="s">
+        <v>714</v>
+      </c>
+      <c r="I14" s="29"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="29">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>14</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>557</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>696</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>558</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>697</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>698</v>
+      </c>
+      <c r="G15" s="29"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="29"/>
+    </row>
+    <row r="16" spans="1:9" ht="390" x14ac:dyDescent="0.25">
+      <c r="A16" s="24">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>15</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="C16" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D16" s="36" t="s">
         <v>558</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E16" s="36" t="s">
+        <v>642</v>
+      </c>
+      <c r="F16" s="36" t="s">
         <v>561</v>
       </c>
-      <c r="F2" t="s">
-        <v>562</v>
-      </c>
-      <c r="H2" s="12" t="e" cm="1" vm="1">
-        <f t="array" ref="H2">_xlfn._xlws.PY(0,1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I2" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f>ROW() - ROW(Tabela10[[#Headers],[ID]])</f>
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="G16" s="28"/>
+      <c r="H16" s="37" t="s">
+        <v>638</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="25">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>16</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>557</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>648</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>558</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>649</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>650</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="H17" s="40" t="s">
+        <v>651</v>
+      </c>
+      <c r="I17" s="29"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="25">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>17</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>557</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>678</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>558</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>679</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>677</v>
+      </c>
+      <c r="G18" s="29"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="29"/>
+    </row>
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="29">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>18</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>557</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>699</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>558</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>700</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>702</v>
+      </c>
+      <c r="G19" s="29"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="29"/>
+    </row>
+    <row r="20" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="24">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>19</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="C20" s="36" t="s">
         <v>573</v>
       </c>
-      <c r="C3" t="s">
-        <v>563</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D20" s="36" t="s">
+        <v>558</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>666</v>
+      </c>
+      <c r="G20" s="24"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="24"/>
+    </row>
+    <row r="21" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="25">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>20</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>557</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>558</v>
+      </c>
+      <c r="E21" t="s">
+        <v>646</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>701</v>
+      </c>
+      <c r="G21" s="29"/>
+      <c r="H21" s="41" t="s">
+        <v>647</v>
+      </c>
+      <c r="I21" s="29"/>
+    </row>
+    <row r="22" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A22" s="25">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>21</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>557</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>652</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>558</v>
+      </c>
+      <c r="E22" t="s">
+        <v>653</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>654</v>
+      </c>
+      <c r="G22" s="29"/>
+      <c r="H22" s="41" t="s">
+        <v>655</v>
+      </c>
+      <c r="I22" s="29"/>
+    </row>
+    <row r="23" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="25">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>22</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>557</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>558</v>
+      </c>
+      <c r="E23" t="s">
+        <v>635</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>701</v>
+      </c>
+      <c r="G23" s="29"/>
+      <c r="H23" s="35" t="s">
+        <v>636</v>
+      </c>
+      <c r="I23" s="29"/>
+    </row>
+    <row r="24" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A24" s="25">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>23</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>557</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>558</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>626</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>703</v>
+      </c>
+      <c r="G24" s="29"/>
+      <c r="H24" s="33" t="s">
+        <v>715</v>
+      </c>
+      <c r="I24" s="29"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="29">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>24</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>710</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>558</v>
+      </c>
+      <c r="E25" t="s">
+        <v>711</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>701</v>
+      </c>
+      <c r="G25" s="29"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="29"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="29">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>25</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>712</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>558</v>
+      </c>
+      <c r="E26" t="s">
+        <v>713</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>701</v>
+      </c>
+      <c r="G26" s="29"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="29"/>
+    </row>
+    <row r="27" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A27" s="25">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>26</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>557</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>558</v>
+      </c>
+      <c r="E27" t="s">
+        <v>641</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>701</v>
+      </c>
+      <c r="G27" s="29"/>
+      <c r="H27" s="33" t="s">
+        <v>716</v>
+      </c>
+      <c r="I27" s="29"/>
+    </row>
+    <row r="28" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="A28" s="24">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>27</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>567</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>558</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>568</v>
+      </c>
+      <c r="G28" s="24"/>
+      <c r="H28" s="37" t="s">
+        <v>634</v>
+      </c>
+      <c r="I28" s="24"/>
+    </row>
+    <row r="29" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A29" s="25">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>28</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>557</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>664</v>
+      </c>
+      <c r="D29" s="34"/>
+      <c r="E29" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>665</v>
+      </c>
+      <c r="G29" s="29"/>
+      <c r="H29" s="35" t="s">
+        <v>718</v>
+      </c>
+      <c r="I29" s="29"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="29">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>29</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>557</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>705</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>558</v>
+      </c>
+      <c r="E30" t="s">
+        <v>706</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>701</v>
+      </c>
+      <c r="G30" s="29"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="29"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="29">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>30</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>557</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>558</v>
+      </c>
+      <c r="E31" t="s">
+        <v>690</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>691</v>
+      </c>
+      <c r="G31" s="29"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="29"/>
+    </row>
+    <row r="32" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A32" s="31">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>31</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>557</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>660</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>558</v>
+      </c>
+      <c r="E32" t="s">
+        <v>661</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>662</v>
+      </c>
+      <c r="G32" s="29"/>
+      <c r="H32" s="35" t="s">
+        <v>663</v>
+      </c>
+      <c r="I32" s="29"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="34">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>32</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>557</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>531</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>558</v>
+      </c>
+      <c r="E33" t="s">
+        <v>688</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>650</v>
+      </c>
+      <c r="G33" s="29"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="29"/>
+    </row>
+    <row r="34" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A34" s="25">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>33</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>557</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>558</v>
+      </c>
+      <c r="E34" t="s">
+        <v>637</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>701</v>
+      </c>
+      <c r="G34" s="29"/>
+      <c r="H34" s="33" t="s">
+        <v>719</v>
+      </c>
+      <c r="I34" s="29"/>
+    </row>
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="31">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>34</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>557</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>558</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>565</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>566</v>
+      </c>
+      <c r="G35" s="25"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="25"/>
+    </row>
+    <row r="36" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="31">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>35</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>557</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>570</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>558</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>571</v>
+      </c>
+      <c r="F36" s="31" t="s">
+        <v>704</v>
+      </c>
+      <c r="G36" s="25"/>
+      <c r="H36" s="33" t="s">
+        <v>640</v>
+      </c>
+      <c r="I36" s="25"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="34">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>36</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>557</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>694</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>558</v>
+      </c>
+      <c r="E37" t="s">
+        <v>695</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>701</v>
+      </c>
+      <c r="G37" s="29"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="29"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="34">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>37</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>557</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>709</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>558</v>
+      </c>
+      <c r="E38" t="s">
+        <v>639</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>701</v>
+      </c>
+      <c r="G38" s="29"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="29"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="34">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>38</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>557</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>707</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>558</v>
+      </c>
+      <c r="E39" t="s">
+        <v>708</v>
+      </c>
+      <c r="F39" s="34" t="s">
+        <v>701</v>
+      </c>
+      <c r="G39" s="29"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="29"/>
+    </row>
+    <row r="40" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A40" s="31">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>39</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>557</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>656</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>558</v>
+      </c>
+      <c r="E40" t="s">
+        <v>657</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>658</v>
+      </c>
+      <c r="G40" s="29"/>
+      <c r="H40" s="35" t="s">
+        <v>659</v>
+      </c>
+      <c r="I40" s="29"/>
+    </row>
+    <row r="41" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A41" s="31">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>40</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>557</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>558</v>
+      </c>
+      <c r="E41" t="s">
+        <v>639</v>
+      </c>
+      <c r="F41" s="34" t="s">
+        <v>701</v>
+      </c>
+      <c r="G41" s="29"/>
+      <c r="H41" s="35" t="s">
+        <v>717</v>
+      </c>
+      <c r="I41" s="29"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="34">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>41</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>557</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>558</v>
+      </c>
+      <c r="E42" t="s">
+        <v>686</v>
+      </c>
+      <c r="F42" s="34" t="s">
+        <v>687</v>
+      </c>
+      <c r="G42" s="29"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="29"/>
+    </row>
+    <row r="43" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="29">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>42</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>692</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>558</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>693</v>
+      </c>
+      <c r="F43" s="29" t="s">
+        <v>702</v>
+      </c>
+      <c r="G43" s="29"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="29"/>
+    </row>
+    <row r="44" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A44" s="25">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>43</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>558</v>
+      </c>
+      <c r="E44" t="s">
+        <v>643</v>
+      </c>
+      <c r="F44" s="29" t="s">
+        <v>644</v>
+      </c>
+      <c r="G44" s="29"/>
+      <c r="H44" s="35" t="s">
+        <v>645</v>
+      </c>
+      <c r="I44" s="29"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="25">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>44</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>578</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>578</v>
+      </c>
+      <c r="D45" s="25" t="s">
         <v>560</v>
       </c>
-      <c r="G3" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f>ROW() - ROW(Tabela10[[#Headers],[ID]])</f>
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f>ROW() - ROW(Tabela10[[#Headers],[ID]])</f>
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>565</v>
-      </c>
-      <c r="C5" t="s">
-        <v>566</v>
-      </c>
-      <c r="D5" t="s">
-        <v>560</v>
-      </c>
-      <c r="G5" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f>ROW() - ROW(Tabela10[[#Headers],[ID]])</f>
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>565</v>
-      </c>
-      <c r="C6" t="s">
-        <v>566</v>
-      </c>
-      <c r="D6" t="s">
-        <v>560</v>
-      </c>
-      <c r="G6" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f>ROW() - ROW(Tabela10[[#Headers],[ID]])</f>
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>557</v>
-      </c>
-      <c r="C7" t="s">
-        <v>201</v>
-      </c>
-      <c r="D7" t="s">
-        <v>558</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>569</v>
-      </c>
-      <c r="F7" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f>ROW() - ROW(Tabela10[[#Headers],[ID]])</f>
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>557</v>
-      </c>
-      <c r="C8" t="s">
-        <v>571</v>
-      </c>
-      <c r="D8" t="s">
-        <v>558</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>576</v>
-      </c>
-      <c r="F8" t="s">
-        <v>572</v>
-      </c>
-      <c r="H8" s="12" t="e" cm="1" vm="2">
-        <f t="array" ref="H8">_xlfn._xlws.PY(1,1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f>ROW() - ROW(Tabela10[[#Headers],[ID]])</f>
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>557</v>
-      </c>
-      <c r="C9" t="s">
-        <v>574</v>
-      </c>
-      <c r="D9" t="s">
-        <v>558</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>575</v>
-      </c>
-      <c r="F9" t="s">
-        <v>577</v>
-      </c>
-      <c r="H9" t="e" cm="1" vm="3">
-        <f t="array" ref="H9">_xlfn._xlws.PY(2,1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f>ROW() - ROW(Tabela10[[#Headers],[ID]])</f>
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>557</v>
-      </c>
-      <c r="C10" t="s">
-        <v>578</v>
-      </c>
-      <c r="D10" t="s">
-        <v>558</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>580</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E45" s="31"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f>ROW() - ROW(Tabela10[[#Headers],[ID]])</f>
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>565</v>
-      </c>
-      <c r="C11" t="s">
-        <v>581</v>
-      </c>
-      <c r="D11" t="s">
-        <v>560</v>
-      </c>
-      <c r="G11" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f>ROW() - ROW(Tabela10[[#Headers],[ID]])</f>
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>565</v>
-      </c>
-      <c r="C12" t="s">
-        <v>583</v>
-      </c>
-      <c r="D12" t="s">
-        <v>560</v>
-      </c>
-      <c r="G12" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f>ROW() - ROW(Tabela10[[#Headers],[ID]])</f>
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>585</v>
-      </c>
-      <c r="C13" t="s">
-        <v>585</v>
-      </c>
-      <c r="D13" t="s">
-        <v>560</v>
-      </c>
-      <c r="G13" t="s">
-        <v>586</v>
-      </c>
+      <c r="H45" s="31"/>
+      <c r="I45" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -9633,7 +10975,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>545</v>
@@ -9657,42 +10999,42 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
     </row>
   </sheetData>

--- a/script-excel-para-json/input/prescricoes.xlsx
+++ b/script-excel-para-json/input/prescricoes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1AC289667D0E8CCD/Documentos/Saúde/Prescrições/Prescrição_python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2396" documentId="13_ncr:1_{243FE48A-7C6A-41E4-8FFF-32D7F4E6C3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EFAAB7E-B676-4E43-8038-6689DBE959E8}"/>
+  <xr:revisionPtr revIDLastSave="2504" documentId="13_ncr:1_{243FE48A-7C6A-41E4-8FFF-32D7F4E6C3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A94DD4C-A85E-48F1-BC1C-8944F5847901}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" firstSheet="2" activeTab="7" xr2:uid="{4C639DE4-733A-4E7F-8720-AC3921A2C161}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" firstSheet="2" activeTab="7" xr2:uid="{4C639DE4-733A-4E7F-8720-AC3921A2C161}"/>
   </bookViews>
   <sheets>
     <sheet name="Para_casa" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="748">
   <si>
     <t>NomeBusca</t>
   </si>
@@ -2269,13 +2269,6 @@
     <t>Sinais vitais</t>
   </si>
   <si>
-    <t>25 mg Comp;
-50 mg Comp</t>
-  </si>
-  <si>
-    <t>mg; Comp</t>
-  </si>
-  <si>
     <t>Fentanil</t>
   </si>
   <si>
@@ -2478,21 +2471,6 @@
   </si>
   <si>
     <t>Noite</t>
-  </si>
-  <si>
-    <t>[
-	{
-		"nome": "Fentanil 10 mcg BIC",
-		"texto": "Fentanil 50 mcg/ml, 20 ml, BIC, vazão ACM. Concentração: 10 mcg/ml",
-		"componentes":	[
-			{
-				"item": "Glicose à 5%",
-				"dose": "80",
-				"unidade": "ml"
-			}
-					]
-	}
-]</t>
   </si>
   <si>
     <t>25 mg/ml Amp 3</t>
@@ -2708,9 +2686,6 @@
     <t>Controle glicêmico</t>
   </si>
   <si>
-    <t>Controles glicêmicos a cada 4/4h</t>
-  </si>
-  <si>
     <t>Acído acetilsalicílico</t>
   </si>
   <si>
@@ -2916,6 +2891,383 @@
 	{
 		"nome": "SSVV 6/6h",
 		"texto": "Aferir sinais vitais de 6 em 6 horas"
+	}
+]</t>
+  </si>
+  <si>
+    <t>Dor osteomuscular</t>
+  </si>
+  <si>
+    <t>Sistema musculo esquelético</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso oral
+1 - Dipirona 500 mg _____ 1 caixa
+Tomar 1 comprimido de 6 em 6 horas se dor ou febre
+Obs.: Pode tomar até 2 comprimidos de 6 em 6 horas
+Obs. 2: Se não melhora somente com a dipirona, continue tomando-a junto com o anti-inflamatório abaixo
+1 - Naproxeno 500 mg _____ 1 caixa
+Tomar 1 comprimido de 12 em 12 horas por até 5 dias
+1 - Ciclobenzaprina 10 mg _____ 1 caixa
+Tomar 1 comprimido por dia à noite por 7 dias
+</t>
+  </si>
+  <si>
+    <t>50 mg/ml Amp 2 ml</t>
+  </si>
+  <si>
+    <t>Sacarato de hidroxido férrico</t>
+  </si>
+  <si>
+    <t>20 mg/ml Amp 5 ml</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "nome": "Sacarato de hidroxido férrico 200 mg agora",
+        "texto": "Sacarato de hidroxido férrico 20 mg/ml, 5 ml (1 ampola), EV, agora",
+        "componentes": [
+            {
+                "item": "Cloreto de sódio à 0,9%",
+                "dose": "100",
+                "unidade": "ml"
+            }
+        ],
+        "observacao": "infundir em 1 hora"
+    }   
+]</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "nome": "Sulfato de magnésio 20%, 2g, agora",
+        "texto": "Sulfato de magnésio 20%, 10 ml (1 ampola), EV, agora",
+        "componentes": [
+            {
+                "item": "Cloreto de sódio à 0,9%",
+                "dose": "100",
+                "unidade": "ml"
+            }
+        ],
+        "observacao": "Infundir em 30 minutos"
+    }   
+]</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "nome": "Tramadol 100 mg agora",
+        "texto": "Tramadol 100 mg/ml, 2 ml (1 ampola), EV, agora",
+        "componentes": [
+            {
+                "item": "Cloreto de sódio à 0,9%",
+                "dose": "100",
+                "unidade": "ml"
+            }
+        ],
+        "observacao": "Infundir em 30-60 minutos"
+    },
+    {
+        "nome": "Tramadol 100 mg 6/6h se necessário",
+        "texto": "Tramadol 100 mg/ml, 2 ml (1 ampola), 6/6h, se dor",
+        "componentes": [
+            {
+                "item": "Cloreto de sódio à 0,9%",
+                "dose": "100",
+                "unidade": "ml"
+            }
+        ],
+        "observacao": "Infundir em 30-60 minutos"
+    }
+   ]</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "nome": "Norepinefrina 64 mcg/ml BIC",
+        "texto": "Norepinefrina 1 mg/ml, 16 ml, BIC, vazão ACM. Concentração: 64 mcg/ml",
+        "componentes": [
+            {
+                "item": "SG 5%",
+                "dose": "234",
+                "unidade": "ml"
+            }
+        ]
+    },
+    {
+        "nome": "Norepinefrina 160 mcg/ml BIC",
+        "texto": "Norepinefrina 1 mg/ml, 16 ml, BIC, vazão ACM. Concentração: 160 mcg/ml",
+        "componentes": [
+            {
+                "item": "SG 5%",
+                "dose": "84",
+                "unidade": "ml"
+            }
+        ]
+    },
+    {
+        "nome": "Norepinefrina 200 mcg/ml BIC",
+        "texto": "Norepinefrina 1 mg/ml, 20 ml, BIC, vazão ACM. Concentração: 200 mcg/ml",
+        "componentes": [
+            {
+                "item": "SG 5%",
+                "dose": "80",
+                "unidade": "ml"
+            }
+        ]
+    }
+]</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "nome": "Nitroprussiato 200 mcg/ml BIC",
+        "texto": "Nitroprussiato 25 mg/ml, 2 ml, BIC, vazão ACM. Concentração: 200 mcg/ml",
+        "componentes": [
+            {
+                "item": "SG 5%",
+                "dose": "248",
+                "unidade": "ml"
+            }
+        ],
+        "observacao": "Em equipo para fotoproteção"
+    }
+]</t>
+  </si>
+  <si>
+    <t>Nitroglicerina</t>
+  </si>
+  <si>
+    <t>5 mg/ml Amp 5 ml;
+5 mg/ml Amp 10ml</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "nome": "Nitroglicerina 200 mcg/ml BIC",
+        "texto": "Nitroprussiato 25 mg/ml, 10 ml, BIC, vazão ACM. Concentração: 200 mcg/ml",
+        "componentes": [
+            {
+                "item": "SF 0,9% ou SG 5%",
+                "dose": "240",
+                "unidade": "ml"
+            }
+        ]
+    }
+]</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "nome": "Morfina 2 mg agora",
+        "texto": "Morfina 10 mg/ml, 1 ml (1 ampola), EV, bolus, agora",
+        "componentes": [
+            {
+                "item": "ABD",
+                "dose": "9",
+                "unidade": "ml"
+            }
+        ]
+    },
+{
+        "nome": "Morfina 1 mg/ml BIC",
+        "texto": "Morfina 10 mg/ml, 10 ml (10 ampolas), EV, BIC, vazão ACM. Concentração: 1 mg/ml",
+        "componentes": [
+            {
+                "item": "SG 5%",
+                "dose": "90",
+                "unidade": "ml"
+            }
+        ]
+    }
+]</t>
+  </si>
+  <si>
+    <t>25 mg Comp;
+50 mg Comp;
+1 mg/ml Amp 5 ml</t>
+  </si>
+  <si>
+    <t>mg; ml; Comp; ampola</t>
+  </si>
+  <si>
+    <t>[
+	{
+		"nome": "Fentanil 10 mcg/ml BIC",
+		"texto": "Fentanil 50 mcg/ml, 20 ml, BIC, vazão ACM. Concentração: 10 mcg/ml",
+		"componentes":	[
+			{
+				"item": "Glicose à 5%",
+				"dose": "80",
+				"unidade": "ml"
+			}
+					]
+	}
+]</t>
+  </si>
+  <si>
+    <t>[
+	{
+		"nome": "Dopamina 1000 mcg/ml BIC (100 ml)",
+		"texto": "Dopamina 5 mg/ml, 20 ml, BIC, vazão ACM. Concentração: 1000 mcg/ml",
+		"componentes":	[
+			{
+				"item": "SF 0,9% ou SG 5%",
+				"dose": "80",
+				"unidade": "ml"
+			}
+					]
+	},
+	{
+		"nome": "Dopamina 1000 mcg/ml BIC (100 ml)",
+		"texto": "Dopamina 5 mg/ml, 50 ml (5 ampolas), BIC, vazão ACM. Concentração: 1000 mcg/ml",
+		"componentes":	[
+			{
+				"item": "SF 0,9% ou SG 5%",
+				"dose": "200",
+				"unidade": "ml"
+			}
+					]
+	}
+]</t>
+  </si>
+  <si>
+    <t>[
+	{
+		"nome": "Dobutamina 4000 mcg/ml BIC",
+		"texto": "Dobutamina 250 mg/20 ml, 80 ml, BIC, vazão ACM. Concentração: 4000 mcg/ml",
+		"componentes":	[
+			{
+				"item": "SF 0,9% ou SG 5%",
+				"dose": "170",
+				"unidade": "ml"
+			}
+					]
+	}
+]</t>
+  </si>
+  <si>
+    <t>[
+	{
+		"nome": "Cloreto de sódio à 3% BIC",
+		"texto": "Cloreto de sódio 20%, 55 ml, BIC, vazão ACM. Concentração: 3%",
+		"componentes":	[
+			{
+				"item": "SF 0,9%",
+				"dose": "445",
+				"unidade": "ml"
+			}
+					]
+	}
+]</t>
+  </si>
+  <si>
+    <t>[
+	{
+		"nome": "Cloreto de potássio 19,1% 75 mEq/L BIC",
+		"texto": "Cloreto de potássio 19,1%, 15 ml, BIC, infundir em 3 horas. Concentração: 75 mEq/L",
+		"componentes":	[
+			{
+				"item": "SF 0,9%",
+				"dose": "485",
+				"unidade": "ml"
+			}
+					],
+		"observacao": "Pode infundir em via periférica"
+	},
+	{
+		"nome": "Cloreto de potássio 19,1% 100 mEq/L BIC",
+		"texto": "Cloreto de potássio 19,1%, 10 ml, BIC, infundir em 2 horas. Concentração: 100 mEq/L",
+		"componentes":	[
+			{
+				"item": "SF 0,9%",
+				"dose": "240",
+				"unidade": "ml"
+			}
+					],
+		"observacao": "Infundir em veia central"
+	}
+]</t>
+  </si>
+  <si>
+    <t>[
+	{
+		"nome": "Clopidogrel  300 mg agora",
+		"texto": "Clopidogrel 75 mg, 300 mg (4 comprimidos), VO, agora"
+	}
+]</t>
+  </si>
+  <si>
+    <t>[
+	{
+		"nome": "AAS  300 mg agora",
+		"texto": "Acido acetilsalicílico 100 mg, 300 mg (3 comprimidos), VO, agora"
+	}
+]</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "nome": "Amiodarona 150 mg agora",
+        "texto": "Amiodarona 50 mg/ml, 3 ml (1 ampola), EV, agora",
+        "componentes": [
+            {
+                "item": "Glicose à 5%",
+                "dose": "100",
+                "unidade": "ml"
+            }
+        ],
+        "observacao": "Infundir em 30 minutos"
+    },
+    {
+        "nome": "Amiodarona 3,6 mg/ml BIC",
+        "texto": "Amiodarona 50 mg/ml, 18 ml (6 ampola), EV, BIC, vazão ACM. Concentração: 3,6 mg/ml",
+        "componentes": [
+            {
+                "item": "Glicose à 5%",
+                "dose": "234",
+                "unidade": "ml"
+            }
+        ]
+    }
+]</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "nome": "Metoprolol 5 mg agora",
+        "texto": "Metoprolol 1 mg/ml, 5 ml (1 ampola) em 5 ml de ABD, EV, lento, agora"
+    }
+]</t>
+  </si>
+  <si>
+    <t>[
+	{
+		"nome": "HGT 4/4h",
+		"texto": "Controle glicêmico 4 em 4 horas"
+	},
+	{
+		"nome": "HGT 1/1h",
+		"texto": "Controle glicêmico 1 em 1 hora"
+	}
+]</t>
+  </si>
+  <si>
+    <t>Manter grades elevadas</t>
+  </si>
+  <si>
+    <t>Prevenção de quedas</t>
+  </si>
+  <si>
+    <t>[
+	{
+		"nome": "Salbutamol 4 jatos com espaçador 20/20 min",
+		"texto": "Salbutamol 100 mcg aerossol, 4 jatos a cada 20 minutos por 1 hora, via inalatória, agora",
+		"observação": "Usar espaçador"
+	},
+	{
+		"nome": "Salbutamol 6 jatos 20/20 min",
+		"texto": "Salbutamol 100 mcg aerossol, 6 jatos a cada 20 minutos por 1 hora, via inalatória, agora"
 	}
 ]</t>
   </si>
@@ -3058,7 +3410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3116,6 +3468,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3146,6 +3501,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3866,11 +4227,11 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4EB17778-C096-4FB9-8CEA-CBC90E8CC8E2}" name="Tabela8" displayName="Tabela8" ref="A1:E6" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
-  <autoFilter ref="A1:E6" xr:uid="{4EB17778-C096-4FB9-8CEA-CBC90E8CC8E2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4EB17778-C096-4FB9-8CEA-CBC90E8CC8E2}" name="Tabela8" displayName="Tabela8" ref="A1:E7" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+  <autoFilter ref="A1:E7" xr:uid="{4EB17778-C096-4FB9-8CEA-CBC90E8CC8E2}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{C07F2220-FEC5-4C0B-AB14-F80860FCB6A0}" name="ID_Item" dataDxfId="37">
-      <calculatedColumnFormula>ROW() - ROW(Tabela5[[#Headers],[ID_Item]])</calculatedColumnFormula>
+      <calculatedColumnFormula>ROW() - ROW(Tabela8[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{F6AB2AED-7D50-4A14-A3D8-3D697CD7C3E6}" name="NomeBusca" dataDxfId="36"/>
     <tableColumn id="3" xr3:uid="{24DCE466-5828-477A-94D8-8B94F125CA52}" name="ConteudoTexto" dataDxfId="35"/>
@@ -3931,10 +4292,10 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{4B1D6705-EEC4-44EF-9410-0F0CC297D1AF}" name="Tabela11" displayName="Tabela11" ref="A1:I45" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
-  <autoFilter ref="A1:I45" xr:uid="{4B1D6705-EEC4-44EF-9410-0F0CC297D1AF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I45">
-    <sortCondition ref="B1:B45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{4B1D6705-EEC4-44EF-9410-0F0CC297D1AF}" name="Tabela11" displayName="Tabela11" ref="A1:I49" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="A1:I49" xr:uid="{4B1D6705-EEC4-44EF-9410-0F0CC297D1AF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I49">
+    <sortCondition ref="B1:B49"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{301BA950-EFFF-4FE5-9DB9-5861171DCD47}" name="ID" dataDxfId="7">
@@ -4284,7 +4645,7 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:V159"/>
   <sheetViews>
-    <sheetView topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
@@ -8711,210 +9072,210 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B8" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B9" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B10" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B11" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B12" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B13" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B14" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B15" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B16" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B17" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B18" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B19" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B20" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B21" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B22" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B23" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B24" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B25" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B26" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -9243,18 +9604,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1623D2DD-2AAF-46F4-A228-AB579D2CF3FD}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="104.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9277,6 +9638,7 @@
     </row>
     <row r="2" spans="1:5" ht="345" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
+        <f>ROW() - ROW(Tabela8[[#Headers],[ID_Item]])</f>
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -9294,6 +9656,7 @@
     </row>
     <row r="3" spans="1:5" ht="300" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
+        <f>ROW() - ROW(Tabela8[[#Headers],[ID_Item]])</f>
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -9306,11 +9669,12 @@
         <v>272</v>
       </c>
       <c r="E3" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="315" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
+        <f>ROW() - ROW(Tabela8[[#Headers],[ID_Item]])</f>
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
@@ -9323,11 +9687,12 @@
         <v>274</v>
       </c>
       <c r="E4" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
+        <f>ROW() - ROW(Tabela8[[#Headers],[ID_Item]])</f>
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
@@ -9345,6 +9710,7 @@
     </row>
     <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
+        <f>ROW() - ROW(Tabela8[[#Headers],[ID_Item]])</f>
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -9357,14 +9723,29 @@
         <v>275</v>
       </c>
       <c r="E6" s="13">
-        <v>5</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <f>ROW() - ROW(Tabela8[[#Headers],[ID_Item]])</f>
+        <v>6</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>718</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>720</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>719</v>
+      </c>
+      <c r="E7" s="43">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <ignoredErrors>
-    <ignoredError sqref="A3:A5" calculatedColumn="1"/>
-  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -9800,10 +10181,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFFD9FF-690D-4767-9960-BAF8E0E731BC}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9820,1103 +10201,1233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>549</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>550</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>551</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="28" t="s">
         <v>552</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="28" t="s">
         <v>553</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="28" t="s">
         <v>554</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="28" t="s">
         <v>555</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="28" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="25">
+    <row r="2" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A2" s="26">
         <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
         <v>1</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>563</v>
       </c>
-      <c r="C2" s="29" t="s">
-        <v>673</v>
-      </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29" t="s">
-        <v>674</v>
-      </c>
-      <c r="H2" s="39"/>
-      <c r="I2" s="29"/>
+      <c r="C2" s="30" t="s">
+        <v>670</v>
+      </c>
+      <c r="D2" s="30"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30" t="s">
+        <v>670</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>744</v>
+      </c>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="25">
+      <c r="A3" s="26">
         <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>563</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>574</v>
-      </c>
-      <c r="D3" s="25" t="s">
+      <c r="C3" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="D3" s="26" t="s">
         <v>560</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25" t="s">
-        <v>575</v>
-      </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26" t="s">
+        <v>573</v>
+      </c>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
+      <c r="A4" s="26">
         <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
         <v>3</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="30" t="s">
         <v>563</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>576</v>
-      </c>
-      <c r="D4" s="24" t="s">
+      <c r="C4" s="30" t="s">
+        <v>746</v>
+      </c>
+      <c r="D4" s="30" t="s">
         <v>560</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24" t="s">
-        <v>577</v>
-      </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30" t="s">
+        <v>745</v>
+      </c>
+      <c r="H4" s="40"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
+      <c r="A5" s="24">
         <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
         <v>4</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>563</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>669</v>
-      </c>
-      <c r="D5" s="29" t="s">
+      <c r="C5" s="24" t="s">
+        <v>574</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>560</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29" t="s">
-        <v>670</v>
-      </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="29"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24" t="s">
+        <v>575</v>
+      </c>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+      <c r="A6" s="26">
         <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
         <v>5</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="26" t="s">
         <v>563</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>669</v>
-      </c>
-      <c r="D6" s="29" t="s">
+      <c r="C6" s="30" t="s">
+        <v>666</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>560</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29" t="s">
-        <v>671</v>
-      </c>
-      <c r="H6" s="39"/>
-      <c r="I6" s="29"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30" t="s">
+        <v>667</v>
+      </c>
+      <c r="H6" s="40"/>
+      <c r="I6" s="30"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
+      <c r="A7" s="26">
         <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
         <v>6</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="26" t="s">
         <v>563</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>669</v>
-      </c>
-      <c r="D7" s="29" t="s">
+      <c r="C7" s="30" t="s">
+        <v>666</v>
+      </c>
+      <c r="D7" s="30" t="s">
         <v>560</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29" t="s">
-        <v>672</v>
-      </c>
-      <c r="H7" s="39"/>
-      <c r="I7" s="29"/>
-    </row>
-    <row r="8" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
+      <c r="E7" s="26"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30" t="s">
+        <v>668</v>
+      </c>
+      <c r="H7" s="40"/>
+      <c r="I7" s="30"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
         <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
         <v>7</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="30" t="s">
         <v>563</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>564</v>
-      </c>
-      <c r="D8" s="25" t="s">
+      <c r="C8" s="30" t="s">
+        <v>666</v>
+      </c>
+      <c r="D8" s="30" t="s">
         <v>560</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25" t="s">
-        <v>720</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>721</v>
-      </c>
-      <c r="I8" s="25"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
+      <c r="E8" s="26"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="H8" s="40"/>
+      <c r="I8" s="30"/>
+    </row>
+    <row r="9" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
         <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
         <v>8</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>569</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>562</v>
-      </c>
-      <c r="D9" s="25" t="s">
+      <c r="B9" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>560</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25" t="s">
-        <v>559</v>
-      </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26" t="s">
+        <v>716</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>717</v>
+      </c>
+      <c r="I9" s="26"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+      <c r="A10" s="26">
         <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
         <v>9</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>675</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>558</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>676</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>677</v>
-      </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="29"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="29">
+      <c r="B10" s="26" t="s">
+        <v>567</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>562</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>560</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26" t="s">
+        <v>559</v>
+      </c>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+    </row>
+    <row r="11" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
         <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
         <v>10</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="30" t="s">
         <v>557</v>
       </c>
-      <c r="C11" s="29" t="s">
-        <v>684</v>
-      </c>
-      <c r="D11" s="29" t="s">
+      <c r="C11" s="30" t="s">
+        <v>671</v>
+      </c>
+      <c r="D11" s="30" t="s">
         <v>558</v>
       </c>
-      <c r="E11" s="25" t="s">
-        <v>685</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>701</v>
-      </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="29"/>
+      <c r="E11" s="26" t="s">
+        <v>672</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>673</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="41" t="s">
+        <v>741</v>
+      </c>
+      <c r="I11" s="30"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="29">
+      <c r="A12" s="30">
         <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
         <v>11</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="30" t="s">
         <v>557</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="30" t="s">
         <v>680</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="30" t="s">
         <v>558</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="32" t="s">
         <v>681</v>
       </c>
-      <c r="F12" s="29" t="s">
-        <v>701</v>
-      </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="29"/>
-    </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="29">
+      <c r="F12" s="30" t="s">
+        <v>697</v>
+      </c>
+      <c r="G12" s="30"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="30"/>
+    </row>
+    <row r="13" spans="1:9" ht="390" x14ac:dyDescent="0.25">
+      <c r="A13" s="30">
         <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
         <v>12</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="30" t="s">
         <v>557</v>
       </c>
-      <c r="C13" s="29" t="s">
-        <v>682</v>
-      </c>
-      <c r="D13" s="29" t="s">
+      <c r="C13" s="30" t="s">
+        <v>676</v>
+      </c>
+      <c r="D13" s="30" t="s">
         <v>558</v>
       </c>
-      <c r="E13" s="33" t="s">
-        <v>683</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>701</v>
-      </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="29"/>
-    </row>
-    <row r="14" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
+      <c r="E13" s="32" t="s">
+        <v>677</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>697</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="38" t="s">
+        <v>742</v>
+      </c>
+      <c r="I13" s="30"/>
+    </row>
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="30">
         <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
         <v>13</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="35" t="s">
         <v>557</v>
       </c>
-      <c r="C14" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="34" t="s">
+      <c r="C14" s="35" t="s">
+        <v>678</v>
+      </c>
+      <c r="D14" s="35" t="s">
         <v>558</v>
       </c>
-      <c r="E14" s="31" t="s">
-        <v>637</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>701</v>
-      </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="26" t="s">
-        <v>714</v>
-      </c>
-      <c r="I14" s="29"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="29">
+      <c r="E14" s="34" t="s">
+        <v>679</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>697</v>
+      </c>
+      <c r="G14" s="30"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="30"/>
+    </row>
+    <row r="15" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A15" s="26">
         <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
         <v>14</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="35" t="s">
         <v>557</v>
       </c>
-      <c r="C15" s="34" t="s">
-        <v>696</v>
-      </c>
-      <c r="D15" s="34" t="s">
+      <c r="C15" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="35" t="s">
         <v>558</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="32" t="s">
+        <v>634</v>
+      </c>
+      <c r="F15" s="35" t="s">
         <v>697</v>
       </c>
-      <c r="F15" s="34" t="s">
-        <v>698</v>
-      </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="29"/>
-    </row>
-    <row r="16" spans="1:9" ht="390" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
+      <c r="G15" s="30"/>
+      <c r="H15" s="27" t="s">
+        <v>710</v>
+      </c>
+      <c r="I15" s="30"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="30">
         <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
         <v>15</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="35" t="s">
         <v>557</v>
       </c>
-      <c r="C16" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="36" t="s">
+      <c r="C16" s="35" t="s">
+        <v>692</v>
+      </c>
+      <c r="D16" s="35" t="s">
         <v>558</v>
       </c>
-      <c r="E16" s="36" t="s">
-        <v>642</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>561</v>
-      </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="37" t="s">
-        <v>638</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="25">
+      <c r="E16" s="32" t="s">
+        <v>693</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>694</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="30"/>
+    </row>
+    <row r="17" spans="1:9" ht="390" x14ac:dyDescent="0.25">
+      <c r="A17" s="24">
         <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
         <v>16</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="37" t="s">
         <v>557</v>
       </c>
-      <c r="C17" s="34" t="s">
-        <v>648</v>
-      </c>
-      <c r="D17" s="34" t="s">
+      <c r="C17" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="37" t="s">
         <v>558</v>
       </c>
-      <c r="E17" s="31" t="s">
-        <v>649</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>650</v>
+      <c r="E17" s="37" t="s">
+        <v>639</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>561</v>
       </c>
       <c r="G17" s="29"/>
-      <c r="H17" s="40" t="s">
-        <v>651</v>
-      </c>
-      <c r="I17" s="29"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
+      <c r="H17" s="25" t="s">
+        <v>635</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="26">
         <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
         <v>17</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="35" t="s">
         <v>557</v>
       </c>
-      <c r="C18" s="34" t="s">
-        <v>678</v>
-      </c>
-      <c r="D18" s="34" t="s">
+      <c r="C18" s="35" t="s">
+        <v>645</v>
+      </c>
+      <c r="D18" s="35" t="s">
         <v>558</v>
       </c>
-      <c r="E18" s="31" t="s">
-        <v>679</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>677</v>
-      </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="29"/>
-    </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="29">
+      <c r="E18" s="32" t="s">
+        <v>646</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>647</v>
+      </c>
+      <c r="G18" s="30"/>
+      <c r="H18" s="41" t="s">
+        <v>648</v>
+      </c>
+      <c r="I18" s="30"/>
+    </row>
+    <row r="19" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="26">
         <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
         <v>18</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="35" t="s">
         <v>557</v>
       </c>
-      <c r="C19" s="34" t="s">
-        <v>699</v>
-      </c>
-      <c r="D19" s="34" t="s">
+      <c r="C19" s="35" t="s">
+        <v>674</v>
+      </c>
+      <c r="D19" s="35" t="s">
         <v>558</v>
       </c>
-      <c r="E19" s="33" t="s">
-        <v>700</v>
-      </c>
-      <c r="F19" s="34" t="s">
-        <v>702</v>
-      </c>
-      <c r="G19" s="29"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="29"/>
-    </row>
-    <row r="20" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
+      <c r="E19" s="32" t="s">
+        <v>675</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>673</v>
+      </c>
+      <c r="G19" s="30"/>
+      <c r="H19" s="42" t="s">
+        <v>740</v>
+      </c>
+      <c r="I19" s="30"/>
+    </row>
+    <row r="20" spans="1:9" ht="390" x14ac:dyDescent="0.25">
+      <c r="A20" s="30">
         <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
         <v>19</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="35" t="s">
         <v>557</v>
       </c>
-      <c r="C20" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="D20" s="36" t="s">
+      <c r="C20" s="35" t="s">
+        <v>695</v>
+      </c>
+      <c r="D20" s="35" t="s">
         <v>558</v>
       </c>
-      <c r="E20" s="38" t="s">
-        <v>667</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>666</v>
-      </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="24"/>
-    </row>
-    <row r="21" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="25">
+      <c r="E20" s="34" t="s">
+        <v>696</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>698</v>
+      </c>
+      <c r="G20" s="30"/>
+      <c r="H20" s="38" t="s">
+        <v>739</v>
+      </c>
+      <c r="I20" s="30"/>
+    </row>
+    <row r="21" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="A21" s="24">
         <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
         <v>20</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="37" t="s">
         <v>557</v>
       </c>
-      <c r="C21" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="D21" s="34" t="s">
+      <c r="C21" s="37" t="s">
+        <v>571</v>
+      </c>
+      <c r="D21" s="37" t="s">
         <v>558</v>
       </c>
-      <c r="E21" t="s">
-        <v>646</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>701</v>
-      </c>
-      <c r="G21" s="29"/>
-      <c r="H21" s="41" t="s">
-        <v>647</v>
-      </c>
-      <c r="I21" s="29"/>
-    </row>
-    <row r="22" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A22" s="25">
+      <c r="E21" s="39" t="s">
+        <v>664</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>663</v>
+      </c>
+      <c r="G21" s="24"/>
+      <c r="H21" s="38" t="s">
+        <v>738</v>
+      </c>
+      <c r="I21" s="24"/>
+    </row>
+    <row r="22" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="26">
         <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
         <v>21</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="35" t="s">
         <v>557</v>
       </c>
-      <c r="C22" s="34" t="s">
-        <v>652</v>
-      </c>
-      <c r="D22" s="34" t="s">
+      <c r="C22" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="35" t="s">
         <v>558</v>
       </c>
       <c r="E22" t="s">
-        <v>653</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>654</v>
-      </c>
-      <c r="G22" s="29"/>
-      <c r="H22" s="41" t="s">
-        <v>655</v>
-      </c>
-      <c r="I22" s="29"/>
-    </row>
-    <row r="23" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="25">
+        <v>643</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>697</v>
+      </c>
+      <c r="G22" s="30"/>
+      <c r="H22" s="42" t="s">
+        <v>644</v>
+      </c>
+      <c r="I22" s="30"/>
+    </row>
+    <row r="23" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="26">
         <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
         <v>22</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="35" t="s">
         <v>557</v>
       </c>
-      <c r="C23" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="34" t="s">
+      <c r="C23" s="35" t="s">
+        <v>649</v>
+      </c>
+      <c r="D23" s="35" t="s">
         <v>558</v>
       </c>
       <c r="E23" t="s">
-        <v>635</v>
-      </c>
-      <c r="F23" s="34" t="s">
-        <v>701</v>
-      </c>
-      <c r="G23" s="29"/>
-      <c r="H23" s="35" t="s">
-        <v>636</v>
-      </c>
-      <c r="I23" s="29"/>
-    </row>
-    <row r="24" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A24" s="25">
+        <v>650</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>651</v>
+      </c>
+      <c r="G23" s="30"/>
+      <c r="H23" s="42" t="s">
+        <v>652</v>
+      </c>
+      <c r="I23" s="30"/>
+    </row>
+    <row r="24" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="26">
         <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
         <v>23</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="35" t="s">
         <v>557</v>
       </c>
-      <c r="C24" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="34" t="s">
+      <c r="C24" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="35" t="s">
         <v>558</v>
       </c>
-      <c r="E24" s="33" t="s">
-        <v>626</v>
-      </c>
-      <c r="F24" s="34" t="s">
-        <v>703</v>
-      </c>
-      <c r="G24" s="29"/>
-      <c r="H24" s="33" t="s">
-        <v>715</v>
-      </c>
-      <c r="I24" s="29"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="29">
+      <c r="E24" t="s">
+        <v>632</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>697</v>
+      </c>
+      <c r="G24" s="30"/>
+      <c r="H24" s="42" t="s">
+        <v>633</v>
+      </c>
+      <c r="I24" s="30"/>
+    </row>
+    <row r="25" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A25" s="26">
         <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
         <v>24</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="30" t="s">
         <v>557</v>
       </c>
-      <c r="C25" s="34" t="s">
-        <v>710</v>
-      </c>
-      <c r="D25" s="34" t="s">
+      <c r="C25" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="35" t="s">
         <v>558</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="34" t="s">
+        <v>624</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>699</v>
+      </c>
+      <c r="G25" s="30"/>
+      <c r="H25" s="34" t="s">
         <v>711</v>
       </c>
-      <c r="F25" s="34" t="s">
-        <v>701</v>
-      </c>
-      <c r="G25" s="29"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="29"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="29">
+      <c r="I25" s="30"/>
+    </row>
+    <row r="26" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="A26" s="30">
         <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
         <v>25</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="30" t="s">
         <v>557</v>
       </c>
-      <c r="C26" s="34" t="s">
-        <v>712</v>
-      </c>
-      <c r="D26" s="34" t="s">
+      <c r="C26" s="35" t="s">
+        <v>706</v>
+      </c>
+      <c r="D26" s="35" t="s">
         <v>558</v>
       </c>
       <c r="E26" t="s">
-        <v>713</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>701</v>
-      </c>
-      <c r="G26" s="29"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="29"/>
-    </row>
-    <row r="27" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A27" s="25">
+        <v>707</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>697</v>
+      </c>
+      <c r="G26" s="30"/>
+      <c r="H26" s="38" t="s">
+        <v>737</v>
+      </c>
+      <c r="I26" s="30"/>
+    </row>
+    <row r="27" spans="1:9" ht="360" x14ac:dyDescent="0.25">
+      <c r="A27" s="30">
         <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
         <v>26</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="35" t="s">
         <v>557</v>
       </c>
-      <c r="C27" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="34" t="s">
+      <c r="C27" s="35" t="s">
+        <v>708</v>
+      </c>
+      <c r="D27" s="35" t="s">
         <v>558</v>
       </c>
       <c r="E27" t="s">
-        <v>641</v>
-      </c>
-      <c r="F27" s="34" t="s">
-        <v>701</v>
-      </c>
-      <c r="G27" s="29"/>
-      <c r="H27" s="33" t="s">
-        <v>716</v>
-      </c>
-      <c r="I27" s="29"/>
-    </row>
-    <row r="28" spans="1:9" ht="195" x14ac:dyDescent="0.25">
-      <c r="A28" s="24">
+        <v>709</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>697</v>
+      </c>
+      <c r="G27" s="30"/>
+      <c r="H27" s="38" t="s">
+        <v>736</v>
+      </c>
+      <c r="I27" s="30"/>
+    </row>
+    <row r="28" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A28" s="26">
         <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
         <v>27</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="35" t="s">
         <v>557</v>
       </c>
-      <c r="C28" s="36" t="s">
-        <v>567</v>
-      </c>
-      <c r="D28" s="36" t="s">
+      <c r="C28" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="35" t="s">
         <v>558</v>
       </c>
-      <c r="E28" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="F28" s="36" t="s">
-        <v>568</v>
-      </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="37" t="s">
-        <v>634</v>
-      </c>
-      <c r="I28" s="24"/>
-    </row>
-    <row r="29" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A29" s="25">
+      <c r="E28" t="s">
+        <v>638</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>697</v>
+      </c>
+      <c r="G28" s="30"/>
+      <c r="H28" s="34" t="s">
+        <v>712</v>
+      </c>
+      <c r="I28" s="30"/>
+    </row>
+    <row r="29" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="A29" s="24">
         <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
         <v>28</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="37" t="s">
         <v>557</v>
       </c>
-      <c r="C29" s="34" t="s">
-        <v>664</v>
-      </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="12" t="s">
-        <v>668</v>
-      </c>
-      <c r="F29" s="34" t="s">
-        <v>665</v>
-      </c>
-      <c r="G29" s="29"/>
-      <c r="H29" s="35" t="s">
-        <v>718</v>
-      </c>
-      <c r="I29" s="29"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="29">
+      <c r="C29" s="37" t="s">
+        <v>565</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>558</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>570</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>566</v>
+      </c>
+      <c r="G29" s="24"/>
+      <c r="H29" s="38" t="s">
+        <v>735</v>
+      </c>
+      <c r="I29" s="24"/>
+    </row>
+    <row r="30" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A30" s="26">
         <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
         <v>29</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="35" t="s">
         <v>557</v>
       </c>
-      <c r="C30" s="34" t="s">
-        <v>705</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>558</v>
-      </c>
-      <c r="E30" t="s">
-        <v>706</v>
-      </c>
-      <c r="F30" s="34" t="s">
-        <v>701</v>
-      </c>
-      <c r="G30" s="29"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="29"/>
+      <c r="C30" s="35" t="s">
+        <v>661</v>
+      </c>
+      <c r="D30" s="35"/>
+      <c r="E30" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="F30" s="35" t="s">
+        <v>662</v>
+      </c>
+      <c r="G30" s="30"/>
+      <c r="H30" s="36" t="s">
+        <v>714</v>
+      </c>
+      <c r="I30" s="30"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="29">
+      <c r="A31" s="30">
         <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
         <v>30</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="35" t="s">
         <v>557</v>
       </c>
-      <c r="C31" s="29" t="s">
-        <v>689</v>
-      </c>
-      <c r="D31" s="29" t="s">
+      <c r="C31" s="30" t="s">
+        <v>701</v>
+      </c>
+      <c r="D31" s="30" t="s">
         <v>558</v>
       </c>
       <c r="E31" t="s">
-        <v>690</v>
-      </c>
-      <c r="F31" s="29" t="s">
-        <v>691</v>
-      </c>
-      <c r="G31" s="29"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="29"/>
-    </row>
-    <row r="32" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A32" s="31">
+        <v>702</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>697</v>
+      </c>
+      <c r="G31" s="30"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="30"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="35">
         <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
         <v>31</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="35" t="s">
         <v>557</v>
       </c>
-      <c r="C32" s="34" t="s">
-        <v>660</v>
-      </c>
-      <c r="D32" s="34" t="s">
+      <c r="C32" s="35" t="s">
+        <v>685</v>
+      </c>
+      <c r="D32" s="35" t="s">
         <v>558</v>
       </c>
       <c r="E32" t="s">
-        <v>661</v>
-      </c>
-      <c r="F32" s="34" t="s">
-        <v>662</v>
-      </c>
-      <c r="G32" s="29"/>
-      <c r="H32" s="35" t="s">
-        <v>663</v>
-      </c>
-      <c r="I32" s="29"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="34">
+        <v>686</v>
+      </c>
+      <c r="F32" s="35" t="s">
+        <v>687</v>
+      </c>
+      <c r="G32" s="30"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="30"/>
+    </row>
+    <row r="33" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A33" s="32">
         <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
         <v>32</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="35" t="s">
         <v>557</v>
       </c>
-      <c r="C33" s="34" t="s">
-        <v>531</v>
-      </c>
-      <c r="D33" s="34" t="s">
+      <c r="C33" s="35" t="s">
+        <v>657</v>
+      </c>
+      <c r="D33" s="35" t="s">
         <v>558</v>
       </c>
       <c r="E33" t="s">
-        <v>688</v>
-      </c>
-      <c r="F33" s="34" t="s">
-        <v>650</v>
-      </c>
-      <c r="G33" s="29"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="29"/>
-    </row>
-    <row r="34" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A34" s="25">
+        <v>658</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>659</v>
+      </c>
+      <c r="G33" s="30"/>
+      <c r="H33" s="36" t="s">
+        <v>660</v>
+      </c>
+      <c r="I33" s="30"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="30">
         <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
         <v>33</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="35" t="s">
         <v>557</v>
       </c>
-      <c r="C34" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="D34" s="29" t="s">
+      <c r="C34" s="30" t="s">
+        <v>531</v>
+      </c>
+      <c r="D34" s="30" t="s">
         <v>558</v>
       </c>
       <c r="E34" t="s">
-        <v>637</v>
-      </c>
-      <c r="F34" s="29" t="s">
-        <v>701</v>
-      </c>
-      <c r="G34" s="29"/>
-      <c r="H34" s="33" t="s">
-        <v>719</v>
-      </c>
-      <c r="I34" s="29"/>
-    </row>
-    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="31">
+        <v>684</v>
+      </c>
+      <c r="F34" s="30" t="s">
+        <v>647</v>
+      </c>
+      <c r="G34" s="30"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="30"/>
+    </row>
+    <row r="35" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A35" s="32">
         <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
         <v>34</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="35" t="s">
         <v>557</v>
       </c>
-      <c r="C35" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="D35" s="31" t="s">
+      <c r="C35" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" s="35" t="s">
         <v>558</v>
       </c>
-      <c r="E35" s="33" t="s">
-        <v>565</v>
-      </c>
-      <c r="F35" s="31" t="s">
-        <v>566</v>
-      </c>
-      <c r="G35" s="25"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="25"/>
-    </row>
-    <row r="36" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="31">
+      <c r="E35" t="s">
+        <v>634</v>
+      </c>
+      <c r="F35" s="35" t="s">
+        <v>697</v>
+      </c>
+      <c r="G35" s="30"/>
+      <c r="H35" s="34" t="s">
+        <v>715</v>
+      </c>
+      <c r="I35" s="30"/>
+    </row>
+    <row r="36" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A36" s="32">
         <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
         <v>35</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="32" t="s">
         <v>557</v>
       </c>
-      <c r="C36" s="31" t="s">
-        <v>570</v>
-      </c>
-      <c r="D36" s="31" t="s">
+      <c r="C36" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="D36" s="32" t="s">
         <v>558</v>
       </c>
-      <c r="E36" s="33" t="s">
-        <v>571</v>
-      </c>
-      <c r="F36" s="31" t="s">
-        <v>704</v>
-      </c>
-      <c r="G36" s="25"/>
-      <c r="H36" s="33" t="s">
-        <v>640</v>
-      </c>
-      <c r="I36" s="25"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="34">
+      <c r="E36" s="34" t="s">
+        <v>733</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>734</v>
+      </c>
+      <c r="G36" s="26"/>
+      <c r="H36" s="34" t="s">
+        <v>743</v>
+      </c>
+      <c r="I36" s="26"/>
+    </row>
+    <row r="37" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="32">
         <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
         <v>36</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="32" t="s">
         <v>557</v>
       </c>
-      <c r="C37" s="34" t="s">
-        <v>694</v>
-      </c>
-      <c r="D37" s="34" t="s">
+      <c r="C37" s="32" t="s">
+        <v>568</v>
+      </c>
+      <c r="D37" s="32" t="s">
         <v>558</v>
       </c>
-      <c r="E37" t="s">
-        <v>695</v>
-      </c>
-      <c r="F37" s="34" t="s">
-        <v>701</v>
-      </c>
-      <c r="G37" s="29"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="29"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="34">
+      <c r="E37" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="F37" s="32" t="s">
+        <v>700</v>
+      </c>
+      <c r="G37" s="26"/>
+      <c r="H37" s="34" t="s">
+        <v>637</v>
+      </c>
+      <c r="I37" s="26"/>
+    </row>
+    <row r="38" spans="1:9" ht="360" x14ac:dyDescent="0.25">
+      <c r="A38" s="30">
         <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
         <v>37</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="30" t="s">
         <v>557</v>
       </c>
-      <c r="C38" s="34" t="s">
-        <v>709</v>
-      </c>
-      <c r="D38" s="34" t="s">
+      <c r="C38" s="30" t="s">
+        <v>690</v>
+      </c>
+      <c r="D38" s="30" t="s">
         <v>558</v>
       </c>
       <c r="E38" t="s">
-        <v>639</v>
-      </c>
-      <c r="F38" s="34" t="s">
-        <v>701</v>
-      </c>
-      <c r="G38" s="29"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="29"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="34">
+        <v>691</v>
+      </c>
+      <c r="F38" s="30" t="s">
+        <v>697</v>
+      </c>
+      <c r="G38" s="30"/>
+      <c r="H38" s="38" t="s">
+        <v>732</v>
+      </c>
+      <c r="I38" s="30"/>
+    </row>
+    <row r="39" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="A39" s="35">
         <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
         <v>38</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="35" t="s">
         <v>557</v>
       </c>
-      <c r="C39" s="34" t="s">
-        <v>707</v>
-      </c>
-      <c r="D39" s="34" t="s">
+      <c r="C39" s="35" t="s">
+        <v>729</v>
+      </c>
+      <c r="D39" s="35" t="s">
         <v>558</v>
       </c>
-      <c r="E39" t="s">
-        <v>708</v>
-      </c>
-      <c r="F39" s="34" t="s">
-        <v>701</v>
-      </c>
-      <c r="G39" s="29"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="29"/>
-    </row>
-    <row r="40" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A40" s="31">
+      <c r="E39" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F39" s="35" t="s">
+        <v>697</v>
+      </c>
+      <c r="G39" s="30"/>
+      <c r="H39" s="34" t="s">
+        <v>731</v>
+      </c>
+      <c r="I39" s="30"/>
+    </row>
+    <row r="40" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="A40" s="35">
         <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
         <v>39</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="35" t="s">
         <v>557</v>
       </c>
-      <c r="C40" s="34" t="s">
-        <v>656</v>
-      </c>
-      <c r="D40" s="34" t="s">
+      <c r="C40" s="35" t="s">
+        <v>705</v>
+      </c>
+      <c r="D40" s="35" t="s">
         <v>558</v>
       </c>
       <c r="E40" t="s">
-        <v>657</v>
-      </c>
-      <c r="F40" s="34" t="s">
-        <v>658</v>
-      </c>
-      <c r="G40" s="29"/>
-      <c r="H40" s="35" t="s">
-        <v>659</v>
-      </c>
-      <c r="I40" s="29"/>
-    </row>
-    <row r="41" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A41" s="31">
+        <v>636</v>
+      </c>
+      <c r="F40" s="35" t="s">
+        <v>697</v>
+      </c>
+      <c r="G40" s="30"/>
+      <c r="H40" s="34" t="s">
+        <v>728</v>
+      </c>
+      <c r="I40" s="30"/>
+    </row>
+    <row r="41" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="35">
         <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
         <v>40</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="35" t="s">
         <v>557</v>
       </c>
-      <c r="C41" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="D41" s="34" t="s">
+      <c r="C41" s="35" t="s">
+        <v>703</v>
+      </c>
+      <c r="D41" s="35" t="s">
         <v>558</v>
       </c>
       <c r="E41" t="s">
-        <v>639</v>
-      </c>
-      <c r="F41" s="34" t="s">
-        <v>701</v>
-      </c>
-      <c r="G41" s="29"/>
-      <c r="H41" s="35" t="s">
-        <v>717</v>
-      </c>
-      <c r="I41" s="29"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="34">
+        <v>704</v>
+      </c>
+      <c r="F41" s="35" t="s">
+        <v>697</v>
+      </c>
+      <c r="G41" s="30"/>
+      <c r="H41" s="34" t="s">
+        <v>727</v>
+      </c>
+      <c r="I41" s="30"/>
+    </row>
+    <row r="42" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A42" s="32">
         <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
         <v>41</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="35" t="s">
         <v>557</v>
       </c>
-      <c r="C42" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D42" s="34" t="s">
+      <c r="C42" s="35" t="s">
+        <v>653</v>
+      </c>
+      <c r="D42" s="35" t="s">
         <v>558</v>
       </c>
       <c r="E42" t="s">
-        <v>686</v>
-      </c>
-      <c r="F42" s="34" t="s">
-        <v>687</v>
-      </c>
-      <c r="G42" s="29"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="29"/>
-    </row>
-    <row r="43" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="29">
+        <v>654</v>
+      </c>
+      <c r="F42" s="35" t="s">
+        <v>655</v>
+      </c>
+      <c r="G42" s="30"/>
+      <c r="H42" s="36" t="s">
+        <v>656</v>
+      </c>
+      <c r="I42" s="30"/>
+    </row>
+    <row r="43" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A43" s="32">
         <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
         <v>42</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="35" t="s">
         <v>557</v>
       </c>
-      <c r="C43" s="29" t="s">
-        <v>692</v>
-      </c>
-      <c r="D43" s="29" t="s">
+      <c r="C43" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="D43" s="35" t="s">
         <v>558</v>
       </c>
-      <c r="E43" s="12" t="s">
-        <v>693</v>
-      </c>
-      <c r="F43" s="29" t="s">
-        <v>702</v>
-      </c>
-      <c r="G43" s="29"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="29"/>
-    </row>
-    <row r="44" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A44" s="25">
+      <c r="E43" t="s">
+        <v>636</v>
+      </c>
+      <c r="F43" s="35" t="s">
+        <v>697</v>
+      </c>
+      <c r="G43" s="30"/>
+      <c r="H43" s="36" t="s">
+        <v>713</v>
+      </c>
+      <c r="I43" s="30"/>
+    </row>
+    <row r="44" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="A44" s="26">
         <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
         <v>43</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="30" t="s">
         <v>557</v>
       </c>
-      <c r="C44" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" s="29" t="s">
+      <c r="C44" s="30" t="s">
+        <v>722</v>
+      </c>
+      <c r="D44" s="30" t="s">
         <v>558</v>
       </c>
       <c r="E44" t="s">
-        <v>643</v>
-      </c>
-      <c r="F44" s="29" t="s">
-        <v>644</v>
-      </c>
-      <c r="G44" s="29"/>
-      <c r="H44" s="35" t="s">
-        <v>645</v>
-      </c>
-      <c r="I44" s="29"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="25">
+        <v>723</v>
+      </c>
+      <c r="F44" s="30" t="s">
+        <v>641</v>
+      </c>
+      <c r="G44" s="30"/>
+      <c r="H44" s="38" t="s">
+        <v>724</v>
+      </c>
+      <c r="I44" s="30"/>
+    </row>
+    <row r="45" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="A45" s="30">
         <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
         <v>44</v>
       </c>
-      <c r="B45" s="25" t="s">
-        <v>578</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>578</v>
-      </c>
-      <c r="D45" s="25" t="s">
+      <c r="B45" s="30" t="s">
+        <v>557</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>558</v>
+      </c>
+      <c r="E45" t="s">
+        <v>682</v>
+      </c>
+      <c r="F45" s="30" t="s">
+        <v>683</v>
+      </c>
+      <c r="G45" s="30"/>
+      <c r="H45" s="36" t="s">
+        <v>747</v>
+      </c>
+      <c r="I45" s="30"/>
+    </row>
+    <row r="46" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="A46" s="30">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>45</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>557</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>688</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>558</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="F46" s="30" t="s">
+        <v>698</v>
+      </c>
+      <c r="G46" s="30"/>
+      <c r="H46" s="38" t="s">
+        <v>725</v>
+      </c>
+      <c r="I46" s="30" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A47" s="26">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>46</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>557</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>558</v>
+      </c>
+      <c r="E47" t="s">
+        <v>640</v>
+      </c>
+      <c r="F47" s="30" t="s">
+        <v>641</v>
+      </c>
+      <c r="G47" s="30"/>
+      <c r="H47" s="36" t="s">
+        <v>642</v>
+      </c>
+      <c r="I47" s="30"/>
+    </row>
+    <row r="48" spans="1:9" ht="390" x14ac:dyDescent="0.25">
+      <c r="A48" s="26">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>47</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>557</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>558</v>
+      </c>
+      <c r="E48" t="s">
+        <v>721</v>
+      </c>
+      <c r="F48" s="30" t="s">
+        <v>641</v>
+      </c>
+      <c r="G48" s="30"/>
+      <c r="H48" s="38" t="s">
+        <v>726</v>
+      </c>
+      <c r="I48" s="30"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="26">
+        <f>ROW() - ROW(Sala_de_medicacao_e_Internacao!$A$1)</f>
+        <v>48</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>576</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>576</v>
+      </c>
+      <c r="D49" s="26" t="s">
         <v>560</v>
       </c>
-      <c r="E45" s="31"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25" t="s">
-        <v>579</v>
-      </c>
-      <c r="H45" s="31"/>
-      <c r="I45" s="25"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26" t="s">
+        <v>577</v>
+      </c>
+      <c r="H49" s="32"/>
+      <c r="I49" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -10975,7 +11486,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>545</v>
@@ -10999,42 +11510,42 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
